--- a/bvtv.xlsx
+++ b/bvtv.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -621,11 +624,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2078607720"/>
-        <c:axId val="2065999016"/>
+        <c:axId val="2066353544"/>
+        <c:axId val="2094170456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2078607720"/>
+        <c:axId val="2066353544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -654,12 +657,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065999016"/>
+        <c:crossAx val="2094170456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2065999016"/>
+        <c:axId val="2094170456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -689,7 +692,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078607720"/>
+        <c:crossAx val="2066353544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1139,11 +1142,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2063668360"/>
-        <c:axId val="2063888152"/>
+        <c:axId val="2090599288"/>
+        <c:axId val="2068001416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2063668360"/>
+        <c:axId val="2090599288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1172,12 +1175,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2063888152"/>
+        <c:crossAx val="2068001416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2063888152"/>
+        <c:axId val="2068001416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1207,7 +1210,392 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2063668360"/>
+        <c:crossAx val="2090599288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Własne</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> wyniki</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$E$2:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.6095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67975</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54775</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.539</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.52225</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61075</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.592</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.62675</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.56875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5225</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.54325</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.64775</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.63775</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.631</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5485</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.5815</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.5905</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.599</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.69975</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.6135</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.61475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$2:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.1199144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.135094</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1070868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1159383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.144385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1057523</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.070031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10425</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0749672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14164</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1517775</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.154156</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1467375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14406</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.119595</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.082853</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0620023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.104699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.120527</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1284833</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1554625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13077</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1497275</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0658136</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.080492</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.093966</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1385033</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1272167</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15729</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1336167</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.134655</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.128352</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.110773</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0769756</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0943426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2067699000"/>
+        <c:axId val="2094325976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2067699000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>BV/TV</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2094325976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2094325976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="35.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Elastic Modulus [GPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2067699000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1335,7 +1723,330 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="D2">
+            <v>0.1199144</v>
+          </cell>
+          <cell r="E2">
+            <v>0.60950000000000004</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="D3">
+            <v>0.13509399999999999</v>
+          </cell>
+          <cell r="E3">
+            <v>0.60175000000000001</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>0.1070868</v>
+          </cell>
+          <cell r="E4">
+            <v>0.57725000000000004</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>0.11593829999999999</v>
+          </cell>
+          <cell r="E5">
+            <v>0.52475000000000005</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>0.14438499999999999</v>
+          </cell>
+          <cell r="E6">
+            <v>0.53874999999999995</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>0.10575230000000001</v>
+          </cell>
+          <cell r="E7">
+            <v>0.53849999999999998</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>7.003100000000001E-2</v>
+          </cell>
+          <cell r="E8">
+            <v>0.67974999999999997</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>0.10425</v>
+          </cell>
+          <cell r="E9">
+            <v>0.60750000000000004</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>7.4967200000000012E-2</v>
+          </cell>
+          <cell r="E10">
+            <v>0.63624999999999998</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>0.14163999999999999</v>
+          </cell>
+          <cell r="E11">
+            <v>0.56999999999999995</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>0.15177750000000001</v>
+          </cell>
+          <cell r="E12">
+            <v>0.54774999999999996</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>0.15415600000000002</v>
+          </cell>
+          <cell r="E13">
+            <v>0.53900000000000003</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>0.14673750000000002</v>
+          </cell>
+          <cell r="E14">
+            <v>0.51049999999999995</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>0.14405999999999999</v>
+          </cell>
+          <cell r="E15">
+            <v>0.52224999999999999</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>0.11959500000000001</v>
+          </cell>
+          <cell r="E16">
+            <v>0.61075000000000002</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>8.2852999999999996E-2</v>
+          </cell>
+          <cell r="E17">
+            <v>0.59199999999999997</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18">
+            <v>6.2002299999999996E-2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19">
+            <v>0.104699</v>
+          </cell>
+          <cell r="E19">
+            <v>0.57999999999999996</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20">
+            <v>0.12052700000000001</v>
+          </cell>
+          <cell r="E20">
+            <v>0.56125000000000003</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="D21">
+            <v>0.12848330000000002</v>
+          </cell>
+          <cell r="E21">
+            <v>0.62675000000000003</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22">
+            <v>0.1554625</v>
+          </cell>
+          <cell r="E22">
+            <v>0.56874999999999998</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="D23">
+            <v>0.13077000000000003</v>
+          </cell>
+          <cell r="E23">
+            <v>0.52249999999999996</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24">
+            <v>0.14972749999999999</v>
+          </cell>
+          <cell r="E24">
+            <v>0.54325000000000001</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25">
+            <v>6.58136E-2</v>
+          </cell>
+          <cell r="E25">
+            <v>0.64775000000000005</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26">
+            <v>8.0492000000000008E-2</v>
+          </cell>
+          <cell r="E26">
+            <v>0.63775000000000004</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27">
+            <v>9.3965999999999994E-2</v>
+          </cell>
+          <cell r="E27">
+            <v>0.63100000000000001</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28">
+            <v>0.1385033</v>
+          </cell>
+          <cell r="E28">
+            <v>0.54849999999999999</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="D29">
+            <v>0.12721670000000002</v>
+          </cell>
+          <cell r="E29">
+            <v>0.58150000000000002</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30">
+            <v>0.15728999999999999</v>
+          </cell>
+          <cell r="E30">
+            <v>0.59050000000000002</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31">
+            <v>0.1336167</v>
+          </cell>
+          <cell r="E31">
+            <v>0.53</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32">
+            <v>0.134655</v>
+          </cell>
+          <cell r="E32">
+            <v>0.5625</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="D33">
+            <v>0.12835199999999999</v>
+          </cell>
+          <cell r="E33">
+            <v>0.59899999999999998</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="D34">
+            <v>0.110773</v>
+          </cell>
+          <cell r="E34">
+            <v>0.69974999999999998</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="D35">
+            <v>7.6975600000000005E-2</v>
+          </cell>
+          <cell r="E35">
+            <v>0.61350000000000005</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="D36">
+            <v>9.4342600000000013E-2</v>
+          </cell>
+          <cell r="E36">
+            <v>0.61475000000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1662,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" topLeftCell="K6" workbookViewId="0">
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/bvtv.xlsx
+++ b/bvtv.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>BV/TV</t>
   </si>
@@ -50,12 +50,63 @@
   <si>
     <t>E (P)</t>
   </si>
+  <si>
+    <t>Youngs Module [Gpa]</t>
+  </si>
+  <si>
+    <t>Bone</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>KOSC K03RB1</t>
+  </si>
+  <si>
+    <t>KOSC K03RA1</t>
+  </si>
+  <si>
+    <t>KOSC K03LB1</t>
+  </si>
+  <si>
+    <t>KOSC 1RC</t>
+  </si>
+  <si>
+    <t>KOSC 1RA1</t>
+  </si>
+  <si>
+    <t>KOSC 1LA</t>
+  </si>
+  <si>
+    <t>K06RA3</t>
+  </si>
+  <si>
+    <t>K06RA2</t>
+  </si>
+  <si>
+    <t>K06LA1</t>
+  </si>
+  <si>
+    <t>K05RA2</t>
+  </si>
+  <si>
+    <t>K05RA1</t>
+  </si>
+  <si>
+    <t>K05LA1</t>
+  </si>
+  <si>
+    <t>Deviation (without cutting) [Gpa]</t>
+  </si>
+  <si>
+    <t>Deviation (without cutting) [MPa]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,8 +142,23 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +180,41 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF948A54"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF60497A"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF366092"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF76933C"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -156,7 +257,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -167,8 +268,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -183,17 +295,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="21">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Neutral" xfId="10" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -624,11 +768,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2066353544"/>
-        <c:axId val="2094170456"/>
+        <c:axId val="2066305656"/>
+        <c:axId val="2145673640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2066353544"/>
+        <c:axId val="2066305656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -657,12 +801,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094170456"/>
+        <c:crossAx val="2145673640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2094170456"/>
+        <c:axId val="2145673640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,7 +836,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2066353544"/>
+        <c:crossAx val="2066305656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1142,11 +1286,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2090599288"/>
-        <c:axId val="2068001416"/>
+        <c:axId val="2069453720"/>
+        <c:axId val="2078674744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2090599288"/>
+        <c:axId val="2069453720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,12 +1319,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2068001416"/>
+        <c:crossAx val="2078674744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2068001416"/>
+        <c:axId val="2078674744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090599288"/>
+        <c:crossAx val="2069453720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1519,11 +1663,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2067699000"/>
-        <c:axId val="2094325976"/>
+        <c:axId val="2065773000"/>
+        <c:axId val="2067618952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2067699000"/>
+        <c:axId val="2065773000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1559,12 +1703,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094325976"/>
+        <c:crossAx val="2067618952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2094325976"/>
+        <c:axId val="2067618952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35.0"/>
@@ -1595,7 +1739,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067699000"/>
+        <c:crossAx val="2065773000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2371,10 +2515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:AF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K6" workbookViewId="0">
-      <selection activeCell="W30" sqref="W30"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2382,9 +2526,10 @@
     <col min="1" max="4" width="10.83203125" style="2"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="29" max="29" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:32" ht="60">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2410,8 +2555,26 @@
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="AA1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="30">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2442,8 +2605,28 @@
       <c r="J2" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="AA2" s="11">
+        <v>0.1199144</v>
+      </c>
+      <c r="AB2" s="11">
+        <v>0.60950000000000004</v>
+      </c>
+      <c r="AC2" s="2">
+        <f>AF2*10^(-3)</f>
+        <v>2.02769E-2</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="12">
+        <f>20.2769</f>
+        <v>20.276900000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="30">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2474,8 +2657,27 @@
       <c r="J3" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="AA3" s="11">
+        <v>0.13509399999999999</v>
+      </c>
+      <c r="AB3" s="11">
+        <v>0.60175000000000001</v>
+      </c>
+      <c r="AC3" s="2">
+        <f>AF3*10^(-3)</f>
+        <v>2.0483100000000001E-2</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>20.4831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="30">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2497,8 +2699,27 @@
         <f t="shared" si="2"/>
         <v>0.17156862745098039</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="AA4" s="11">
+        <v>0.1070868</v>
+      </c>
+      <c r="AB4" s="11">
+        <v>0.57725000000000004</v>
+      </c>
+      <c r="AC4" s="2">
+        <f>AF4*10^(-3)</f>
+        <v>1.9372500000000001E-2</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>19.372499999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="30">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2520,8 +2741,27 @@
         <f t="shared" si="2"/>
         <v>1.6013071895424837</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="AA5" s="11">
+        <v>0.11593829999999999</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>0.52475000000000005</v>
+      </c>
+      <c r="AC5" s="2">
+        <f>AF5*10^(-3)</f>
+        <v>1.29271E-2</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="12">
+        <v>12.927099999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="30">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2543,8 +2783,27 @@
         <f t="shared" si="2"/>
         <v>1.0294117647058822</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="AA6" s="11">
+        <v>0.14438499999999999</v>
+      </c>
+      <c r="AB6" s="11">
+        <v>0.53874999999999995</v>
+      </c>
+      <c r="AC6" s="2">
+        <f>AF6*10^(-3)</f>
+        <v>6.1291000000000002E-3</v>
+      </c>
+      <c r="AD6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="12">
+        <v>6.1291000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="30">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2566,8 +2825,27 @@
         <f t="shared" si="2"/>
         <v>0.91503267973856206</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="AA7" s="11">
+        <v>0.10575230000000001</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="AC7" s="2">
+        <f>AF7*10^(-3)</f>
+        <v>9.6501E-3</v>
+      </c>
+      <c r="AD7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF7" s="12">
+        <v>9.6501000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="30">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2589,8 +2867,27 @@
         <f t="shared" si="2"/>
         <v>0.34313725490196079</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="AA8" s="11">
+        <v>7.003100000000001E-2</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>0.67974999999999997</v>
+      </c>
+      <c r="AC8" s="2">
+        <f>AF8*10^(-3)</f>
+        <v>8.8190000000000004E-3</v>
+      </c>
+      <c r="AD8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="12">
+        <v>8.8190000000000008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="30">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2612,8 +2909,27 @@
         <f t="shared" si="2"/>
         <v>0.45751633986928103</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="AA9" s="11">
+        <v>0.10425</v>
+      </c>
+      <c r="AB9" s="11">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="AC9" s="2">
+        <f>AF9*10^(-3)</f>
+        <v>2.3295E-3</v>
+      </c>
+      <c r="AD9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="12">
+        <v>2.3294999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="30">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2635,8 +2951,27 @@
         <f t="shared" si="2"/>
         <v>0.57189542483660127</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="AA10" s="11">
+        <v>7.4967200000000012E-2</v>
+      </c>
+      <c r="AB10" s="11">
+        <v>0.63624999999999998</v>
+      </c>
+      <c r="AC10" s="2">
+        <f>AF10*10^(-3)</f>
+        <v>6.9801999999999998E-3</v>
+      </c>
+      <c r="AD10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE10" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF10" s="12">
+        <v>6.9802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2658,8 +2993,27 @@
         <f t="shared" si="2"/>
         <v>0.85784313725490191</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="AA11" s="11">
+        <v>0.14163999999999999</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AC11" s="2">
+        <f>AF11*10^(-3)</f>
+        <v>8.6663E-3</v>
+      </c>
+      <c r="AD11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="12">
+        <v>8.6662999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2681,8 +3035,27 @@
         <f t="shared" si="2"/>
         <v>0.57189542483660127</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="AA12" s="11">
+        <v>0.15177750000000001</v>
+      </c>
+      <c r="AB12" s="11">
+        <v>0.54774999999999996</v>
+      </c>
+      <c r="AC12" s="2">
+        <f>AF12*10^(-3)</f>
+        <v>8.4776000000000001E-3</v>
+      </c>
+      <c r="AD12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE12" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>8.4776000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2704,8 +3077,27 @@
         <f t="shared" si="2"/>
         <v>1.5441176470588236</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="AA13" s="11">
+        <v>0.15415600000000002</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="AC13" s="2">
+        <f>AF13*10^(-3)</f>
+        <v>7.1643999999999996E-3</v>
+      </c>
+      <c r="AD13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>7.1643999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2727,8 +3119,27 @@
         <f t="shared" si="2"/>
         <v>1.0294117647058822</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="AA14" s="11">
+        <v>0.14673750000000002</v>
+      </c>
+      <c r="AB14" s="11">
+        <v>0.51049999999999995</v>
+      </c>
+      <c r="AC14" s="2">
+        <f>AF14*10^(-3)</f>
+        <v>3.1227999999999998E-3</v>
+      </c>
+      <c r="AD14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="12">
+        <v>3.1227999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2750,8 +3161,27 @@
         <f t="shared" si="2"/>
         <v>1.6013071895424837</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="AA15" s="11">
+        <v>0.14405999999999999</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>0.52224999999999999</v>
+      </c>
+      <c r="AC15" s="2">
+        <f>AF15*10^(-3)</f>
+        <v>2.6619E-3</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF15" s="12">
+        <v>2.6619000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2773,8 +3203,27 @@
         <f t="shared" si="2"/>
         <v>0.57189542483660127</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="AA16" s="11">
+        <v>0.11959500000000001</v>
+      </c>
+      <c r="AB16" s="11">
+        <v>0.61075000000000002</v>
+      </c>
+      <c r="AC16" s="2">
+        <f>AF16*10^(-3)</f>
+        <v>3.3132000000000001E-3</v>
+      </c>
+      <c r="AD16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE16" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="12">
+        <v>3.3132000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2796,8 +3245,27 @@
         <f t="shared" si="2"/>
         <v>1.1437908496732025</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="AA17" s="11">
+        <v>8.2852999999999996E-2</v>
+      </c>
+      <c r="AB17" s="11">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="AC17" s="2">
+        <f>AF17*10^(-3)</f>
+        <v>2.9108000000000003E-3</v>
+      </c>
+      <c r="AD17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE17" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF17" s="12">
+        <v>2.9108000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2819,8 +3287,25 @@
         <f t="shared" si="2"/>
         <v>0.85784313725490191</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="AA18" s="11">
+        <v>6.2002299999999996E-2</v>
+      </c>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="2">
+        <f>AF18*10^(-3)</f>
+        <v>4.9484000000000004E-3</v>
+      </c>
+      <c r="AD18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE18" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF18" s="12">
+        <v>4.9484000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2842,8 +3327,27 @@
         <f t="shared" si="2"/>
         <v>1.3725490196078431</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="AA19" s="11">
+        <v>0.104699</v>
+      </c>
+      <c r="AB19" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AC19" s="2">
+        <f>AF19*10^(-3)</f>
+        <v>7.2104000000000005E-3</v>
+      </c>
+      <c r="AD19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE19" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="12">
+        <v>7.2103999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2865,8 +3369,27 @@
         <f t="shared" si="2"/>
         <v>2.4019607843137254</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="AA20" s="11">
+        <v>0.12052700000000001</v>
+      </c>
+      <c r="AB20" s="11">
+        <v>0.56125000000000003</v>
+      </c>
+      <c r="AC20" s="2">
+        <f>AF20*10^(-3)</f>
+        <v>1.0219000000000001E-3</v>
+      </c>
+      <c r="AD20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE20" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="12">
+        <v>1.0219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2888,8 +3411,27 @@
         <f t="shared" si="2"/>
         <v>1.2009803921568627</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="AA21" s="11">
+        <v>0.12848330000000002</v>
+      </c>
+      <c r="AB21" s="11">
+        <v>0.62675000000000003</v>
+      </c>
+      <c r="AC21" s="2">
+        <f>AF21*10^(-3)</f>
+        <v>8.238500000000001E-3</v>
+      </c>
+      <c r="AD21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF21" s="12">
+        <v>8.2385000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2911,8 +3453,27 @@
         <f t="shared" si="2"/>
         <v>0.80065359477124187</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="AA22" s="11">
+        <v>0.1554625</v>
+      </c>
+      <c r="AB22" s="11">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="AC22" s="2">
+        <f>AF22*10^(-3)</f>
+        <v>4.8127000000000005E-3</v>
+      </c>
+      <c r="AD22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE22" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="12">
+        <v>4.8127000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2934,8 +3495,27 @@
         <f t="shared" si="2"/>
         <v>1.1437908496732025</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="AA23" s="11">
+        <v>0.13077000000000003</v>
+      </c>
+      <c r="AB23" s="11">
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="AC23" s="2">
+        <f>AF23*10^(-3)</f>
+        <v>2.1063000000000002E-3</v>
+      </c>
+      <c r="AD23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE23" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF23" s="12">
+        <v>2.1063000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2957,8 +3537,27 @@
         <f t="shared" si="2"/>
         <v>1.7156862745098038</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="AA24" s="11">
+        <v>0.14972749999999999</v>
+      </c>
+      <c r="AB24" s="11">
+        <v>0.54325000000000001</v>
+      </c>
+      <c r="AC24" s="2">
+        <f>AF24*10^(-3)</f>
+        <v>6.0113000000000007E-3</v>
+      </c>
+      <c r="AD24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE24" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF24" s="12">
+        <v>6.0113000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2980,8 +3579,27 @@
         <f t="shared" si="2"/>
         <v>0.68627450980392157</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="AA25" s="11">
+        <v>6.58136E-2</v>
+      </c>
+      <c r="AB25" s="11">
+        <v>0.64775000000000005</v>
+      </c>
+      <c r="AC25" s="2">
+        <f>AF25*10^(-3)</f>
+        <v>4.6601999999999998E-3</v>
+      </c>
+      <c r="AD25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE25" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="12">
+        <v>4.6601999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3003,8 +3621,27 @@
         <f t="shared" si="2"/>
         <v>1.5441176470588236</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="AA26" s="11">
+        <v>8.0492000000000008E-2</v>
+      </c>
+      <c r="AB26" s="11">
+        <v>0.63775000000000004</v>
+      </c>
+      <c r="AC26" s="2">
+        <f>AF26*10^(-3)</f>
+        <v>7.8902999999999994E-3</v>
+      </c>
+      <c r="AD26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE26" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="12">
+        <v>7.8902999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3026,8 +3663,27 @@
         <f t="shared" si="2"/>
         <v>2.2875816993464051</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="AA27" s="11">
+        <v>9.3965999999999994E-2</v>
+      </c>
+      <c r="AB27" s="11">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="AC27" s="2">
+        <f>AF27*10^(-3)</f>
+        <v>1.7384599999999998E-3</v>
+      </c>
+      <c r="AD27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE27" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF27" s="12">
+        <v>1.7384599999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3049,8 +3705,27 @@
         <f t="shared" si="2"/>
         <v>1.7156862745098038</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="AA28" s="11">
+        <v>0.1385033</v>
+      </c>
+      <c r="AB28" s="11">
+        <v>0.54849999999999999</v>
+      </c>
+      <c r="AC28" s="2">
+        <f>AF28*10^(-3)</f>
+        <v>9.7704999999999997E-3</v>
+      </c>
+      <c r="AD28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE28" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="12">
+        <v>9.7705000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3072,8 +3747,27 @@
         <f t="shared" si="2"/>
         <v>0.85784313725490191</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="AA29" s="11">
+        <v>0.12721670000000002</v>
+      </c>
+      <c r="AB29" s="11">
+        <v>0.58150000000000002</v>
+      </c>
+      <c r="AC29" s="2">
+        <f>AF29*10^(-3)</f>
+        <v>4.8891000000000004E-3</v>
+      </c>
+      <c r="AD29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE29" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="12">
+        <v>4.8891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3095,8 +3789,27 @@
         <f t="shared" si="2"/>
         <v>1.7156862745098038</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="AA30" s="11">
+        <v>0.15728999999999999</v>
+      </c>
+      <c r="AB30" s="11">
+        <v>0.59050000000000002</v>
+      </c>
+      <c r="AC30" s="2">
+        <f>AF30*10^(-3)</f>
+        <v>3.2041000000000001E-3</v>
+      </c>
+      <c r="AD30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE30" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF30" s="12">
+        <v>3.2040999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3118,8 +3831,27 @@
         <f t="shared" si="2"/>
         <v>2.630718954248366</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="AA31" s="11">
+        <v>0.1336167</v>
+      </c>
+      <c r="AB31" s="11">
+        <v>0.53</v>
+      </c>
+      <c r="AC31" s="2">
+        <f>AF31*10^(-3)</f>
+        <v>6.7698999999999997E-3</v>
+      </c>
+      <c r="AD31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE31" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="12">
+        <v>6.7698999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3141,8 +3873,27 @@
         <f t="shared" si="2"/>
         <v>3.5457516339869279</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="AA32" s="11">
+        <v>0.134655</v>
+      </c>
+      <c r="AB32" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="AC32" s="2">
+        <f>AF32*10^(-3)</f>
+        <v>7.6550000000000003E-3</v>
+      </c>
+      <c r="AD32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE32" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF32" s="12">
+        <v>7.6550000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3164,8 +3915,27 @@
         <f t="shared" si="2"/>
         <v>3.8888888888888888</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="AA33" s="11">
+        <v>0.12835199999999999</v>
+      </c>
+      <c r="AB33" s="11">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="AC33" s="2">
+        <f>AF33*10^(-3)</f>
+        <v>1.45474E-2</v>
+      </c>
+      <c r="AD33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE33" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF33" s="12">
+        <v>14.5474</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3187,8 +3957,27 @@
         <f t="shared" si="2"/>
         <v>1.0294117647058822</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="AA34" s="11">
+        <v>0.110773</v>
+      </c>
+      <c r="AB34" s="11">
+        <v>0.69974999999999998</v>
+      </c>
+      <c r="AC34" s="2">
+        <f>AF34*10^(-3)</f>
+        <v>1.16977E-2</v>
+      </c>
+      <c r="AD34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE34" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="12">
+        <v>11.697699999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3210,8 +3999,27 @@
         <f t="shared" si="2"/>
         <v>1.9444444444444444</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="AA35" s="11">
+        <v>7.6975600000000005E-2</v>
+      </c>
+      <c r="AB35" s="11">
+        <v>0.61350000000000005</v>
+      </c>
+      <c r="AC35" s="2">
+        <f>AF35*10^(-3)</f>
+        <v>1.4992699999999999E-2</v>
+      </c>
+      <c r="AD35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE35" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF35" s="12">
+        <v>14.992699999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3233,8 +4041,27 @@
         <f t="shared" si="2"/>
         <v>2.2303921568627452</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="AA36" s="11">
+        <v>9.4342600000000013E-2</v>
+      </c>
+      <c r="AB36" s="11">
+        <v>0.61475000000000002</v>
+      </c>
+      <c r="AC36" s="2">
+        <f>AF36*10^(-3)</f>
+        <v>1.5706990000000001E-2</v>
+      </c>
+      <c r="AD36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE36" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF36" s="12">
+        <v>15.706989999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3257,7 +4084,7 @@
         <v>3.3169934640522878</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:32">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3280,7 +4107,7 @@
         <v>4.2320261437908497</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:32">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3303,7 +4130,7 @@
         <v>3.6601307189542482</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:32">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -3326,7 +4153,7 @@
         <v>3.5457516339869279</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:32">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3349,7 +4176,7 @@
         <v>1.8300653594771241</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:32">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3372,7 +4199,7 @@
         <v>3.0882352941176472</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:32">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -3395,7 +4222,7 @@
         <v>3.7745098039215685</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:32">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3418,7 +4245,7 @@
         <v>4.632352941176471</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:32">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -3441,7 +4268,7 @@
         <v>10.179738562091503</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:32">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -3464,7 +4291,7 @@
         <v>12.524509803921569</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:32">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -3487,7 +4314,7 @@
         <v>12.81045751633987</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:32">
       <c r="A48" s="4">
         <v>47</v>
       </c>

--- a/bvtv.xlsx
+++ b/bvtv.xlsx
@@ -768,11 +768,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2066305656"/>
-        <c:axId val="2145673640"/>
+        <c:axId val="2139838664"/>
+        <c:axId val="2069288936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2066305656"/>
+        <c:axId val="2139838664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,12 +801,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145673640"/>
+        <c:crossAx val="2069288936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2145673640"/>
+        <c:axId val="2069288936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -836,7 +836,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2066305656"/>
+        <c:crossAx val="2139838664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1286,11 +1286,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2069453720"/>
-        <c:axId val="2078674744"/>
+        <c:axId val="2066773352"/>
+        <c:axId val="2065929416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2069453720"/>
+        <c:axId val="2066773352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,12 +1319,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078674744"/>
+        <c:crossAx val="2065929416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2078674744"/>
+        <c:axId val="2065929416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,7 +1354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069453720"/>
+        <c:crossAx val="2066773352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1416,7 +1416,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.137256999125109"/>
+          <c:y val="0.174712643678161"/>
+          <c:w val="0.710232939632546"/>
+          <c:h val="0.674534045313301"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1663,11 +1673,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2065773000"/>
-        <c:axId val="2067618952"/>
+        <c:axId val="2066501976"/>
+        <c:axId val="2065844552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2065773000"/>
+        <c:axId val="2066501976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1703,12 +1713,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067618952"/>
+        <c:crossAx val="2065844552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2067618952"/>
+        <c:axId val="2065844552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35.0"/>
@@ -1739,7 +1749,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065773000"/>
+        <c:crossAx val="2066501976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2517,8 +2527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2612,7 +2622,7 @@
         <v>0.60950000000000004</v>
       </c>
       <c r="AC2" s="2">
-        <f>AF2*10^(-3)</f>
+        <f t="shared" ref="AC2:AC36" si="0">AF2*10^(-3)</f>
         <v>2.02769E-2</v>
       </c>
       <c r="AD2" s="11" t="s">
@@ -2637,15 +2647,15 @@
         <v>152</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D10" si="0">612-B3</f>
+        <f t="shared" ref="D3:D10" si="1">612-B3</f>
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E59" si="1">C3*$J$3/$I$3</f>
+        <f t="shared" ref="E3:E59" si="2">C3*$J$3/$I$3</f>
         <v>0.23030303030303031</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F59" si="2">D3*$J$2/$I$2</f>
+        <f t="shared" ref="F3:F59" si="3">D3*$J$2/$I$2</f>
         <v>0.22875816993464052</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -2664,7 +2674,7 @@
         <v>0.60175000000000001</v>
       </c>
       <c r="AC3" s="2">
-        <f>AF3*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>2.0483100000000001E-2</v>
       </c>
       <c r="AD3" s="11" t="s">
@@ -2688,15 +2698,15 @@
         <v>162</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24545454545454545</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17156862745098039</v>
       </c>
       <c r="AA4" s="11">
@@ -2706,7 +2716,7 @@
         <v>0.57725000000000004</v>
       </c>
       <c r="AC4" s="2">
-        <f>AF4*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>1.9372500000000001E-2</v>
       </c>
       <c r="AD4" s="11" t="s">
@@ -2730,15 +2740,15 @@
         <v>230</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34848484848484851</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6013071895424837</v>
       </c>
       <c r="AA5" s="11">
@@ -2748,7 +2758,7 @@
         <v>0.52475000000000005</v>
       </c>
       <c r="AC5" s="2">
-        <f>AF5*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>1.29271E-2</v>
       </c>
       <c r="AD5" s="11" t="s">
@@ -2772,15 +2782,15 @@
         <v>171</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25909090909090909</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0294117647058822</v>
       </c>
       <c r="AA6" s="11">
@@ -2790,7 +2800,7 @@
         <v>0.53874999999999995</v>
       </c>
       <c r="AC6" s="2">
-        <f>AF6*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>6.1291000000000002E-3</v>
       </c>
       <c r="AD6" s="11" t="s">
@@ -2814,15 +2824,15 @@
         <v>248</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.37575757575757573</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.91503267973856206</v>
       </c>
       <c r="AA7" s="11">
@@ -2832,7 +2842,7 @@
         <v>0.53849999999999998</v>
       </c>
       <c r="AC7" s="2">
-        <f>AF7*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>9.6501E-3</v>
       </c>
       <c r="AD7" s="11" t="s">
@@ -2856,15 +2866,15 @@
         <v>236</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.35757575757575755</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.34313725490196079</v>
       </c>
       <c r="AA8" s="11">
@@ -2874,7 +2884,7 @@
         <v>0.67974999999999997</v>
       </c>
       <c r="AC8" s="2">
-        <f>AF8*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>8.8190000000000004E-3</v>
       </c>
       <c r="AD8" s="11" t="s">
@@ -2898,15 +2908,15 @@
         <v>234</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.35454545454545455</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45751633986928103</v>
       </c>
       <c r="AA9" s="11">
@@ -2916,7 +2926,7 @@
         <v>0.60750000000000004</v>
       </c>
       <c r="AC9" s="2">
-        <f>AF9*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>2.3295E-3</v>
       </c>
       <c r="AD9" s="11" t="s">
@@ -2940,15 +2950,15 @@
         <v>273</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.41363636363636358</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.57189542483660127</v>
       </c>
       <c r="AA10" s="11">
@@ -2958,7 +2968,7 @@
         <v>0.63624999999999998</v>
       </c>
       <c r="AC10" s="2">
-        <f>AF10*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>6.9801999999999998E-3</v>
       </c>
       <c r="AD10" s="11" t="s">
@@ -2982,15 +2992,15 @@
         <v>294</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" ref="D11:D42" si="3">612-B11</f>
+        <f t="shared" ref="D11:D42" si="4">612-B11</f>
         <v>15</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44545454545454549</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.85784313725490191</v>
       </c>
       <c r="AA11" s="11">
@@ -3000,7 +3010,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="AC11" s="2">
-        <f>AF11*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>8.6663E-3</v>
       </c>
       <c r="AD11" s="11" t="s">
@@ -3024,15 +3034,15 @@
         <v>303</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.45909090909090905</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.57189542483660127</v>
       </c>
       <c r="AA12" s="11">
@@ -3042,7 +3052,7 @@
         <v>0.54774999999999996</v>
       </c>
       <c r="AC12" s="2">
-        <f>AF12*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>8.4776000000000001E-3</v>
       </c>
       <c r="AD12" s="11" t="s">
@@ -3066,15 +3076,15 @@
         <v>314</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.47575757575757577</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5441176470588236</v>
       </c>
       <c r="AA13" s="11">
@@ -3084,7 +3094,7 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="AC13" s="2">
-        <f>AF13*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>7.1643999999999996E-3</v>
       </c>
       <c r="AD13" s="11" t="s">
@@ -3108,15 +3118,15 @@
         <v>316</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.47878787878787876</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0294117647058822</v>
       </c>
       <c r="AA14" s="11">
@@ -3126,7 +3136,7 @@
         <v>0.51049999999999995</v>
       </c>
       <c r="AC14" s="2">
-        <f>AF14*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>3.1227999999999998E-3</v>
       </c>
       <c r="AD14" s="11" t="s">
@@ -3150,15 +3160,15 @@
         <v>310</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.46969696969696972</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6013071895424837</v>
       </c>
       <c r="AA15" s="11">
@@ -3168,7 +3178,7 @@
         <v>0.52224999999999999</v>
       </c>
       <c r="AC15" s="2">
-        <f>AF15*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>2.6619E-3</v>
       </c>
       <c r="AD15" s="11" t="s">
@@ -3192,15 +3202,15 @@
         <v>334</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5060606060606061</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.57189542483660127</v>
       </c>
       <c r="AA16" s="11">
@@ -3210,7 +3220,7 @@
         <v>0.61075000000000002</v>
       </c>
       <c r="AC16" s="2">
-        <f>AF16*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>3.3132000000000001E-3</v>
       </c>
       <c r="AD16" s="11" t="s">
@@ -3234,15 +3244,15 @@
         <v>351</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.53181818181818186</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1437908496732025</v>
       </c>
       <c r="AA17" s="11">
@@ -3252,7 +3262,7 @@
         <v>0.59199999999999997</v>
       </c>
       <c r="AC17" s="2">
-        <f>AF17*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>2.9108000000000003E-3</v>
       </c>
       <c r="AD17" s="11" t="s">
@@ -3276,15 +3286,15 @@
         <v>375</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.56818181818181823</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.85784313725490191</v>
       </c>
       <c r="AA18" s="11">
@@ -3292,7 +3302,7 @@
       </c>
       <c r="AB18" s="11"/>
       <c r="AC18" s="2">
-        <f>AF18*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>4.9484000000000004E-3</v>
       </c>
       <c r="AD18" s="11" t="s">
@@ -3316,15 +3326,15 @@
         <v>399</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.6045454545454545</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3725490196078431</v>
       </c>
       <c r="AA19" s="11">
@@ -3334,7 +3344,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="AC19" s="2">
-        <f>AF19*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>7.2104000000000005E-3</v>
       </c>
       <c r="AD19" s="11" t="s">
@@ -3358,15 +3368,15 @@
         <v>400</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60606060606060608</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4019607843137254</v>
       </c>
       <c r="AA20" s="11">
@@ -3376,7 +3386,7 @@
         <v>0.56125000000000003</v>
       </c>
       <c r="AC20" s="2">
-        <f>AF20*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>1.0219000000000001E-3</v>
       </c>
       <c r="AD20" s="11" t="s">
@@ -3400,15 +3410,15 @@
         <v>411</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62272727272727268</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2009803921568627</v>
       </c>
       <c r="AA21" s="11">
@@ -3418,7 +3428,7 @@
         <v>0.62675000000000003</v>
       </c>
       <c r="AC21" s="2">
-        <f>AF21*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>8.238500000000001E-3</v>
       </c>
       <c r="AD21" s="11" t="s">
@@ -3442,15 +3452,15 @@
         <v>432</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.65454545454545454</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.80065359477124187</v>
       </c>
       <c r="AA22" s="11">
@@ -3460,7 +3470,7 @@
         <v>0.56874999999999998</v>
       </c>
       <c r="AC22" s="2">
-        <f>AF22*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>4.8127000000000005E-3</v>
       </c>
       <c r="AD22" s="11" t="s">
@@ -3484,15 +3494,15 @@
         <v>442</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66969696969696968</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1437908496732025</v>
       </c>
       <c r="AA23" s="11">
@@ -3502,7 +3512,7 @@
         <v>0.52249999999999996</v>
       </c>
       <c r="AC23" s="2">
-        <f>AF23*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>2.1063000000000002E-3</v>
       </c>
       <c r="AD23" s="11" t="s">
@@ -3526,15 +3536,15 @@
         <v>448</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.67878787878787883</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7156862745098038</v>
       </c>
       <c r="AA24" s="11">
@@ -3544,7 +3554,7 @@
         <v>0.54325000000000001</v>
       </c>
       <c r="AC24" s="2">
-        <f>AF24*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>6.0113000000000007E-3</v>
       </c>
       <c r="AD24" s="11" t="s">
@@ -3568,15 +3578,15 @@
         <v>460</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.69696969696969702</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.68627450980392157</v>
       </c>
       <c r="AA25" s="11">
@@ -3586,7 +3596,7 @@
         <v>0.64775000000000005</v>
       </c>
       <c r="AC25" s="2">
-        <f>AF25*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>4.6601999999999998E-3</v>
       </c>
       <c r="AD25" s="11" t="s">
@@ -3610,15 +3620,15 @@
         <v>472</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.71515151515151509</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5441176470588236</v>
       </c>
       <c r="AA26" s="11">
@@ -3628,7 +3638,7 @@
         <v>0.63775000000000004</v>
       </c>
       <c r="AC26" s="2">
-        <f>AF26*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>7.8902999999999994E-3</v>
       </c>
       <c r="AD26" s="11" t="s">
@@ -3652,15 +3662,15 @@
         <v>483</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.73181818181818181</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2875816993464051</v>
       </c>
       <c r="AA27" s="11">
@@ -3670,7 +3680,7 @@
         <v>0.63100000000000001</v>
       </c>
       <c r="AC27" s="2">
-        <f>AF27*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>1.7384599999999998E-3</v>
       </c>
       <c r="AD27" s="11" t="s">
@@ -3694,15 +3704,15 @@
         <v>504</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.76363636363636356</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7156862745098038</v>
       </c>
       <c r="AA28" s="11">
@@ -3712,7 +3722,7 @@
         <v>0.54849999999999999</v>
       </c>
       <c r="AC28" s="2">
-        <f>AF28*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>9.7704999999999997E-3</v>
       </c>
       <c r="AD28" s="11" t="s">
@@ -3736,15 +3746,15 @@
         <v>514</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.7787878787878787</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.85784313725490191</v>
       </c>
       <c r="AA29" s="11">
@@ -3754,7 +3764,7 @@
         <v>0.58150000000000002</v>
       </c>
       <c r="AC29" s="2">
-        <f>AF29*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>4.8891000000000004E-3</v>
       </c>
       <c r="AD29" s="11" t="s">
@@ -3778,15 +3788,15 @@
         <v>520</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78787878787878785</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7156862745098038</v>
       </c>
       <c r="AA30" s="11">
@@ -3796,7 +3806,7 @@
         <v>0.59050000000000002</v>
       </c>
       <c r="AC30" s="2">
-        <f>AF30*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>3.2041000000000001E-3</v>
       </c>
       <c r="AD30" s="11" t="s">
@@ -3820,15 +3830,15 @@
         <v>507</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.76818181818181819</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.630718954248366</v>
       </c>
       <c r="AA31" s="11">
@@ -3838,7 +3848,7 @@
         <v>0.53</v>
       </c>
       <c r="AC31" s="2">
-        <f>AF31*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>6.7698999999999997E-3</v>
       </c>
       <c r="AD31" s="11" t="s">
@@ -3862,15 +3872,15 @@
         <v>508</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.76969696969696977</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5457516339869279</v>
       </c>
       <c r="AA32" s="11">
@@ -3880,7 +3890,7 @@
         <v>0.5625</v>
       </c>
       <c r="AC32" s="2">
-        <f>AF32*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>7.6550000000000003E-3</v>
       </c>
       <c r="AD32" s="11" t="s">
@@ -3904,15 +3914,15 @@
         <v>495</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8888888888888888</v>
       </c>
       <c r="AA33" s="11">
@@ -3922,7 +3932,7 @@
         <v>0.59899999999999998</v>
       </c>
       <c r="AC33" s="2">
-        <f>AF33*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>1.45474E-2</v>
       </c>
       <c r="AD33" s="11" t="s">
@@ -3946,15 +3956,15 @@
         <v>544</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.82424242424242422</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0294117647058822</v>
       </c>
       <c r="AA34" s="11">
@@ -3964,7 +3974,7 @@
         <v>0.69974999999999998</v>
       </c>
       <c r="AC34" s="2">
-        <f>AF34*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>1.16977E-2</v>
       </c>
       <c r="AD34" s="11" t="s">
@@ -3988,15 +3998,15 @@
         <v>530</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.80303030303030298</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9444444444444444</v>
       </c>
       <c r="AA35" s="11">
@@ -4006,7 +4016,7 @@
         <v>0.61350000000000005</v>
       </c>
       <c r="AC35" s="2">
-        <f>AF35*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>1.4992699999999999E-2</v>
       </c>
       <c r="AD35" s="11" t="s">
@@ -4030,15 +4040,15 @@
         <v>566</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85757575757575744</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2303921568627452</v>
       </c>
       <c r="AA36" s="11">
@@ -4048,7 +4058,7 @@
         <v>0.61475000000000002</v>
       </c>
       <c r="AC36" s="2">
-        <f>AF36*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>1.5706990000000001E-2</v>
       </c>
       <c r="AD36" s="11" t="s">
@@ -4072,15 +4082,15 @@
         <v>543</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.82272727272727275</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3169934640522878</v>
       </c>
     </row>
@@ -4095,15 +4105,15 @@
         <v>544</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.82424242424242422</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.2320261437908497</v>
       </c>
     </row>
@@ -4118,15 +4128,15 @@
         <v>561</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.84999999999999987</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6601307189542482</v>
       </c>
     </row>
@@ -4141,15 +4151,15 @@
         <v>582</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88181818181818183</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5457516339869279</v>
       </c>
     </row>
@@ -4164,15 +4174,15 @@
         <v>596</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.90303030303030296</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8300653594771241</v>
       </c>
     </row>
@@ -4187,15 +4197,15 @@
         <v>646</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97878787878787865</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0882352941176472</v>
       </c>
     </row>
@@ -4210,15 +4220,15 @@
         <v>603</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" ref="D43:D59" si="4">612-B43</f>
+        <f t="shared" ref="D43:D59" si="5">612-B43</f>
         <v>66</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.91363636363636369</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7745098039215685</v>
       </c>
     </row>
@@ -4233,15 +4243,15 @@
         <v>627</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.632352941176471</v>
       </c>
     </row>
@@ -4256,15 +4266,15 @@
         <v>657</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>178</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99545454545454548</v>
       </c>
       <c r="F45" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.179738562091503</v>
       </c>
     </row>
@@ -4279,15 +4289,15 @@
         <v>654</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>219</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99090909090909085</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.524509803921569</v>
       </c>
     </row>
@@ -4302,15 +4312,15 @@
         <v>666</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>224</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.009090909090909</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.81045751633987</v>
       </c>
     </row>
@@ -4325,15 +4335,15 @@
         <v>666</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>252</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.009090909090909</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.411764705882353</v>
       </c>
     </row>
@@ -4348,15 +4358,15 @@
         <v>656</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>268</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9939393939393939</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.326797385620916</v>
       </c>
     </row>
@@ -4371,15 +4381,15 @@
         <v>633</v>
       </c>
       <c r="D50" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>296</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95909090909090911</v>
       </c>
       <c r="F50" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.928104575163399</v>
       </c>
     </row>
@@ -4394,15 +4404,15 @@
         <v>664</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>304</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0060606060606061</v>
       </c>
       <c r="F51" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.385620915032678</v>
       </c>
     </row>
@@ -4417,15 +4427,15 @@
         <v>636</v>
       </c>
       <c r="D52" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>328</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96363636363636351</v>
       </c>
       <c r="F52" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.758169934640524</v>
       </c>
     </row>
@@ -4440,15 +4450,15 @@
         <v>664</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>334</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0060606060606061</v>
       </c>
       <c r="F53" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.101307189542485</v>
       </c>
     </row>
@@ -4463,15 +4473,15 @@
         <v>644</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>339</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97575757575757571</v>
       </c>
       <c r="F54" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.387254901960784</v>
       </c>
     </row>
@@ -4486,15 +4496,15 @@
         <v>662</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>354</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0030303030303029</v>
       </c>
       <c r="F55" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.245098039215687</v>
       </c>
     </row>
@@ -4509,15 +4519,15 @@
         <v>645</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>362</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97727272727272729</v>
       </c>
       <c r="F56" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.702614379084967</v>
       </c>
     </row>
@@ -4532,15 +4542,15 @@
         <v>668</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>381</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0121212121212122</v>
       </c>
       <c r="F57" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.78921568627451</v>
       </c>
     </row>
@@ -4555,15 +4565,15 @@
         <v>662</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>434</v>
       </c>
       <c r="E58" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0030303030303029</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.820261437908496</v>
       </c>
     </row>
@@ -4578,15 +4588,15 @@
         <v>672</v>
       </c>
       <c r="D59" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>522</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0181818181818181</v>
       </c>
       <c r="F59" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.852941176470587</v>
       </c>
     </row>

--- a/bvtv.xlsx
+++ b/bvtv.xlsx
@@ -768,11 +768,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2139838664"/>
-        <c:axId val="2069288936"/>
+        <c:axId val="2113985400"/>
+        <c:axId val="2117426504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2139838664"/>
+        <c:axId val="2113985400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,12 +801,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069288936"/>
+        <c:crossAx val="2117426504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2069288936"/>
+        <c:axId val="2117426504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -836,7 +836,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139838664"/>
+        <c:crossAx val="2113985400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1286,11 +1286,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2066773352"/>
-        <c:axId val="2065929416"/>
+        <c:axId val="2112478376"/>
+        <c:axId val="2117371928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2066773352"/>
+        <c:axId val="2112478376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,12 +1319,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065929416"/>
+        <c:crossAx val="2117371928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2065929416"/>
+        <c:axId val="2117371928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,7 +1354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2066773352"/>
+        <c:crossAx val="2112478376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1440,7 +1440,121 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]Sheet1!$E$2:$E$36</c:f>
+              <c:f>Sheet1!$AA$2:$AA$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.1199144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.135094</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1070868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1159383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.144385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1057523</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.070031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10425</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0749672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14164</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1517775</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.154156</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1467375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14406</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.119595</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.082853</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0620023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.104699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.120527</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1284833</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1554625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13077</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1497275</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0658136</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.080492</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.093966</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1385033</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1272167</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15729</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1336167</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.134655</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.128352</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.110773</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0769756</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0943426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$2:$AB$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -1545,120 +1659,6 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.61475</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$D$2:$D$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>0.1199144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.135094</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1070868</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1159383</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.144385</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1057523</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.070031</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.10425</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0749672</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14164</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1517775</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.154156</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.1467375</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.14406</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.119595</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.082853</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0620023</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.104699</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.120527</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.1284833</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.1554625</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.13077</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.1497275</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0658136</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.080492</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.093966</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.1385033</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.1272167</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.15729</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.1336167</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.134655</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.128352</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.110773</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0769756</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0943426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1673,11 +1673,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2066501976"/>
-        <c:axId val="2065844552"/>
+        <c:axId val="2108015160"/>
+        <c:axId val="2122580936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2066501976"/>
+        <c:axId val="2108015160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1713,12 +1713,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065844552"/>
+        <c:crossAx val="2122580936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2065844552"/>
+        <c:axId val="2122580936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35.0"/>
@@ -1749,7 +1749,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2066501976"/>
+        <c:crossAx val="2108015160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1922,279 +1922,282 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="D2">
-            <v>0.1199144</v>
+            <v>119.9144</v>
           </cell>
           <cell r="E2">
-            <v>0.60950000000000004</v>
+            <v>20.276900000000001</v>
           </cell>
         </row>
         <row r="3">
           <cell r="D3">
-            <v>0.13509399999999999</v>
+            <v>135.09399999999999</v>
           </cell>
           <cell r="E3">
-            <v>0.60175000000000001</v>
+            <v>20.4831</v>
           </cell>
         </row>
         <row r="4">
           <cell r="D4">
-            <v>0.1070868</v>
+            <v>107.0868</v>
           </cell>
           <cell r="E4">
-            <v>0.57725000000000004</v>
+            <v>19.372499999999999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>0.11593829999999999</v>
+            <v>115.9383</v>
           </cell>
           <cell r="E5">
-            <v>0.52475000000000005</v>
+            <v>12.927099999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="D6">
-            <v>0.14438499999999999</v>
+            <v>144.38499999999999</v>
           </cell>
           <cell r="E6">
-            <v>0.53874999999999995</v>
+            <v>6.1291000000000002</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>0.10575230000000001</v>
+            <v>105.75230000000001</v>
           </cell>
           <cell r="E7">
-            <v>0.53849999999999998</v>
+            <v>9.6501000000000001</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>7.003100000000001E-2</v>
+            <v>70.031000000000006</v>
           </cell>
           <cell r="E8">
-            <v>0.67974999999999997</v>
+            <v>8.8190000000000008</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>0.10425</v>
+            <v>104.25</v>
           </cell>
           <cell r="E9">
-            <v>0.60750000000000004</v>
+            <v>2.3294999999999999</v>
           </cell>
         </row>
         <row r="10">
           <cell r="D10">
-            <v>7.4967200000000012E-2</v>
+            <v>74.967200000000005</v>
           </cell>
           <cell r="E10">
-            <v>0.63624999999999998</v>
+            <v>6.9802</v>
           </cell>
         </row>
         <row r="11">
           <cell r="D11">
-            <v>0.14163999999999999</v>
+            <v>141.63999999999999</v>
           </cell>
           <cell r="E11">
-            <v>0.56999999999999995</v>
+            <v>8.6662999999999997</v>
           </cell>
         </row>
         <row r="12">
           <cell r="D12">
-            <v>0.15177750000000001</v>
+            <v>151.7775</v>
           </cell>
           <cell r="E12">
-            <v>0.54774999999999996</v>
+            <v>8.4776000000000007</v>
           </cell>
         </row>
         <row r="13">
           <cell r="D13">
-            <v>0.15415600000000002</v>
+            <v>154.15600000000001</v>
           </cell>
           <cell r="E13">
-            <v>0.53900000000000003</v>
+            <v>7.1643999999999997</v>
           </cell>
         </row>
         <row r="14">
           <cell r="D14">
-            <v>0.14673750000000002</v>
+            <v>146.73750000000001</v>
           </cell>
           <cell r="E14">
-            <v>0.51049999999999995</v>
+            <v>3.1227999999999998</v>
           </cell>
         </row>
         <row r="15">
           <cell r="D15">
-            <v>0.14405999999999999</v>
+            <v>144.06</v>
           </cell>
           <cell r="E15">
-            <v>0.52224999999999999</v>
+            <v>2.6619000000000002</v>
           </cell>
         </row>
         <row r="16">
           <cell r="D16">
-            <v>0.11959500000000001</v>
+            <v>119.595</v>
           </cell>
           <cell r="E16">
-            <v>0.61075000000000002</v>
+            <v>3.3132000000000001</v>
           </cell>
         </row>
         <row r="17">
           <cell r="D17">
-            <v>8.2852999999999996E-2</v>
+            <v>82.852999999999994</v>
           </cell>
           <cell r="E17">
-            <v>0.59199999999999997</v>
+            <v>2.9108000000000001</v>
           </cell>
         </row>
         <row r="18">
           <cell r="D18">
-            <v>6.2002299999999996E-2</v>
+            <v>62.002299999999998</v>
+          </cell>
+          <cell r="E18">
+            <v>4.9484000000000004</v>
           </cell>
         </row>
         <row r="19">
           <cell r="D19">
-            <v>0.104699</v>
+            <v>104.699</v>
           </cell>
           <cell r="E19">
-            <v>0.57999999999999996</v>
+            <v>7.2103999999999999</v>
           </cell>
         </row>
         <row r="20">
           <cell r="D20">
-            <v>0.12052700000000001</v>
+            <v>120.527</v>
           </cell>
           <cell r="E20">
-            <v>0.56125000000000003</v>
+            <v>1.0219</v>
           </cell>
         </row>
         <row r="21">
           <cell r="D21">
-            <v>0.12848330000000002</v>
+            <v>128.48330000000001</v>
           </cell>
           <cell r="E21">
-            <v>0.62675000000000003</v>
+            <v>8.2385000000000002</v>
           </cell>
         </row>
         <row r="22">
           <cell r="D22">
-            <v>0.1554625</v>
+            <v>155.46250000000001</v>
           </cell>
           <cell r="E22">
-            <v>0.56874999999999998</v>
+            <v>4.8127000000000004</v>
           </cell>
         </row>
         <row r="23">
           <cell r="D23">
-            <v>0.13077000000000003</v>
+            <v>130.77000000000001</v>
           </cell>
           <cell r="E23">
-            <v>0.52249999999999996</v>
+            <v>2.1063000000000001</v>
           </cell>
         </row>
         <row r="24">
           <cell r="D24">
-            <v>0.14972749999999999</v>
+            <v>149.72749999999999</v>
           </cell>
           <cell r="E24">
-            <v>0.54325000000000001</v>
+            <v>6.0113000000000003</v>
           </cell>
         </row>
         <row r="25">
           <cell r="D25">
-            <v>6.58136E-2</v>
+            <v>65.813599999999994</v>
           </cell>
           <cell r="E25">
-            <v>0.64775000000000005</v>
+            <v>4.6601999999999997</v>
           </cell>
         </row>
         <row r="26">
           <cell r="D26">
-            <v>8.0492000000000008E-2</v>
+            <v>80.492000000000004</v>
           </cell>
           <cell r="E26">
-            <v>0.63775000000000004</v>
+            <v>7.8902999999999999</v>
           </cell>
         </row>
         <row r="27">
           <cell r="D27">
-            <v>9.3965999999999994E-2</v>
+            <v>93.965999999999994</v>
           </cell>
           <cell r="E27">
-            <v>0.63100000000000001</v>
+            <v>1.7384599999999999</v>
           </cell>
         </row>
         <row r="28">
           <cell r="D28">
-            <v>0.1385033</v>
+            <v>138.5033</v>
           </cell>
           <cell r="E28">
-            <v>0.54849999999999999</v>
+            <v>9.7705000000000002</v>
           </cell>
         </row>
         <row r="29">
           <cell r="D29">
-            <v>0.12721670000000002</v>
+            <v>127.2167</v>
           </cell>
           <cell r="E29">
-            <v>0.58150000000000002</v>
+            <v>4.8891</v>
           </cell>
         </row>
         <row r="30">
           <cell r="D30">
-            <v>0.15728999999999999</v>
+            <v>157.29</v>
           </cell>
           <cell r="E30">
-            <v>0.59050000000000002</v>
+            <v>3.2040999999999999</v>
           </cell>
         </row>
         <row r="31">
           <cell r="D31">
-            <v>0.1336167</v>
+            <v>133.61670000000001</v>
           </cell>
           <cell r="E31">
-            <v>0.53</v>
+            <v>6.7698999999999998</v>
           </cell>
         </row>
         <row r="32">
           <cell r="D32">
-            <v>0.134655</v>
+            <v>134.655</v>
           </cell>
           <cell r="E32">
-            <v>0.5625</v>
+            <v>7.6550000000000002</v>
           </cell>
         </row>
         <row r="33">
           <cell r="D33">
-            <v>0.12835199999999999</v>
+            <v>128.352</v>
           </cell>
           <cell r="E33">
-            <v>0.59899999999999998</v>
+            <v>14.5474</v>
           </cell>
         </row>
         <row r="34">
           <cell r="D34">
-            <v>0.110773</v>
+            <v>110.773</v>
           </cell>
           <cell r="E34">
-            <v>0.69974999999999998</v>
+            <v>11.697699999999999</v>
           </cell>
         </row>
         <row r="35">
           <cell r="D35">
-            <v>7.6975600000000005E-2</v>
+            <v>76.9756</v>
           </cell>
           <cell r="E35">
-            <v>0.61350000000000005</v>
+            <v>14.992699999999999</v>
           </cell>
         </row>
         <row r="36">
           <cell r="D36">
-            <v>9.4342600000000013E-2</v>
+            <v>94.342600000000004</v>
           </cell>
           <cell r="E36">
-            <v>0.61475000000000002</v>
+            <v>15.706989999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -2527,8 +2530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2:AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/bvtv.xlsx
+++ b/bvtv.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="26715" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="26715" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -843,11 +843,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1990127888"/>
-        <c:axId val="1990136048"/>
+        <c:axId val="714961504"/>
+        <c:axId val="765341728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1990127888"/>
+        <c:axId val="714961504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,12 +876,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1990136048"/>
+        <c:crossAx val="765341728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1990136048"/>
+        <c:axId val="765341728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1990127888"/>
+        <c:crossAx val="714961504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1230,11 +1230,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1990135504"/>
-        <c:axId val="1990126800"/>
+        <c:axId val="765356416"/>
+        <c:axId val="765352608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1990135504"/>
+        <c:axId val="765356416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1270,12 +1270,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1990126800"/>
+        <c:crossAx val="765352608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1990126800"/>
+        <c:axId val="765352608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -1306,7 +1306,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1990135504"/>
+        <c:crossAx val="765356416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2197,11 +2197,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2066184336"/>
-        <c:axId val="2066183248"/>
+        <c:axId val="765352064"/>
+        <c:axId val="765344992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2066184336"/>
+        <c:axId val="765352064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,12 +2258,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2066183248"/>
+        <c:crossAx val="765344992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2066183248"/>
+        <c:axId val="765344992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2320,7 +2320,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2066184336"/>
+        <c:crossAx val="765352064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2902,11 +2902,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2066179984"/>
-        <c:axId val="2066178896"/>
+        <c:axId val="765342272"/>
+        <c:axId val="765353152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2066179984"/>
+        <c:axId val="765342272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3019,12 +3019,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2066178896"/>
+        <c:crossAx val="765353152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2066178896"/>
+        <c:axId val="765353152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3143,7 +3143,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2066179984"/>
+        <c:crossAx val="765342272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4321,11 +4321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2073104928"/>
-        <c:axId val="2066181616"/>
+        <c:axId val="765349888"/>
+        <c:axId val="765347168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2073104928"/>
+        <c:axId val="765349888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.70000000000000007"/>
@@ -4384,12 +4384,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2066181616"/>
+        <c:crossAx val="765347168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2066181616"/>
+        <c:axId val="765347168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4446,7 +4446,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2073104928"/>
+        <c:crossAx val="765349888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4839,11 +4839,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2058400448"/>
-        <c:axId val="2058399904"/>
+        <c:axId val="765343904"/>
+        <c:axId val="765351520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2058400448"/>
+        <c:axId val="765343904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4956,12 +4956,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058399904"/>
+        <c:crossAx val="765351520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2058399904"/>
+        <c:axId val="765351520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -5075,7 +5075,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058400448"/>
+        <c:crossAx val="765343904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7488,16 +7488,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>757237</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7548,16 +7548,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7903,8 +7903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG1" activeCellId="1" sqref="AA1:AA1048576 AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7912,6 +7912,7 @@
     <col min="1" max="4" width="10.875" style="2"/>
     <col min="6" max="6" width="13.375" customWidth="1"/>
     <col min="10" max="10" width="13.375" customWidth="1"/>
+    <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="10.875" style="2"/>
   </cols>
   <sheetData>

--- a/bvtv.xlsx
+++ b/bvtv.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="26715" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="26715" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -450,7 +450,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -843,11 +842,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="714961504"/>
-        <c:axId val="765341728"/>
+        <c:axId val="1554529904"/>
+        <c:axId val="1554533712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="714961504"/>
+        <c:axId val="1554529904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -869,19 +868,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="765341728"/>
+        <c:crossAx val="1554533712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="765341728"/>
+        <c:axId val="1554533712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -904,21 +902,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="714961504"/>
+        <c:crossAx val="1554529904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1116,106 +1112,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.60950000000000004</c:v>
+                  <c:v>0.20499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60175000000000001</c:v>
+                  <c:v>0.20399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57725000000000004</c:v>
+                  <c:v>0.20300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52475000000000005</c:v>
+                  <c:v>0.32300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53874999999999995</c:v>
+                  <c:v>0.33900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53849999999999998</c:v>
+                  <c:v>0.33800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.67974999999999997</c:v>
+                  <c:v>0.11700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60750000000000004</c:v>
+                  <c:v>0.123</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63624999999999998</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.30199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.54774999999999996</c:v>
+                  <c:v>0.30099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.53900000000000003</c:v>
+                  <c:v>0.35499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.51049999999999995</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.52224999999999999</c:v>
+                  <c:v>0.35399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.61075000000000002</c:v>
+                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.59199999999999997</c:v>
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.26500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.56125000000000003</c:v>
+                  <c:v>0.26800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.62675000000000003</c:v>
+                  <c:v>0.26600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.56874999999999998</c:v>
+                  <c:v>0.374</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.52249999999999996</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.54325000000000001</c:v>
+                  <c:v>0.372</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.64775000000000005</c:v>
+                  <c:v>0.155</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.63775000000000004</c:v>
+                  <c:v>0.156</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.63100000000000001</c:v>
+                  <c:v>0.152</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.54849999999999999</c:v>
+                  <c:v>0.33300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.58150000000000002</c:v>
+                  <c:v>0.33500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.59050000000000002</c:v>
+                  <c:v>0.33400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.53</c:v>
+                  <c:v>0.30299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5625</c:v>
+                  <c:v>0.307</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.59899999999999998</c:v>
+                  <c:v>0.30599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.69974999999999998</c:v>
+                  <c:v>0.157</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.61350000000000005</c:v>
+                  <c:v>0.16500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.61475000000000002</c:v>
+                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1230,11 +1229,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="765356416"/>
-        <c:axId val="765352608"/>
+        <c:axId val="1554534800"/>
+        <c:axId val="1554531536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="765356416"/>
+        <c:axId val="1554534800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1270,12 +1269,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="765352608"/>
+        <c:crossAx val="1554531536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="765352608"/>
+        <c:axId val="1554531536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -1306,7 +1305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="765356416"/>
+        <c:crossAx val="1554534800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1343,7 +1342,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2197,11 +2195,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="765352064"/>
-        <c:axId val="765344992"/>
+        <c:axId val="1548147936"/>
+        <c:axId val="1548152832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="765352064"/>
+        <c:axId val="1548147936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,12 +2256,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="765344992"/>
+        <c:crossAx val="1548152832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="765344992"/>
+        <c:axId val="1548152832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2320,7 +2318,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="765352064"/>
+        <c:crossAx val="1548147936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2414,7 +2412,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2495,7 +2492,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2902,11 +2898,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="765342272"/>
-        <c:axId val="765353152"/>
+        <c:axId val="1548149024"/>
+        <c:axId val="1548156096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="765342272"/>
+        <c:axId val="1548149024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2952,7 +2948,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3019,12 +3014,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="765353152"/>
+        <c:crossAx val="1548156096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="765353152"/>
+        <c:axId val="1548156096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3076,7 +3071,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3143,7 +3137,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="765342272"/>
+        <c:crossAx val="1548149024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3157,7 +3151,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3307,106 +3300,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.60950000000000004</c:v>
+                  <c:v>0.20499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60175000000000001</c:v>
+                  <c:v>0.20399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57725000000000004</c:v>
+                  <c:v>0.20300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52475000000000005</c:v>
+                  <c:v>0.32300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53874999999999995</c:v>
+                  <c:v>0.33900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53849999999999998</c:v>
+                  <c:v>0.33800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.67974999999999997</c:v>
+                  <c:v>0.11700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60750000000000004</c:v>
+                  <c:v>0.123</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63624999999999998</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.30199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.54774999999999996</c:v>
+                  <c:v>0.30099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.53900000000000003</c:v>
+                  <c:v>0.35499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.51049999999999995</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.52224999999999999</c:v>
+                  <c:v>0.35399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.61075000000000002</c:v>
+                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.59199999999999997</c:v>
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.26500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.56125000000000003</c:v>
+                  <c:v>0.26800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.62675000000000003</c:v>
+                  <c:v>0.26600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.56874999999999998</c:v>
+                  <c:v>0.374</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.52249999999999996</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.54325000000000001</c:v>
+                  <c:v>0.372</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.64775000000000005</c:v>
+                  <c:v>0.155</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.63775000000000004</c:v>
+                  <c:v>0.156</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.63100000000000001</c:v>
+                  <c:v>0.152</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.54849999999999999</c:v>
+                  <c:v>0.33300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.58150000000000002</c:v>
+                  <c:v>0.33500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.59050000000000002</c:v>
+                  <c:v>0.33400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.53</c:v>
+                  <c:v>0.30299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5625</c:v>
+                  <c:v>0.307</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.59899999999999998</c:v>
+                  <c:v>0.30599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.69974999999999998</c:v>
+                  <c:v>0.157</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.61350000000000005</c:v>
+                  <c:v>0.16500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.61475000000000002</c:v>
+                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4321,11 +4317,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="765349888"/>
-        <c:axId val="765347168"/>
+        <c:axId val="1548149568"/>
+        <c:axId val="1548144672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="765349888"/>
+        <c:axId val="1548149568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.70000000000000007"/>
@@ -4384,12 +4380,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="765347168"/>
+        <c:crossAx val="1548144672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="765347168"/>
+        <c:axId val="1548144672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4446,7 +4442,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="765349888"/>
+        <c:crossAx val="1548149568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4608,109 +4604,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>1.1495169999999999</c:v>
+                  <c:v>0.38662999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1349004999999999</c:v>
+                  <c:v>0.38474399999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0886935</c:v>
+                  <c:v>0.38285800000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98967850000000002</c:v>
+                  <c:v>0.609178</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0160824999999998</c:v>
+                  <c:v>0.63935399999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0156109999999998</c:v>
+                  <c:v>0.63746800000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2820084999999999</c:v>
+                  <c:v>0.220662</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.145745</c:v>
+                  <c:v>0.23197799999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1999674999999999</c:v>
+                  <c:v>0.211232</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0750199999999999</c:v>
+                  <c:v>0.56957199999999986</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0330564999999998</c:v>
+                  <c:v>0.56768599999999991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.016554</c:v>
+                  <c:v>0.66952999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.96280299999999974</c:v>
+                  <c:v>0.66009999999999991</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.98496349999999999</c:v>
+                  <c:v>0.6676439999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1518744999999999</c:v>
+                  <c:v>0.30553200000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1165119999999999</c:v>
+                  <c:v>0.31307600000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.30741800000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.09388</c:v>
+                  <c:v>0.49979000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0585175</c:v>
+                  <c:v>0.50544800000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1820504999999999</c:v>
+                  <c:v>0.50167600000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0726624999999999</c:v>
+                  <c:v>0.70536399999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.98543499999999995</c:v>
+                  <c:v>0.70724999999999993</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0245695000000001</c:v>
+                  <c:v>0.70159199999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2216564999999999</c:v>
+                  <c:v>0.29232999999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2027965</c:v>
+                  <c:v>0.29421599999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.1900660000000001</c:v>
+                  <c:v>0.28667199999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0344709999999999</c:v>
+                  <c:v>0.62803799999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0967089999999999</c:v>
+                  <c:v>0.63180999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.113683</c:v>
+                  <c:v>0.62992400000000004</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99958000000000002</c:v>
+                  <c:v>0.57145800000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.060875</c:v>
+                  <c:v>0.57900200000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.1297139999999999</c:v>
+                  <c:v>0.57711599999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3197285000000001</c:v>
+                  <c:v>0.29610199999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.1570609999999999</c:v>
+                  <c:v>0.31119000000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.1594184999999999</c:v>
+                  <c:v>0.30553200000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4839,11 +4835,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="765343904"/>
-        <c:axId val="765351520"/>
+        <c:axId val="1548150656"/>
+        <c:axId val="1548155552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="765343904"/>
+        <c:axId val="1548150656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4956,12 +4952,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="765351520"/>
+        <c:crossAx val="1548155552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="765351520"/>
+        <c:axId val="1548155552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -5075,7 +5071,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="765343904"/>
+        <c:crossAx val="1548150656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7903,8 +7899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG1" activeCellId="1" sqref="AA1:AA1048576 AG1:AG1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Z4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7999,7 +7995,7 @@
         <v>0.1199144</v>
       </c>
       <c r="AB2" s="11">
-        <v>0.60950000000000004</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" ref="AC2:AC36" si="0">AF2*10^(-3)</f>
@@ -8017,7 +8013,7 @@
       </c>
       <c r="AG2" s="2">
         <f>AB2*2.05*0.92</f>
-        <v>1.1495169999999999</v>
+        <v>0.38662999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="31.5" x14ac:dyDescent="0.25">
@@ -8055,7 +8051,7 @@
         <v>0.13509399999999999</v>
       </c>
       <c r="AB3" s="11">
-        <v>0.60175000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
@@ -8072,7 +8068,7 @@
       </c>
       <c r="AG3" s="2">
         <f t="shared" ref="AG3:AG36" si="4">AB3*2.05*0.92</f>
-        <v>1.1349004999999999</v>
+        <v>0.38474399999999997</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="31.5" x14ac:dyDescent="0.25">
@@ -8101,7 +8097,7 @@
         <v>0.1070868</v>
       </c>
       <c r="AB4" s="11">
-        <v>0.57725000000000004</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
@@ -8118,7 +8114,7 @@
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="4"/>
-        <v>1.0886935</v>
+        <v>0.38285800000000003</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="31.5" x14ac:dyDescent="0.25">
@@ -8156,7 +8152,7 @@
         <v>0.11593829999999999</v>
       </c>
       <c r="AB5" s="11">
-        <v>0.52475000000000005</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
@@ -8173,7 +8169,7 @@
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="4"/>
-        <v>0.98967850000000002</v>
+        <v>0.609178</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="31.5" x14ac:dyDescent="0.25">
@@ -8211,7 +8207,7 @@
         <v>0.14438499999999999</v>
       </c>
       <c r="AB6" s="11">
-        <v>0.53874999999999995</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" si="0"/>
@@ -8228,7 +8224,7 @@
       </c>
       <c r="AG6" s="2">
         <f t="shared" si="4"/>
-        <v>1.0160824999999998</v>
+        <v>0.63935399999999998</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="31.5" x14ac:dyDescent="0.25">
@@ -8257,7 +8253,7 @@
         <v>0.10575230000000001</v>
       </c>
       <c r="AB7" s="11">
-        <v>0.53849999999999998</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" si="0"/>
@@ -8274,7 +8270,7 @@
       </c>
       <c r="AG7" s="2">
         <f t="shared" si="4"/>
-        <v>1.0156109999999998</v>
+        <v>0.63746800000000003</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="31.5" x14ac:dyDescent="0.25">
@@ -8303,7 +8299,7 @@
         <v>7.003100000000001E-2</v>
       </c>
       <c r="AB8" s="11">
-        <v>0.67974999999999997</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
@@ -8320,7 +8316,7 @@
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="4"/>
-        <v>1.2820084999999999</v>
+        <v>0.220662</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="31.5" x14ac:dyDescent="0.25">
@@ -8349,7 +8345,7 @@
         <v>0.10425</v>
       </c>
       <c r="AB9" s="11">
-        <v>0.60750000000000004</v>
+        <v>0.123</v>
       </c>
       <c r="AC9" s="2">
         <f t="shared" si="0"/>
@@ -8366,7 +8362,7 @@
       </c>
       <c r="AG9" s="2">
         <f t="shared" si="4"/>
-        <v>1.145745</v>
+        <v>0.23197799999999999</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="31.5" x14ac:dyDescent="0.25">
@@ -8395,7 +8391,7 @@
         <v>7.4967200000000012E-2</v>
       </c>
       <c r="AB10" s="11">
-        <v>0.63624999999999998</v>
+        <v>0.112</v>
       </c>
       <c r="AC10" s="2">
         <f t="shared" si="0"/>
@@ -8412,7 +8408,7 @@
       </c>
       <c r="AG10" s="2">
         <f t="shared" si="4"/>
-        <v>1.1999674999999999</v>
+        <v>0.211232</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
@@ -8441,7 +8437,7 @@
         <v>0.14163999999999999</v>
       </c>
       <c r="AB11" s="11">
-        <v>0.56999999999999995</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="AC11" s="2">
         <f t="shared" si="0"/>
@@ -8458,7 +8454,7 @@
       </c>
       <c r="AG11" s="2">
         <f t="shared" si="4"/>
-        <v>1.0750199999999999</v>
+        <v>0.56957199999999986</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
@@ -8487,7 +8483,7 @@
         <v>0.15177750000000001</v>
       </c>
       <c r="AB12" s="11">
-        <v>0.54774999999999996</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="AC12" s="2">
         <f t="shared" si="0"/>
@@ -8504,7 +8500,7 @@
       </c>
       <c r="AG12" s="2">
         <f t="shared" si="4"/>
-        <v>1.0330564999999998</v>
+        <v>0.56768599999999991</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -8533,7 +8529,7 @@
         <v>0.15415600000000002</v>
       </c>
       <c r="AB13" s="11">
-        <v>0.53900000000000003</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AC13" s="2">
         <f t="shared" si="0"/>
@@ -8550,7 +8546,7 @@
       </c>
       <c r="AG13" s="2">
         <f t="shared" si="4"/>
-        <v>1.016554</v>
+        <v>0.66952999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
@@ -8579,7 +8575,7 @@
         <v>0.14673750000000002</v>
       </c>
       <c r="AB14" s="11">
-        <v>0.51049999999999995</v>
+        <v>0.35</v>
       </c>
       <c r="AC14" s="2">
         <f t="shared" si="0"/>
@@ -8596,7 +8592,7 @@
       </c>
       <c r="AG14" s="2">
         <f t="shared" si="4"/>
-        <v>0.96280299999999974</v>
+        <v>0.66009999999999991</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
@@ -8625,7 +8621,7 @@
         <v>0.14405999999999999</v>
       </c>
       <c r="AB15" s="11">
-        <v>0.52224999999999999</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="AC15" s="2">
         <f t="shared" si="0"/>
@@ -8642,7 +8638,7 @@
       </c>
       <c r="AG15" s="2">
         <f t="shared" si="4"/>
-        <v>0.98496349999999999</v>
+        <v>0.6676439999999999</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
@@ -8671,7 +8667,7 @@
         <v>0.11959500000000001</v>
       </c>
       <c r="AB16" s="11">
-        <v>0.61075000000000002</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" si="0"/>
@@ -8688,7 +8684,7 @@
       </c>
       <c r="AG16" s="2">
         <f t="shared" si="4"/>
-        <v>1.1518744999999999</v>
+        <v>0.30553200000000003</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
@@ -8717,7 +8713,7 @@
         <v>8.2852999999999996E-2</v>
       </c>
       <c r="AB17" s="11">
-        <v>0.59199999999999997</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="AC17" s="2">
         <f t="shared" si="0"/>
@@ -8734,7 +8730,7 @@
       </c>
       <c r="AG17" s="2">
         <f t="shared" si="4"/>
-        <v>1.1165119999999999</v>
+        <v>0.31307600000000002</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
@@ -8762,7 +8758,9 @@
       <c r="AA18" s="11">
         <v>6.2002299999999996E-2</v>
       </c>
-      <c r="AB18" s="11"/>
+      <c r="AB18" s="11">
+        <v>0.16300000000000001</v>
+      </c>
       <c r="AC18" s="2">
         <f t="shared" si="0"/>
         <v>4.9484000000000004E-3</v>
@@ -8778,7 +8776,7 @@
       </c>
       <c r="AG18" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.30741800000000002</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
@@ -8807,7 +8805,7 @@
         <v>0.104699</v>
       </c>
       <c r="AB19" s="11">
-        <v>0.57999999999999996</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="AC19" s="2">
         <f t="shared" si="0"/>
@@ -8824,7 +8822,7 @@
       </c>
       <c r="AG19" s="2">
         <f t="shared" si="4"/>
-        <v>1.09388</v>
+        <v>0.49979000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
@@ -8853,7 +8851,7 @@
         <v>0.12052700000000001</v>
       </c>
       <c r="AB20" s="11">
-        <v>0.56125000000000003</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="AC20" s="2">
         <f t="shared" si="0"/>
@@ -8870,7 +8868,7 @@
       </c>
       <c r="AG20" s="2">
         <f t="shared" si="4"/>
-        <v>1.0585175</v>
+        <v>0.50544800000000001</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
@@ -8899,7 +8897,7 @@
         <v>0.12848330000000002</v>
       </c>
       <c r="AB21" s="11">
-        <v>0.62675000000000003</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="AC21" s="2">
         <f t="shared" si="0"/>
@@ -8916,7 +8914,7 @@
       </c>
       <c r="AG21" s="2">
         <f t="shared" si="4"/>
-        <v>1.1820504999999999</v>
+        <v>0.50167600000000001</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
@@ -8945,7 +8943,7 @@
         <v>0.1554625</v>
       </c>
       <c r="AB22" s="11">
-        <v>0.56874999999999998</v>
+        <v>0.374</v>
       </c>
       <c r="AC22" s="2">
         <f t="shared" si="0"/>
@@ -8962,7 +8960,7 @@
       </c>
       <c r="AG22" s="2">
         <f t="shared" si="4"/>
-        <v>1.0726624999999999</v>
+        <v>0.70536399999999999</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
@@ -8991,7 +8989,7 @@
         <v>0.13077000000000003</v>
       </c>
       <c r="AB23" s="11">
-        <v>0.52249999999999996</v>
+        <v>0.375</v>
       </c>
       <c r="AC23" s="2">
         <f t="shared" si="0"/>
@@ -9008,7 +9006,7 @@
       </c>
       <c r="AG23" s="2">
         <f t="shared" si="4"/>
-        <v>0.98543499999999995</v>
+        <v>0.70724999999999993</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
@@ -9037,7 +9035,7 @@
         <v>0.14972749999999999</v>
       </c>
       <c r="AB24" s="11">
-        <v>0.54325000000000001</v>
+        <v>0.372</v>
       </c>
       <c r="AC24" s="2">
         <f t="shared" si="0"/>
@@ -9054,7 +9052,7 @@
       </c>
       <c r="AG24" s="2">
         <f t="shared" si="4"/>
-        <v>1.0245695000000001</v>
+        <v>0.70159199999999999</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
@@ -9083,7 +9081,7 @@
         <v>6.58136E-2</v>
       </c>
       <c r="AB25" s="11">
-        <v>0.64775000000000005</v>
+        <v>0.155</v>
       </c>
       <c r="AC25" s="2">
         <f t="shared" si="0"/>
@@ -9100,7 +9098,7 @@
       </c>
       <c r="AG25" s="2">
         <f t="shared" si="4"/>
-        <v>1.2216564999999999</v>
+        <v>0.29232999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
@@ -9129,7 +9127,7 @@
         <v>8.0492000000000008E-2</v>
       </c>
       <c r="AB26" s="11">
-        <v>0.63775000000000004</v>
+        <v>0.156</v>
       </c>
       <c r="AC26" s="2">
         <f t="shared" si="0"/>
@@ -9146,7 +9144,7 @@
       </c>
       <c r="AG26" s="2">
         <f t="shared" si="4"/>
-        <v>1.2027965</v>
+        <v>0.29421599999999998</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
@@ -9175,7 +9173,7 @@
         <v>9.3965999999999994E-2</v>
       </c>
       <c r="AB27" s="11">
-        <v>0.63100000000000001</v>
+        <v>0.152</v>
       </c>
       <c r="AC27" s="2">
         <f t="shared" si="0"/>
@@ -9192,7 +9190,7 @@
       </c>
       <c r="AG27" s="2">
         <f t="shared" si="4"/>
-        <v>1.1900660000000001</v>
+        <v>0.28667199999999998</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
@@ -9221,7 +9219,7 @@
         <v>0.1385033</v>
       </c>
       <c r="AB28" s="11">
-        <v>0.54849999999999999</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AC28" s="2">
         <f t="shared" si="0"/>
@@ -9238,7 +9236,7 @@
       </c>
       <c r="AG28" s="2">
         <f t="shared" si="4"/>
-        <v>1.0344709999999999</v>
+        <v>0.62803799999999999</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
@@ -9267,7 +9265,7 @@
         <v>0.12721670000000002</v>
       </c>
       <c r="AB29" s="11">
-        <v>0.58150000000000002</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="AC29" s="2">
         <f t="shared" si="0"/>
@@ -9284,7 +9282,7 @@
       </c>
       <c r="AG29" s="2">
         <f t="shared" si="4"/>
-        <v>1.0967089999999999</v>
+        <v>0.63180999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
@@ -9313,7 +9311,7 @@
         <v>0.15728999999999999</v>
       </c>
       <c r="AB30" s="11">
-        <v>0.59050000000000002</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="AC30" s="2">
         <f t="shared" si="0"/>
@@ -9330,7 +9328,7 @@
       </c>
       <c r="AG30" s="2">
         <f t="shared" si="4"/>
-        <v>1.113683</v>
+        <v>0.62992400000000004</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
@@ -9359,7 +9357,7 @@
         <v>0.1336167</v>
       </c>
       <c r="AB31" s="11">
-        <v>0.53</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="AC31" s="2">
         <f t="shared" si="0"/>
@@ -9376,7 +9374,7 @@
       </c>
       <c r="AG31" s="2">
         <f t="shared" si="4"/>
-        <v>0.99958000000000002</v>
+        <v>0.57145800000000002</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
@@ -9405,7 +9403,7 @@
         <v>0.134655</v>
       </c>
       <c r="AB32" s="11">
-        <v>0.5625</v>
+        <v>0.307</v>
       </c>
       <c r="AC32" s="2">
         <f t="shared" si="0"/>
@@ -9422,7 +9420,7 @@
       </c>
       <c r="AG32" s="2">
         <f t="shared" si="4"/>
-        <v>1.060875</v>
+        <v>0.57900200000000002</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
@@ -9451,7 +9449,7 @@
         <v>0.12835199999999999</v>
       </c>
       <c r="AB33" s="11">
-        <v>0.59899999999999998</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="AC33" s="2">
         <f t="shared" si="0"/>
@@ -9468,7 +9466,7 @@
       </c>
       <c r="AG33" s="2">
         <f t="shared" si="4"/>
-        <v>1.1297139999999999</v>
+        <v>0.57711599999999996</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
@@ -9497,7 +9495,7 @@
         <v>0.110773</v>
       </c>
       <c r="AB34" s="11">
-        <v>0.69974999999999998</v>
+        <v>0.157</v>
       </c>
       <c r="AC34" s="2">
         <f t="shared" si="0"/>
@@ -9514,7 +9512,7 @@
       </c>
       <c r="AG34" s="2">
         <f t="shared" si="4"/>
-        <v>1.3197285000000001</v>
+        <v>0.29610199999999998</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
@@ -9543,7 +9541,7 @@
         <v>7.6975600000000005E-2</v>
       </c>
       <c r="AB35" s="11">
-        <v>0.61350000000000005</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="AC35" s="2">
         <f t="shared" si="0"/>
@@ -9560,7 +9558,7 @@
       </c>
       <c r="AG35" s="2">
         <f t="shared" si="4"/>
-        <v>1.1570609999999999</v>
+        <v>0.31119000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
@@ -9589,7 +9587,7 @@
         <v>9.4342600000000013E-2</v>
       </c>
       <c r="AB36" s="11">
-        <v>0.61475000000000002</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="AC36" s="2">
         <f t="shared" si="0"/>
@@ -9606,7 +9604,7 @@
       </c>
       <c r="AG36" s="2">
         <f t="shared" si="4"/>
-        <v>1.1594184999999999</v>
+        <v>0.30553200000000003</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">

--- a/bvtv.xlsx
+++ b/bvtv.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="26715" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="26715" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,6 +450,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -834,6 +835,244 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$2:$AB$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.374</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.372</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.33300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.33500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.30299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.307</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$2:$AA$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.1199144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13509399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1070868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11593829999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14438499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10575230000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.003100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10425</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4967200000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14163999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15177750000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15415600000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14673750000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14405999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11959500000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.2852999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2002299999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.104699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.12052700000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12848330000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1554625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13077000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.14972749999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.58136E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.0492000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.3965999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1385033</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12721670000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15728999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1336167</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.134655</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.12835199999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.110773</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.6975600000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.4342600000000013E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -842,11 +1081,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1554529904"/>
-        <c:axId val="1554533712"/>
+        <c:axId val="1187564576"/>
+        <c:axId val="1187560224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1554529904"/>
+        <c:axId val="1187564576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,18 +1107,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1554533712"/>
+        <c:crossAx val="1187560224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1554533712"/>
+        <c:axId val="1187560224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,19 +1142,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1554529904"/>
+        <c:crossAx val="1187564576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1229,11 +1471,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1554534800"/>
-        <c:axId val="1554531536"/>
+        <c:axId val="1187566208"/>
+        <c:axId val="1187572736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1554534800"/>
+        <c:axId val="1187566208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1269,12 +1511,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1554531536"/>
+        <c:crossAx val="1187572736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1554531536"/>
+        <c:axId val="1187572736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -1305,7 +1547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1554534800"/>
+        <c:crossAx val="1187566208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1342,6 +1584,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2195,11 +2438,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1548147936"/>
-        <c:axId val="1548152832"/>
+        <c:axId val="1187568928"/>
+        <c:axId val="1187570016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1548147936"/>
+        <c:axId val="1187568928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,12 +2499,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1548152832"/>
+        <c:crossAx val="1187570016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1548152832"/>
+        <c:axId val="1187570016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2318,7 +2561,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1548147936"/>
+        <c:crossAx val="1187568928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2898,11 +3141,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1548149024"/>
-        <c:axId val="1548156096"/>
+        <c:axId val="1187558048"/>
+        <c:axId val="1187559680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1548149024"/>
+        <c:axId val="1187558048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3014,12 +3257,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1548156096"/>
+        <c:crossAx val="1187559680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1548156096"/>
+        <c:axId val="1187559680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3137,7 +3380,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1548149024"/>
+        <c:crossAx val="1187558048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4317,11 +4560,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1548149568"/>
-        <c:axId val="1548144672"/>
+        <c:axId val="1187559136"/>
+        <c:axId val="1203867744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1548149568"/>
+        <c:axId val="1187559136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.70000000000000007"/>
@@ -4380,12 +4623,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1548144672"/>
+        <c:crossAx val="1203867744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1548144672"/>
+        <c:axId val="1203867744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4442,7 +4685,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1548149568"/>
+        <c:crossAx val="1187559136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4835,11 +5078,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1548150656"/>
-        <c:axId val="1548155552"/>
+        <c:axId val="1203871008"/>
+        <c:axId val="1203871552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1548150656"/>
+        <c:axId val="1203871008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4952,12 +5195,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1548155552"/>
+        <c:crossAx val="1203871552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1548155552"/>
+        <c:axId val="1203871552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -5071,7 +5314,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1548150656"/>
+        <c:crossAx val="1203871008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7348,16 +7591,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7899,7 +8142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>

--- a/bvtv.xlsx
+++ b/bvtv.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="26715" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="26715" windowHeight="19020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>BV/TV</t>
   </si>
@@ -121,12 +122,81 @@
   <si>
     <t>normalized density</t>
   </si>
+  <si>
+    <t>Anatomiczna część</t>
+  </si>
+  <si>
+    <t>gestosc (g/cm3)</t>
+  </si>
+  <si>
+    <t>E=Ap^B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>Specyficzne dla miejsca pobrania</t>
+  </si>
+  <si>
+    <t>Polaczaone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kregi </t>
+  </si>
+  <si>
+    <t>(0,11-0,35)</t>
+  </si>
+  <si>
+    <t>Piszczel</t>
+  </si>
+  <si>
+    <t>Krętarz na kości udowej</t>
+  </si>
+  <si>
+    <t>(0,09-0,41)</t>
+  </si>
+  <si>
+    <t>(3050-73200</t>
+  </si>
+  <si>
+    <t>(1,31-1,81)</t>
+  </si>
+  <si>
+    <t>(10830-22230)</t>
+  </si>
+  <si>
+    <t>(1,70-2,16)</t>
+  </si>
+  <si>
+    <t>(0,14-0,28)</t>
+  </si>
+  <si>
+    <t>(7590-29690)</t>
+  </si>
+  <si>
+    <t>(1,74-2,62)</t>
+  </si>
+  <si>
+    <t>Szyjka kości udowej</t>
+  </si>
+  <si>
+    <t>Blad pomiaru [MPa]</t>
+  </si>
+  <si>
+    <t>E [MPa]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,6 +251,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -307,7 +385,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -330,8 +408,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -377,8 +456,20 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="23">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -401,6 +492,7 @@
     <cellStyle name="Neutral" xfId="10" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="21" builtinId="21"/>
+    <cellStyle name="Percent" xfId="22" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1081,11 +1173,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1187564576"/>
-        <c:axId val="1187560224"/>
+        <c:axId val="-1670117792"/>
+        <c:axId val="-1670125952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1187564576"/>
+        <c:axId val="-1670117792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,12 +1206,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1187560224"/>
+        <c:crossAx val="-1670125952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1187560224"/>
+        <c:axId val="-1670125952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1149,7 +1241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1187564576"/>
+        <c:crossAx val="-1670117792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1471,11 +1563,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1187566208"/>
-        <c:axId val="1187572736"/>
+        <c:axId val="-1670122144"/>
+        <c:axId val="-1670124320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1187566208"/>
+        <c:axId val="-1670122144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1511,12 +1603,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1187572736"/>
+        <c:crossAx val="-1670124320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1187572736"/>
+        <c:axId val="-1670124320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -1547,7 +1639,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1187566208"/>
+        <c:crossAx val="-1670122144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1584,7 +1676,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2438,11 +2529,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1187568928"/>
-        <c:axId val="1187570016"/>
+        <c:axId val="-1733489552"/>
+        <c:axId val="-1520958400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1187568928"/>
+        <c:axId val="-1733489552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2499,12 +2590,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187570016"/>
+        <c:crossAx val="-1520958400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1187570016"/>
+        <c:axId val="-1520958400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2561,7 +2652,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187568928"/>
+        <c:crossAx val="-1733489552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3141,11 +3232,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1187558048"/>
-        <c:axId val="1187559680"/>
+        <c:axId val="-1520951872"/>
+        <c:axId val="-1520953504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1187558048"/>
+        <c:axId val="-1520951872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3257,12 +3348,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187559680"/>
+        <c:crossAx val="-1520953504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1187559680"/>
+        <c:axId val="-1520953504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3380,7 +3471,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187558048"/>
+        <c:crossAx val="-1520951872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4560,11 +4651,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1187559136"/>
-        <c:axId val="1203867744"/>
+        <c:axId val="-1520965472"/>
+        <c:axId val="-1520955680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1187559136"/>
+        <c:axId val="-1520965472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.70000000000000007"/>
@@ -4623,12 +4714,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1203867744"/>
+        <c:crossAx val="-1520955680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1203867744"/>
+        <c:axId val="-1520955680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4685,7 +4776,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187559136"/>
+        <c:crossAx val="-1520965472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5078,11 +5169,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1203871008"/>
-        <c:axId val="1203871552"/>
+        <c:axId val="-1520958944"/>
+        <c:axId val="-1520964928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1203871008"/>
+        <c:axId val="-1520958944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5195,12 +5286,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1203871552"/>
+        <c:crossAx val="-1520964928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1203871552"/>
+        <c:axId val="-1520964928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -5314,7 +5405,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1203871008"/>
+        <c:crossAx val="-1520958944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8142,7 +8233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
@@ -13680,4 +13771,265 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="C4" s="17">
+        <v>4730</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1.56</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.73</v>
+      </c>
+      <c r="F4" s="17">
+        <v>79</v>
+      </c>
+      <c r="G4" s="17">
+        <v>127</v>
+      </c>
+      <c r="H4" s="18">
+        <f>C4*B4^D4</f>
+        <v>325.90141695731114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="19">
+        <f>F4/H4</f>
+        <v>0.24240459197005571</v>
+      </c>
+      <c r="G5" s="19">
+        <f>G4/H4</f>
+        <v>0.38968839468603894</v>
+      </c>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="C6" s="17">
+        <v>15520</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1.93</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="F6" s="17">
+        <v>328</v>
+      </c>
+      <c r="G6" s="17">
+        <v>540</v>
+      </c>
+      <c r="H6" s="18">
+        <f>C6*B6^D6</f>
+        <v>909.96867107072569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="19">
+        <f>F6/H6</f>
+        <v>0.36045196986183581</v>
+      </c>
+      <c r="G7" s="19">
+        <f>G6/H6</f>
+        <v>0.59342702355302235</v>
+      </c>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="C8" s="17">
+        <v>15010</v>
+      </c>
+      <c r="D8" s="17">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.82</v>
+      </c>
+      <c r="F8" s="17">
+        <v>164</v>
+      </c>
+      <c r="G8" s="17">
+        <v>165</v>
+      </c>
+      <c r="H8" s="18">
+        <f>C8*B8^D8</f>
+        <v>553.17448020249708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="19">
+        <f>F8/H8</f>
+        <v>0.29647065414146645</v>
+      </c>
+      <c r="G9" s="19">
+        <f>G8/H8</f>
+        <v>0.29827840203257294</v>
+      </c>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C10" s="17">
+        <v>6850</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1.49</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="F10" s="17">
+        <v>443</v>
+      </c>
+      <c r="G10" s="17">
+        <v>616</v>
+      </c>
+      <c r="H10" s="18">
+        <f>C10*B10^D10</f>
+        <v>2887.2921608972147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="19">
+        <f>F10/H10</f>
+        <v>0.15343095721298239</v>
+      </c>
+      <c r="G11" s="19">
+        <f>G10/H10</f>
+        <v>0.21334868993949696</v>
+      </c>
+      <c r="H11" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bvtv.xlsx
+++ b/bvtv.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="26715" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="26715" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AA$1:$AH$36</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>BV/TV</t>
   </si>
@@ -191,6 +194,36 @@
   <si>
     <t>E [MPa]</t>
   </si>
+  <si>
+    <t>Kierunek ze względu na ustawienie beleczek</t>
+  </si>
+  <si>
+    <t>Density [g/cm3]</t>
+  </si>
+  <si>
+    <t>Kierunek 1</t>
+  </si>
+  <si>
+    <t>Modul</t>
+  </si>
+  <si>
+    <t>Kierunek 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modul </t>
+  </si>
+  <si>
+    <t>Kierunek 3</t>
+  </si>
+  <si>
+    <t>Moduł</t>
+  </si>
+  <si>
+    <t>Gęstość</t>
+  </si>
+  <si>
+    <t>Gestosc</t>
+  </si>
 </sst>
 </file>
 
@@ -265,7 +298,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +360,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,7 +449,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -453,9 +492,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="21"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -466,6 +502,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -531,14 +576,26 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Wierne</a:t>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Zależność Modułu Young'a od BV/TV (zaadaptowano z [</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> odzworowanie</a:t>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>20</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>])</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -559,6 +616,15 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$E$2:$E$59</c:f>
@@ -935,6 +1001,15 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$AB$2:$AB$36</c:f>
@@ -1173,11 +1248,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1670117792"/>
-        <c:axId val="-1670125952"/>
+        <c:axId val="2064728384"/>
+        <c:axId val="2064728928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1670117792"/>
+        <c:axId val="2064728384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1206,12 +1281,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1670125952"/>
+        <c:crossAx val="2064728928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1670125952"/>
+        <c:axId val="2064728928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1670117792"/>
+        <c:crossAx val="2064728384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1308,8 +1383,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.137256999125109"/>
-          <c:y val="0.174712643678161"/>
+          <c:x val="8.3745292707976704E-2"/>
+          <c:y val="0.17471254449358214"/>
           <c:w val="0.71023293963254597"/>
           <c:h val="0.67453404531330097"/>
         </c:manualLayout>
@@ -1563,11 +1638,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1670122144"/>
-        <c:axId val="-1670124320"/>
+        <c:axId val="126379552"/>
+        <c:axId val="126382272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1670122144"/>
+        <c:axId val="126379552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1603,12 +1678,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1670124320"/>
+        <c:crossAx val="126382272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1670124320"/>
+        <c:axId val="126382272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -1639,7 +1714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1670122144"/>
+        <c:crossAx val="126379552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1676,6 +1751,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2529,11 +2605,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1733489552"/>
-        <c:axId val="-1520958400"/>
+        <c:axId val="126374656"/>
+        <c:axId val="126384992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1733489552"/>
+        <c:axId val="126374656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,12 +2666,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1520958400"/>
+        <c:crossAx val="126384992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1520958400"/>
+        <c:axId val="126384992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2652,7 +2728,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1733489552"/>
+        <c:crossAx val="126374656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2746,6 +2822,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2826,6 +2903,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3232,11 +3310,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1520951872"/>
-        <c:axId val="-1520953504"/>
+        <c:axId val="126385536"/>
+        <c:axId val="126384448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1520951872"/>
+        <c:axId val="126385536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3282,6 +3360,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3348,12 +3427,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1520953504"/>
+        <c:crossAx val="126384448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1520953504"/>
+        <c:axId val="126384448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3405,6 +3484,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3471,7 +3551,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1520951872"/>
+        <c:crossAx val="126385536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3485,6 +3565,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4651,11 +4732,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1520965472"/>
-        <c:axId val="-1520955680"/>
+        <c:axId val="126378464"/>
+        <c:axId val="126387168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1520965472"/>
+        <c:axId val="126378464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.70000000000000007"/>
@@ -4714,12 +4795,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1520955680"/>
+        <c:crossAx val="126387168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1520955680"/>
+        <c:axId val="126387168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4776,7 +4857,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1520965472"/>
+        <c:crossAx val="126378464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4933,114 +5014,114 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AG$2:$AG$36</c:f>
+              <c:f>Sheet1!$AH$2:$AH$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.38662999999999997</c:v>
+                  <c:v>0.32801758567172645</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38474399999999997</c:v>
+                  <c:v>0.26493598517709815</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38285800000000003</c:v>
+                  <c:v>0.55199381443298967</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.609178</c:v>
+                  <c:v>0.3228415225460291</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.63935399999999998</c:v>
+                  <c:v>0.27326015300557721</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63746800000000003</c:v>
+                  <c:v>0.54511494845360831</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.220662</c:v>
+                  <c:v>0.36098453608247427</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23197799999999999</c:v>
+                  <c:v>0.2348483231785847</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.211232</c:v>
+                  <c:v>0.26282743083945775</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56957199999999986</c:v>
+                  <c:v>0.35481974410337602</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.56768599999999991</c:v>
+                  <c:v>0.27968070232029624</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.66952999999999996</c:v>
+                  <c:v>0.28171076911954684</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.66009999999999991</c:v>
+                  <c:v>0.36078692984064947</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.6676439999999999</c:v>
+                  <c:v>0.74257731958762885</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.30553200000000003</c:v>
+                  <c:v>0.25033731181583374</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.31307600000000002</c:v>
+                  <c:v>0.27552424193827235</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.30741800000000002</c:v>
+                  <c:v>0.31959948453608245</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.49979000000000001</c:v>
+                  <c:v>0.53968556701030923</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.50544800000000001</c:v>
+                  <c:v>0.32880695816183025</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.50167600000000001</c:v>
+                  <c:v>0.25882507957372497</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.70536399999999999</c:v>
+                  <c:v>0.28281875118030997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.70724999999999993</c:v>
+                  <c:v>0.67407216494845379</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.70159199999999999</c:v>
+                  <c:v>0.36423618402582669</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.29232999999999998</c:v>
+                  <c:v>0.33924536082474221</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.29421599999999998</c:v>
+                  <c:v>0.27179245794618795</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.28667199999999998</c:v>
+                  <c:v>0.22377328806925029</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.62803799999999999</c:v>
+                  <c:v>0.35109135692510041</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.63180999999999998</c:v>
+                  <c:v>0.65575618556701043</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.62992400000000004</c:v>
+                  <c:v>0.28436024628542367</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.57145800000000002</c:v>
+                  <c:v>0.34519296826246898</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.57900200000000002</c:v>
+                  <c:v>0.26453520258524882</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.57711599999999996</c:v>
+                  <c:v>0.66160824742268043</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.29610199999999998</c:v>
+                  <c:v>0.2415721867470203</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.31119000000000002</c:v>
+                  <c:v>0.39678144329896908</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.30553200000000003</c:v>
+                  <c:v>0.29292969694373294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5169,11 +5250,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1520958944"/>
-        <c:axId val="-1520964928"/>
+        <c:axId val="126388256"/>
+        <c:axId val="126380096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1520958944"/>
+        <c:axId val="126388256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5286,12 +5367,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1520964928"/>
+        <c:crossAx val="126380096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1520964928"/>
+        <c:axId val="126380096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -5405,7 +5486,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1520958944"/>
+        <c:crossAx val="126388256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5417,6 +5498,910 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Gęstość w zależności od kierunku</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Kierunek 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pl-PL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AS$57:$AS$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.26493598517709815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27326015300557721</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2348483231785847</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27968070232029624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28171076911954684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25033731181583374</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25882507957372497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28281875118030997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22377328806925029</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28436024628542367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26453520258524882</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2415721867470203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AR$57:$AR$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.13509399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14438499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15177750000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15415600000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11959500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12848330000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1554625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3965999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15728999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.134655</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.110773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Kierunek 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.22516972878390201"/>
+                  <c:y val="-5.0410226499465347E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pl-PL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AP$61:$AP$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.32801758567172645</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3228415225460291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26282743083945775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35481974410337602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36078692984064947</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27552424193827235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32880695816183025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36423618402582669</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27179245794618795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35109135692510041</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34519296826246898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.29292969694373294</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AO$61:$AO$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.1199144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11593829999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4967200000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14163999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14673750000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2852999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12052700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14972749999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0492000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1385033</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1336167</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.4342600000000013E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Kierunek 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:forward val="5"/>
+            <c:backward val="0.5"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.2202755905511812E-2"/>
+                  <c:y val="0.26302744564336866"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pl-PL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AM$58:$AM$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.55199381443298967</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54511494845360831</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36098453608247427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74257731958762885</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31959948453608245</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53968556701030923</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67407216494845379</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33924536082474221</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65575618556701043</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66160824742268043</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39678144329896908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AL$58:$AL$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.1070868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10575230000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.003100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14405999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2002299999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.104699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13077000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.58136E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12721670000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12835199999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.6975600000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="129966352"/>
+        <c:axId val="129965808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="129966352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Gęstość [g/cm3]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="129965808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="129965808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Moduł Young'a [GPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="129966352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5575,6 +6560,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7678,20 +8703,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>574675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7756,16 +9297,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7901,6 +9442,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>661987</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8231,10 +9802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG196"/>
+  <dimension ref="A1:AS196"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView tabSelected="1" topLeftCell="Y34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA45" sqref="AA45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8244,9 +9815,10 @@
     <col min="10" max="10" width="13.375" customWidth="1"/>
     <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="10.875" style="2"/>
+    <col min="33" max="33" width="11" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -8290,11 +9862,17 @@
       <c r="AF1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AG1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -8345,12 +9923,21 @@
         <f>20.2769</f>
         <v>20.276900000000001</v>
       </c>
-      <c r="AG2" s="2">
-        <f>AB2*2.05*0.92</f>
-        <v>0.38662999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AG2" s="19">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="2">
+        <f>(AA2*1000/1274)^(1/2.12)</f>
+        <v>0.32801758567172645</v>
+      </c>
+      <c r="AP2" s="11">
+        <v>0.1199144</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>0.32801758567172645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -8400,12 +9987,27 @@
       <c r="AF3" s="12">
         <v>20.4831</v>
       </c>
-      <c r="AG3" s="2">
-        <f t="shared" ref="AG3:AG36" si="4">AB3*2.05*0.92</f>
-        <v>0.38474399999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AG3" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="2">
+        <f>(AA3*1000/2349)^(1/2.15)</f>
+        <v>0.26493598517709815</v>
+      </c>
+      <c r="AL3" s="11">
+        <v>0.13509399999999999</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>0.26493598517709815</v>
+      </c>
+      <c r="AP3" s="11">
+        <v>0.11593829999999999</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>0.3228415225460291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -8446,12 +10048,22 @@
       <c r="AF4" s="12">
         <v>19.372499999999999</v>
       </c>
-      <c r="AG4" s="2">
-        <f t="shared" si="4"/>
-        <v>0.38285800000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AG4" s="19">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="2">
+        <f>AA4*1000/194</f>
+        <v>0.55199381443298967</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="2"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="2"/>
+    </row>
+    <row r="5" spans="1:43" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -8501,12 +10113,27 @@
       <c r="AF5" s="12">
         <v>12.927099999999999</v>
       </c>
-      <c r="AG5" s="2">
-        <f t="shared" si="4"/>
-        <v>0.609178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AG5" s="19">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="2">
+        <f>(AA5*1000/1274)^(1/2.12)</f>
+        <v>0.3228415225460291</v>
+      </c>
+      <c r="AL5" s="11">
+        <v>0.10425</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>0.2348483231785847</v>
+      </c>
+      <c r="AP5" s="11">
+        <v>0.14163999999999999</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>0.35481974410337602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -8556,12 +10183,27 @@
       <c r="AF6" s="12">
         <v>6.1291000000000002</v>
       </c>
-      <c r="AG6" s="2">
-        <f t="shared" si="4"/>
-        <v>0.63935399999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AG6" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="2">
+        <f>(AA6*1000/2349)^(1/2.15)</f>
+        <v>0.27326015300557721</v>
+      </c>
+      <c r="AL6" s="11">
+        <v>0.15177750000000001</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>0.27968070232029624</v>
+      </c>
+      <c r="AP6" s="11">
+        <v>0.14673750000000002</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>0.36078692984064947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -8602,12 +10244,22 @@
       <c r="AF7" s="12">
         <v>9.6501000000000001</v>
       </c>
-      <c r="AG7" s="2">
-        <f t="shared" si="4"/>
-        <v>0.63746800000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AG7" s="19">
+        <v>3</v>
+      </c>
+      <c r="AH7" s="2">
+        <f>AA7*1000/194</f>
+        <v>0.54511494845360831</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="2"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="2"/>
+    </row>
+    <row r="8" spans="1:43" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -8648,12 +10300,19 @@
       <c r="AF8" s="12">
         <v>8.8190000000000008</v>
       </c>
-      <c r="AG8" s="2">
-        <f t="shared" si="4"/>
-        <v>0.220662</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AG8" s="19">
+        <v>3</v>
+      </c>
+      <c r="AH8" s="2">
+        <f>AA8*1000/194</f>
+        <v>0.36098453608247427</v>
+      </c>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="2"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="2"/>
+    </row>
+    <row r="9" spans="1:43" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -8694,12 +10353,27 @@
       <c r="AF9" s="12">
         <v>2.3294999999999999</v>
       </c>
-      <c r="AG9" s="2">
-        <f t="shared" si="4"/>
-        <v>0.23197799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AG9" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="2">
+        <f>(AA9*1000/2349)^(1/2.15)</f>
+        <v>0.2348483231785847</v>
+      </c>
+      <c r="AL9" s="11">
+        <v>0.12848330000000002</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>0.25882507957372497</v>
+      </c>
+      <c r="AP9" s="11">
+        <v>0.14972749999999999</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>0.36423618402582669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -8740,12 +10414,27 @@
       <c r="AF10" s="12">
         <v>6.9802</v>
       </c>
-      <c r="AG10" s="2">
-        <f t="shared" si="4"/>
-        <v>0.211232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG10" s="19">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="2">
+        <f>(AA10*1000/1274)^(1/2.12)</f>
+        <v>0.26282743083945775</v>
+      </c>
+      <c r="AL10" s="11">
+        <v>0.1554625</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>0.28281875118030997</v>
+      </c>
+      <c r="AP10" s="11">
+        <v>8.0492000000000008E-2</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>0.27179245794618795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -8756,7 +10445,7 @@
         <v>294</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" ref="D11:D42" si="5">612-B11</f>
+        <f t="shared" ref="D11:D42" si="4">612-B11</f>
         <v>15</v>
       </c>
       <c r="E11" s="5">
@@ -8786,12 +10475,27 @@
       <c r="AF11" s="12">
         <v>8.6662999999999997</v>
       </c>
-      <c r="AG11" s="2">
-        <f t="shared" si="4"/>
-        <v>0.56957199999999986</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG11" s="19">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="2">
+        <f>(AA11*1000/1274)^(1/2.12)</f>
+        <v>0.35481974410337602</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>9.3965999999999994E-2</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>0.22377328806925029</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>0.1385033</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>0.35109135692510041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -8802,7 +10506,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="E12" s="5">
@@ -8832,12 +10536,27 @@
       <c r="AF12" s="12">
         <v>8.4776000000000007</v>
       </c>
-      <c r="AG12" s="2">
-        <f t="shared" si="4"/>
-        <v>0.56768599999999991</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG12" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="2">
+        <f>(AA12*1000/2349)^(1/2.15)</f>
+        <v>0.27968070232029624</v>
+      </c>
+      <c r="AL12" s="11">
+        <v>0.15728999999999999</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>0.28436024628542367</v>
+      </c>
+      <c r="AP12" s="11">
+        <v>0.1336167</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>0.34519296826246898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -8848,7 +10567,7 @@
         <v>314</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="E13" s="5">
@@ -8878,12 +10597,27 @@
       <c r="AF13" s="12">
         <v>7.1643999999999997</v>
       </c>
-      <c r="AG13" s="2">
-        <f t="shared" si="4"/>
-        <v>0.66952999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG13" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="2">
+        <f>(AA13*1000/2349)^(1/2.15)</f>
+        <v>0.28171076911954684</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>0.134655</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>0.26453520258524882</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>9.4342600000000013E-2</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>0.29292969694373294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -8894,7 +10628,7 @@
         <v>316</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="E14" s="5">
@@ -8924,12 +10658,21 @@
       <c r="AF14" s="12">
         <v>3.1227999999999998</v>
       </c>
-      <c r="AG14" s="2">
-        <f t="shared" si="4"/>
-        <v>0.66009999999999991</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG14" s="19">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="2">
+        <f>(AA14*1000/1274)^(1/2.12)</f>
+        <v>0.36078692984064947</v>
+      </c>
+      <c r="AL14" s="11">
+        <v>0.110773</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>0.2415721867470203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -8940,7 +10683,7 @@
         <v>310</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="E15" s="5">
@@ -8970,12 +10713,15 @@
       <c r="AF15" s="12">
         <v>2.6619000000000002</v>
       </c>
-      <c r="AG15" s="2">
-        <f t="shared" si="4"/>
-        <v>0.6676439999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG15" s="19">
+        <v>3</v>
+      </c>
+      <c r="AH15" s="2">
+        <f>AA15*1000/194</f>
+        <v>0.74257731958762885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -8986,7 +10732,7 @@
         <v>334</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="E16" s="5">
@@ -9016,12 +10762,15 @@
       <c r="AF16" s="12">
         <v>3.3132000000000001</v>
       </c>
-      <c r="AG16" s="2">
-        <f t="shared" si="4"/>
-        <v>0.30553200000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG16" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="2">
+        <f>(AA16*1000/2349)^(1/2.15)</f>
+        <v>0.25033731181583374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -9032,7 +10781,7 @@
         <v>351</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="E17" s="5">
@@ -9062,12 +10811,15 @@
       <c r="AF17" s="12">
         <v>2.9108000000000001</v>
       </c>
-      <c r="AG17" s="2">
-        <f t="shared" si="4"/>
-        <v>0.31307600000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG17" s="19">
+        <v>2</v>
+      </c>
+      <c r="AH17" s="2">
+        <f>(AA17*1000/1274)^(1/2.12)</f>
+        <v>0.27552424193827235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -9078,7 +10830,7 @@
         <v>375</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="E18" s="5">
@@ -9108,12 +10860,18 @@
       <c r="AF18" s="12">
         <v>4.9484000000000004</v>
       </c>
-      <c r="AG18" s="2">
-        <f t="shared" si="4"/>
-        <v>0.30741800000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG18" s="19">
+        <v>3</v>
+      </c>
+      <c r="AH18" s="2">
+        <f>AA18*1000/194</f>
+        <v>0.31959948453608245</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -9124,7 +10882,7 @@
         <v>399</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="E19" s="5">
@@ -9154,12 +10912,18 @@
       <c r="AF19" s="12">
         <v>7.2103999999999999</v>
       </c>
-      <c r="AG19" s="2">
-        <f t="shared" si="4"/>
-        <v>0.49979000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG19" s="19">
+        <v>3</v>
+      </c>
+      <c r="AH19" s="2">
+        <f>AA19*1000/194</f>
+        <v>0.53968556701030923</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -9170,7 +10934,7 @@
         <v>400</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="E20" s="5">
@@ -9200,12 +10964,15 @@
       <c r="AF20" s="12">
         <v>1.0219</v>
       </c>
-      <c r="AG20" s="2">
-        <f t="shared" si="4"/>
-        <v>0.50544800000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG20" s="19">
+        <v>2</v>
+      </c>
+      <c r="AH20" s="2">
+        <f>(AA20*1000/1274)^(1/2.12)</f>
+        <v>0.32880695816183025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -9216,7 +10983,7 @@
         <v>411</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="E21" s="5">
@@ -9246,12 +11013,15 @@
       <c r="AF21" s="12">
         <v>8.2385000000000002</v>
       </c>
-      <c r="AG21" s="2">
-        <f t="shared" si="4"/>
-        <v>0.50167600000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG21" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="2">
+        <f>(AA21*1000/2349)^(1/2.15)</f>
+        <v>0.25882507957372497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -9262,7 +11032,7 @@
         <v>432</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="E22" s="5">
@@ -9292,12 +11062,15 @@
       <c r="AF22" s="12">
         <v>4.8127000000000004</v>
       </c>
-      <c r="AG22" s="2">
-        <f t="shared" si="4"/>
-        <v>0.70536399999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG22" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="2">
+        <f>(AA22*1000/2349)^(1/2.15)</f>
+        <v>0.28281875118030997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -9308,7 +11081,7 @@
         <v>442</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="E23" s="5">
@@ -9338,12 +11111,18 @@
       <c r="AF23" s="12">
         <v>2.1063000000000001</v>
       </c>
-      <c r="AG23" s="2">
-        <f t="shared" si="4"/>
-        <v>0.70724999999999993</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG23" s="19">
+        <v>3</v>
+      </c>
+      <c r="AH23" s="2">
+        <f>AA23*1000/194</f>
+        <v>0.67407216494845379</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -9354,7 +11133,7 @@
         <v>448</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="E24" s="5">
@@ -9384,12 +11163,15 @@
       <c r="AF24" s="12">
         <v>6.0113000000000003</v>
       </c>
-      <c r="AG24" s="2">
-        <f t="shared" si="4"/>
-        <v>0.70159199999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG24" s="19">
+        <v>2</v>
+      </c>
+      <c r="AH24" s="2">
+        <f>(AA24*1000/1274)^(1/2.12)</f>
+        <v>0.36423618402582669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -9400,7 +11182,7 @@
         <v>460</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="E25" s="5">
@@ -9430,12 +11212,15 @@
       <c r="AF25" s="12">
         <v>4.6601999999999997</v>
       </c>
-      <c r="AG25" s="2">
-        <f t="shared" si="4"/>
-        <v>0.29232999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG25" s="19">
+        <v>3</v>
+      </c>
+      <c r="AH25" s="2">
+        <f>AA25*1000/194</f>
+        <v>0.33924536082474221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -9446,7 +11231,7 @@
         <v>472</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="E26" s="5">
@@ -9476,12 +11261,15 @@
       <c r="AF26" s="12">
         <v>7.8902999999999999</v>
       </c>
-      <c r="AG26" s="2">
-        <f t="shared" si="4"/>
-        <v>0.29421599999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG26" s="19">
+        <v>2</v>
+      </c>
+      <c r="AH26" s="2">
+        <f>(AA26*1000/1274)^(1/2.12)</f>
+        <v>0.27179245794618795</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -9492,7 +11280,7 @@
         <v>483</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="E27" s="5">
@@ -9522,12 +11310,15 @@
       <c r="AF27" s="12">
         <v>1.7384599999999999</v>
       </c>
-      <c r="AG27" s="2">
-        <f t="shared" si="4"/>
-        <v>0.28667199999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG27" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="2">
+        <f>(AA27*1000/2349)^(1/2.15)</f>
+        <v>0.22377328806925029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -9538,7 +11329,7 @@
         <v>504</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="E28" s="5">
@@ -9568,12 +11359,15 @@
       <c r="AF28" s="12">
         <v>9.7705000000000002</v>
       </c>
-      <c r="AG28" s="2">
-        <f t="shared" si="4"/>
-        <v>0.62803799999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG28" s="19">
+        <v>2</v>
+      </c>
+      <c r="AH28" s="2">
+        <f>(AA28*1000/1274)^(1/2.12)</f>
+        <v>0.35109135692510041</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -9584,7 +11378,7 @@
         <v>514</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="E29" s="5">
@@ -9614,12 +11408,18 @@
       <c r="AF29" s="12">
         <v>4.8891</v>
       </c>
-      <c r="AG29" s="2">
-        <f t="shared" si="4"/>
-        <v>0.63180999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG29" s="19">
+        <v>3</v>
+      </c>
+      <c r="AH29" s="2">
+        <f>AA29*1000/194</f>
+        <v>0.65575618556701043</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -9630,7 +11430,7 @@
         <v>520</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="E30" s="5">
@@ -9660,12 +11460,15 @@
       <c r="AF30" s="12">
         <v>3.2040999999999999</v>
       </c>
-      <c r="AG30" s="2">
-        <f t="shared" si="4"/>
-        <v>0.62992400000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG30" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="2">
+        <f>(AA30*1000/2349)^(1/2.15)</f>
+        <v>0.28436024628542367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -9676,7 +11479,7 @@
         <v>507</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="E31" s="5">
@@ -9706,12 +11509,15 @@
       <c r="AF31" s="12">
         <v>6.7698999999999998</v>
       </c>
-      <c r="AG31" s="2">
-        <f t="shared" si="4"/>
-        <v>0.57145800000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG31" s="19">
+        <v>2</v>
+      </c>
+      <c r="AH31" s="2">
+        <f>(AA31*1000/1274)^(1/2.12)</f>
+        <v>0.34519296826246898</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -9722,7 +11528,7 @@
         <v>508</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="E32" s="5">
@@ -9752,12 +11558,15 @@
       <c r="AF32" s="12">
         <v>7.6550000000000002</v>
       </c>
-      <c r="AG32" s="2">
-        <f t="shared" si="4"/>
-        <v>0.57900200000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG32" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="2">
+        <f>(AA32*1000/2349)^(1/2.15)</f>
+        <v>0.26453520258524882</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -9768,7 +11577,7 @@
         <v>495</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="E33" s="5">
@@ -9798,12 +11607,18 @@
       <c r="AF33" s="12">
         <v>14.5474</v>
       </c>
-      <c r="AG33" s="2">
-        <f t="shared" si="4"/>
-        <v>0.57711599999999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG33" s="19">
+        <v>3</v>
+      </c>
+      <c r="AH33" s="2">
+        <f>AA33*1000/194</f>
+        <v>0.66160824742268043</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -9814,7 +11629,7 @@
         <v>544</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="E34" s="5">
@@ -9844,12 +11659,15 @@
       <c r="AF34" s="12">
         <v>11.697699999999999</v>
       </c>
-      <c r="AG34" s="2">
-        <f t="shared" si="4"/>
-        <v>0.29610199999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG34" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="2">
+        <f>(AA34*1000/2349)^(1/2.15)</f>
+        <v>0.2415721867470203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -9860,7 +11678,7 @@
         <v>530</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="E35" s="5">
@@ -9890,12 +11708,18 @@
       <c r="AF35" s="12">
         <v>14.992699999999999</v>
       </c>
-      <c r="AG35" s="2">
-        <f t="shared" si="4"/>
-        <v>0.31119000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG35" s="19">
+        <v>3</v>
+      </c>
+      <c r="AH35" s="2">
+        <f>AA35*1000/194</f>
+        <v>0.39678144329896908</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -9906,7 +11730,7 @@
         <v>566</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="E36" s="5">
@@ -9936,12 +11760,15 @@
       <c r="AF36" s="12">
         <v>15.706989999999999</v>
       </c>
-      <c r="AG36" s="2">
-        <f t="shared" si="4"/>
-        <v>0.30553200000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG36" s="19">
+        <v>2</v>
+      </c>
+      <c r="AH36" s="2">
+        <f>(AA36*1000/1274)^(1/2.12)</f>
+        <v>0.29292969694373294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -9952,7 +11779,7 @@
         <v>543</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="E37" s="5">
@@ -9964,7 +11791,7 @@
         <v>3.3169934640522878</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -9975,7 +11802,7 @@
         <v>544</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="E38" s="5">
@@ -9987,7 +11814,7 @@
         <v>4.2320261437908497</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -9998,7 +11825,7 @@
         <v>561</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="E39" s="5">
@@ -10010,7 +11837,7 @@
         <v>3.6601307189542482</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -10021,7 +11848,7 @@
         <v>582</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="E40" s="5">
@@ -10032,8 +11859,12 @@
         <f t="shared" si="3"/>
         <v>3.5457516339869279</v>
       </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AB40">
+        <f>(9336/2349)^(1/2.15)</f>
+        <v>1.8999136925044939</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -10044,7 +11875,7 @@
         <v>596</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="E41" s="5">
@@ -10055,8 +11886,12 @@
         <f t="shared" si="3"/>
         <v>1.8300653594771241</v>
       </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AB41">
+        <f>2349*1.9^2.15</f>
+        <v>9336.9118539599731</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -10067,7 +11902,7 @@
         <v>646</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="E42" s="5">
@@ -10079,7 +11914,7 @@
         <v>3.0882352941176472</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -10090,7 +11925,7 @@
         <v>603</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" ref="D43:D59" si="6">612-B43</f>
+        <f t="shared" ref="D43:D59" si="5">612-B43</f>
         <v>66</v>
       </c>
       <c r="E43" s="5">
@@ -10102,7 +11937,7 @@
         <v>3.7745098039215685</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -10113,7 +11948,7 @@
         <v>627</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="E44" s="5">
@@ -10125,7 +11960,7 @@
         <v>4.632352941176471</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -10136,7 +11971,7 @@
         <v>657</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>178</v>
       </c>
       <c r="E45" s="5">
@@ -10148,7 +11983,7 @@
         <v>10.179738562091503</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -10159,7 +11994,7 @@
         <v>654</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>219</v>
       </c>
       <c r="E46" s="5">
@@ -10171,7 +12006,7 @@
         <v>12.524509803921569</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -10182,7 +12017,7 @@
         <v>666</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>224</v>
       </c>
       <c r="E47" s="5">
@@ -10194,7 +12029,7 @@
         <v>12.81045751633987</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -10205,7 +12040,7 @@
         <v>666</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>252</v>
       </c>
       <c r="E48" s="5">
@@ -10217,7 +12052,7 @@
         <v>14.411764705882353</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -10228,7 +12063,7 @@
         <v>656</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>268</v>
       </c>
       <c r="E49" s="5">
@@ -10240,7 +12075,7 @@
         <v>15.326797385620916</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -10251,7 +12086,7 @@
         <v>633</v>
       </c>
       <c r="D50" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>296</v>
       </c>
       <c r="E50" s="5">
@@ -10263,7 +12098,7 @@
         <v>16.928104575163399</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -10274,7 +12109,7 @@
         <v>664</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>304</v>
       </c>
       <c r="E51" s="5">
@@ -10285,8 +12120,17 @@
         <f t="shared" si="3"/>
         <v>17.385620915032678</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AL51" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -10297,7 +12141,7 @@
         <v>636</v>
       </c>
       <c r="D52" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>328</v>
       </c>
       <c r="E52" s="5">
@@ -10309,7 +12153,7 @@
         <v>18.758169934640524</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -10320,7 +12164,7 @@
         <v>664</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>334</v>
       </c>
       <c r="E53" s="5">
@@ -10332,7 +12176,7 @@
         <v>19.101307189542485</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -10343,7 +12187,7 @@
         <v>644</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>339</v>
       </c>
       <c r="E54" s="5">
@@ -10355,7 +12199,7 @@
         <v>19.387254901960784</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -10366,7 +12210,7 @@
         <v>662</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>354</v>
       </c>
       <c r="E55" s="5">
@@ -10378,7 +12222,7 @@
         <v>20.245098039215687</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -10389,7 +12233,7 @@
         <v>645</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>362</v>
       </c>
       <c r="E56" s="5">
@@ -10400,8 +12244,26 @@
         <f t="shared" si="3"/>
         <v>20.702614379084967</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AL56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -10412,7 +12274,7 @@
         <v>668</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>381</v>
       </c>
       <c r="E57" s="5">
@@ -10423,8 +12285,14 @@
         <f t="shared" si="3"/>
         <v>21.78921568627451</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AR57" s="11">
+        <v>0.13509399999999999</v>
+      </c>
+      <c r="AS57" s="2">
+        <v>0.26493598517709815</v>
+      </c>
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -10435,7 +12303,7 @@
         <v>662</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>434</v>
       </c>
       <c r="E58" s="5">
@@ -10446,8 +12314,20 @@
         <f t="shared" si="3"/>
         <v>24.820261437908496</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AL58" s="11">
+        <v>0.1070868</v>
+      </c>
+      <c r="AM58" s="2">
+        <v>0.55199381443298967</v>
+      </c>
+      <c r="AR58" s="11">
+        <v>0.14438499999999999</v>
+      </c>
+      <c r="AS58" s="2">
+        <v>0.27326015300557721</v>
+      </c>
+    </row>
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -10458,7 +12338,7 @@
         <v>672</v>
       </c>
       <c r="D59" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>522</v>
       </c>
       <c r="E59" s="5">
@@ -10469,8 +12349,34 @@
         <f t="shared" si="3"/>
         <v>29.852941176470587</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AL59" s="11">
+        <v>0.10575230000000001</v>
+      </c>
+      <c r="AM59" s="2">
+        <v>0.54511494845360831</v>
+      </c>
+      <c r="AR59" s="11">
+        <v>0.10425</v>
+      </c>
+      <c r="AS59" s="2">
+        <v>0.2348483231785847</v>
+      </c>
+    </row>
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AL60" s="11">
+        <v>7.003100000000001E-2</v>
+      </c>
+      <c r="AM60" s="2">
+        <v>0.36098453608247427</v>
+      </c>
+      <c r="AR60" s="11">
+        <v>0.15177750000000001</v>
+      </c>
+      <c r="AS60" s="2">
+        <v>0.27968070232029624</v>
+      </c>
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
       <c r="B61" s="14" t="s">
         <v>28</v>
@@ -10487,8 +12393,26 @@
       <c r="F61" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AL61" s="11">
+        <v>0.14405999999999999</v>
+      </c>
+      <c r="AM61" s="2">
+        <v>0.74257731958762885</v>
+      </c>
+      <c r="AO61" s="11">
+        <v>0.1199144</v>
+      </c>
+      <c r="AP61" s="2">
+        <v>0.32801758567172645</v>
+      </c>
+      <c r="AR61" s="11">
+        <v>0.15415600000000002</v>
+      </c>
+      <c r="AS61" s="2">
+        <v>0.28171076911954684</v>
+      </c>
+    </row>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>26</v>
       </c>
@@ -10506,8 +12430,26 @@
       <c r="I62" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AL62" s="11">
+        <v>6.2002299999999996E-2</v>
+      </c>
+      <c r="AM62" s="2">
+        <v>0.31959948453608245</v>
+      </c>
+      <c r="AO62" s="11">
+        <v>0.11593829999999999</v>
+      </c>
+      <c r="AP62" s="2">
+        <v>0.3228415225460291</v>
+      </c>
+      <c r="AR62" s="11">
+        <v>0.11959500000000001</v>
+      </c>
+      <c r="AS62" s="2">
+        <v>0.25033731181583374</v>
+      </c>
+    </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>1</v>
       </c>
@@ -10539,8 +12481,26 @@
         <f>D63/MAX($D$63:$D$128)</f>
         <v>0.12539184952978055</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AL63" s="11">
+        <v>0.104699</v>
+      </c>
+      <c r="AM63" s="2">
+        <v>0.53968556701030923</v>
+      </c>
+      <c r="AO63" s="11">
+        <v>7.4967200000000012E-2</v>
+      </c>
+      <c r="AP63" s="2">
+        <v>0.26282743083945775</v>
+      </c>
+      <c r="AR63" s="11">
+        <v>0.12848330000000002</v>
+      </c>
+      <c r="AS63" s="2">
+        <v>0.25882507957372497</v>
+      </c>
+    </row>
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>2</v>
       </c>
@@ -10551,15 +12511,15 @@
         <v>300</v>
       </c>
       <c r="D64" s="14">
-        <f t="shared" ref="D64:D127" si="7">B64*$J$6/$I$6</f>
+        <f t="shared" ref="D64:D127" si="6">B64*$J$6/$I$6</f>
         <v>0.43701799485861181</v>
       </c>
       <c r="E64" s="15">
-        <f t="shared" ref="E64:E127" si="8">340-C64</f>
+        <f t="shared" ref="E64:E127" si="7">340-C64</f>
         <v>40</v>
       </c>
       <c r="F64" s="15">
-        <f t="shared" ref="F64:F127" si="9">E64*$J$5/$I$5</f>
+        <f t="shared" ref="F64:F127" si="8">E64*$J$5/$I$5</f>
         <v>4.0935672514619883</v>
       </c>
       <c r="G64">
@@ -10572,8 +12532,26 @@
         <f>D64/MAX($D$63:$D$128)</f>
         <v>0.21316614420062696</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AL64" s="11">
+        <v>0.13077000000000003</v>
+      </c>
+      <c r="AM64" s="2">
+        <v>0.67407216494845379</v>
+      </c>
+      <c r="AO64" s="11">
+        <v>0.14163999999999999</v>
+      </c>
+      <c r="AP64" s="2">
+        <v>0.35481974410337602</v>
+      </c>
+      <c r="AR64" s="11">
+        <v>0.1554625</v>
+      </c>
+      <c r="AS64" s="2">
+        <v>0.28281875118030997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>3</v>
       </c>
@@ -10584,15 +12562,15 @@
         <v>300</v>
       </c>
       <c r="D65" s="14">
+        <f t="shared" si="6"/>
+        <v>0.44987146529562982</v>
+      </c>
+      <c r="E65" s="15">
         <f t="shared" si="7"/>
-        <v>0.44987146529562982</v>
-      </c>
-      <c r="E65" s="15">
+        <v>40</v>
+      </c>
+      <c r="F65" s="15">
         <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="F65" s="15">
-        <f t="shared" si="9"/>
         <v>4.0935672514619883</v>
       </c>
       <c r="G65">
@@ -10602,11 +12580,29 @@
         <v>0.17156862745098039</v>
       </c>
       <c r="I65">
-        <f t="shared" ref="I65:I120" si="10">D65/MAX($D$63:$D$128)</f>
+        <f t="shared" ref="I65:I120" si="9">D65/MAX($D$63:$D$128)</f>
         <v>0.21943573667711599</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AL65" s="11">
+        <v>6.58136E-2</v>
+      </c>
+      <c r="AM65" s="2">
+        <v>0.33924536082474221</v>
+      </c>
+      <c r="AO65" s="11">
+        <v>0.14673750000000002</v>
+      </c>
+      <c r="AP65" s="2">
+        <v>0.36078692984064947</v>
+      </c>
+      <c r="AR65" s="11">
+        <v>9.3965999999999994E-2</v>
+      </c>
+      <c r="AS65" s="2">
+        <v>0.22377328806925029</v>
+      </c>
+    </row>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>4</v>
       </c>
@@ -10617,15 +12613,15 @@
         <v>292</v>
       </c>
       <c r="D66" s="14">
+        <f t="shared" si="6"/>
+        <v>0.4820051413881748</v>
+      </c>
+      <c r="E66" s="15">
         <f t="shared" si="7"/>
-        <v>0.4820051413881748</v>
-      </c>
-      <c r="E66" s="15">
+        <v>48</v>
+      </c>
+      <c r="F66" s="15">
         <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-      <c r="F66" s="15">
-        <f t="shared" si="9"/>
         <v>4.9122807017543861</v>
       </c>
       <c r="G66">
@@ -10635,11 +12631,29 @@
         <v>1.6013071895424837</v>
       </c>
       <c r="I66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.23510971786833856</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AL66" s="11">
+        <v>0.12721670000000002</v>
+      </c>
+      <c r="AM66" s="2">
+        <v>0.65575618556701043</v>
+      </c>
+      <c r="AO66" s="11">
+        <v>8.2852999999999996E-2</v>
+      </c>
+      <c r="AP66" s="2">
+        <v>0.27552424193827235</v>
+      </c>
+      <c r="AR66" s="11">
+        <v>0.15728999999999999</v>
+      </c>
+      <c r="AS66" s="2">
+        <v>0.28436024628542367</v>
+      </c>
+    </row>
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>5</v>
       </c>
@@ -10650,15 +12664,15 @@
         <v>289</v>
       </c>
       <c r="D67" s="14">
+        <f t="shared" si="6"/>
+        <v>0.64910025706940877</v>
+      </c>
+      <c r="E67" s="15">
         <f t="shared" si="7"/>
-        <v>0.64910025706940877</v>
-      </c>
-      <c r="E67" s="15">
+        <v>51</v>
+      </c>
+      <c r="F67" s="15">
         <f t="shared" si="8"/>
-        <v>51</v>
-      </c>
-      <c r="F67" s="15">
-        <f t="shared" si="9"/>
         <v>5.2192982456140351</v>
       </c>
       <c r="G67">
@@ -10668,11 +12682,29 @@
         <v>1.0294117647058822</v>
       </c>
       <c r="I67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.31661442006269597</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AL67" s="11">
+        <v>0.12835199999999999</v>
+      </c>
+      <c r="AM67" s="2">
+        <v>0.66160824742268043</v>
+      </c>
+      <c r="AO67" s="11">
+        <v>0.12052700000000001</v>
+      </c>
+      <c r="AP67" s="2">
+        <v>0.32880695816183025</v>
+      </c>
+      <c r="AR67" s="11">
+        <v>0.134655</v>
+      </c>
+      <c r="AS67" s="2">
+        <v>0.26453520258524882</v>
+      </c>
+    </row>
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>6</v>
       </c>
@@ -10683,15 +12715,15 @@
         <v>299</v>
       </c>
       <c r="D68" s="14">
+        <f t="shared" si="6"/>
+        <v>0.62982005141388175</v>
+      </c>
+      <c r="E68" s="15">
         <f t="shared" si="7"/>
-        <v>0.62982005141388175</v>
-      </c>
-      <c r="E68" s="15">
+        <v>41</v>
+      </c>
+      <c r="F68" s="15">
         <f t="shared" si="8"/>
-        <v>41</v>
-      </c>
-      <c r="F68" s="15">
-        <f t="shared" si="9"/>
         <v>4.1959064327485383</v>
       </c>
       <c r="G68">
@@ -10701,11 +12733,29 @@
         <v>0.91503267973856206</v>
       </c>
       <c r="I68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.30721003134796238</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AL68" s="11">
+        <v>7.6975600000000005E-2</v>
+      </c>
+      <c r="AM68" s="2">
+        <v>0.39678144329896908</v>
+      </c>
+      <c r="AO68" s="11">
+        <v>0.14972749999999999</v>
+      </c>
+      <c r="AP68" s="2">
+        <v>0.36423618402582669</v>
+      </c>
+      <c r="AR68" s="11">
+        <v>0.110773</v>
+      </c>
+      <c r="AS68" s="2">
+        <v>0.2415721867470203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>7</v>
       </c>
@@ -10716,15 +12766,15 @@
         <v>300</v>
       </c>
       <c r="D69" s="14">
+        <f t="shared" si="6"/>
+        <v>0.66838046272493579</v>
+      </c>
+      <c r="E69" s="15">
         <f t="shared" si="7"/>
-        <v>0.66838046272493579</v>
-      </c>
-      <c r="E69" s="15">
+        <v>40</v>
+      </c>
+      <c r="F69" s="15">
         <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="F69" s="15">
-        <f t="shared" si="9"/>
         <v>4.0935672514619883</v>
       </c>
       <c r="G69">
@@ -10734,11 +12784,17 @@
         <v>0.34313725490196079</v>
       </c>
       <c r="I69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.3260188087774295</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO69" s="11">
+        <v>8.0492000000000008E-2</v>
+      </c>
+      <c r="AP69" s="2">
+        <v>0.27179245794618795</v>
+      </c>
+    </row>
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>8</v>
       </c>
@@ -10749,15 +12805,15 @@
         <v>293</v>
       </c>
       <c r="D70" s="14">
+        <f t="shared" si="6"/>
+        <v>0.66195372750642678</v>
+      </c>
+      <c r="E70" s="15">
         <f t="shared" si="7"/>
-        <v>0.66195372750642678</v>
-      </c>
-      <c r="E70" s="15">
+        <v>47</v>
+      </c>
+      <c r="F70" s="15">
         <f t="shared" si="8"/>
-        <v>47</v>
-      </c>
-      <c r="F70" s="15">
-        <f t="shared" si="9"/>
         <v>4.8099415204678362</v>
       </c>
       <c r="G70">
@@ -10767,11 +12823,17 @@
         <v>0.45751633986928103</v>
       </c>
       <c r="I70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.32288401253918497</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO70" s="11">
+        <v>0.1385033</v>
+      </c>
+      <c r="AP70" s="2">
+        <v>0.35109135692510041</v>
+      </c>
+    </row>
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
         <v>9</v>
       </c>
@@ -10782,15 +12844,15 @@
         <v>297</v>
       </c>
       <c r="D71" s="14">
+        <f t="shared" si="6"/>
+        <v>0.7005141388174807</v>
+      </c>
+      <c r="E71" s="15">
         <f t="shared" si="7"/>
-        <v>0.7005141388174807</v>
-      </c>
-      <c r="E71" s="15">
+        <v>43</v>
+      </c>
+      <c r="F71" s="15">
         <f t="shared" si="8"/>
-        <v>43</v>
-      </c>
-      <c r="F71" s="15">
-        <f t="shared" si="9"/>
         <v>4.4005847953216373</v>
       </c>
       <c r="G71">
@@ -10800,11 +12862,17 @@
         <v>0.57189542483660127</v>
       </c>
       <c r="I71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.34169278996865204</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO71" s="11">
+        <v>0.1336167</v>
+      </c>
+      <c r="AP71" s="2">
+        <v>0.34519296826246898</v>
+      </c>
+    </row>
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>10</v>
       </c>
@@ -10815,15 +12883,15 @@
         <v>298</v>
       </c>
       <c r="D72" s="14">
+        <f t="shared" si="6"/>
+        <v>0.71979434447300772</v>
+      </c>
+      <c r="E72" s="15">
         <f t="shared" si="7"/>
-        <v>0.71979434447300772</v>
-      </c>
-      <c r="E72" s="15">
+        <v>42</v>
+      </c>
+      <c r="F72" s="15">
         <f t="shared" si="8"/>
-        <v>42</v>
-      </c>
-      <c r="F72" s="15">
-        <f t="shared" si="9"/>
         <v>4.2982456140350873</v>
       </c>
       <c r="G72">
@@ -10833,11 +12901,17 @@
         <v>0.85784313725490191</v>
       </c>
       <c r="I72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.35109717868338558</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO72" s="11">
+        <v>9.4342600000000013E-2</v>
+      </c>
+      <c r="AP72" s="2">
+        <v>0.29292969694373294</v>
+      </c>
+    </row>
+    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>11</v>
       </c>
@@ -10848,15 +12922,15 @@
         <v>297</v>
       </c>
       <c r="D73" s="14">
+        <f t="shared" si="6"/>
+        <v>0.74550128534704374</v>
+      </c>
+      <c r="E73" s="15">
         <f t="shared" si="7"/>
-        <v>0.74550128534704374</v>
-      </c>
-      <c r="E73" s="15">
+        <v>43</v>
+      </c>
+      <c r="F73" s="15">
         <f t="shared" si="8"/>
-        <v>43</v>
-      </c>
-      <c r="F73" s="15">
-        <f t="shared" si="9"/>
         <v>4.4005847953216373</v>
       </c>
       <c r="G73">
@@ -10866,11 +12940,11 @@
         <v>0.57189542483660127</v>
       </c>
       <c r="I73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.3636363636363637</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>12</v>
       </c>
@@ -10881,15 +12955,15 @@
         <v>274</v>
       </c>
       <c r="D74" s="14">
+        <f t="shared" si="6"/>
+        <v>0.75192802056555275</v>
+      </c>
+      <c r="E74" s="15">
         <f t="shared" si="7"/>
-        <v>0.75192802056555275</v>
-      </c>
-      <c r="E74" s="15">
+        <v>66</v>
+      </c>
+      <c r="F74" s="15">
         <f t="shared" si="8"/>
-        <v>66</v>
-      </c>
-      <c r="F74" s="15">
-        <f t="shared" si="9"/>
         <v>6.7543859649122808</v>
       </c>
       <c r="G74">
@@ -10899,11 +12973,11 @@
         <v>1.5441176470588236</v>
       </c>
       <c r="I74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.36677115987460818</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>13</v>
       </c>
@@ -10914,15 +12988,15 @@
         <v>288</v>
       </c>
       <c r="D75" s="14">
+        <f t="shared" si="6"/>
+        <v>0.79691516709511567</v>
+      </c>
+      <c r="E75" s="15">
         <f t="shared" si="7"/>
-        <v>0.79691516709511567</v>
-      </c>
-      <c r="E75" s="15">
+        <v>52</v>
+      </c>
+      <c r="F75" s="15">
         <f t="shared" si="8"/>
-        <v>52</v>
-      </c>
-      <c r="F75" s="15">
-        <f t="shared" si="9"/>
         <v>5.3216374269005851</v>
       </c>
       <c r="G75">
@@ -10932,11 +13006,11 @@
         <v>1.0294117647058822</v>
       </c>
       <c r="I75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.38871473354231978</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>14</v>
       </c>
@@ -10947,15 +13021,15 @@
         <v>294</v>
       </c>
       <c r="D76" s="14">
+        <f t="shared" si="6"/>
+        <v>0.80976863753213368</v>
+      </c>
+      <c r="E76" s="15">
         <f t="shared" si="7"/>
-        <v>0.80976863753213368</v>
-      </c>
-      <c r="E76" s="15">
+        <v>46</v>
+      </c>
+      <c r="F76" s="15">
         <f t="shared" si="8"/>
-        <v>46</v>
-      </c>
-      <c r="F76" s="15">
-        <f t="shared" si="9"/>
         <v>4.7076023391812862</v>
       </c>
       <c r="G76">
@@ -10965,11 +13039,11 @@
         <v>1.6013071895424837</v>
       </c>
       <c r="I76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.39498432601880878</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>15</v>
       </c>
@@ -10980,15 +13054,15 @@
         <v>288</v>
       </c>
       <c r="D77" s="14">
+        <f t="shared" si="6"/>
+        <v>0.82262210796915169</v>
+      </c>
+      <c r="E77" s="15">
         <f t="shared" si="7"/>
-        <v>0.82262210796915169</v>
-      </c>
-      <c r="E77" s="15">
+        <v>52</v>
+      </c>
+      <c r="F77" s="15">
         <f t="shared" si="8"/>
-        <v>52</v>
-      </c>
-      <c r="F77" s="15">
-        <f t="shared" si="9"/>
         <v>5.3216374269005851</v>
       </c>
       <c r="G77">
@@ -10998,11 +13072,11 @@
         <v>0.57189542483660127</v>
       </c>
       <c r="I77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.40125391849529785</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
         <v>16</v>
       </c>
@@ -11013,15 +13087,15 @@
         <v>291</v>
       </c>
       <c r="D78" s="14">
+        <f t="shared" si="6"/>
+        <v>0.86118251928020562</v>
+      </c>
+      <c r="E78" s="15">
         <f t="shared" si="7"/>
-        <v>0.86118251928020562</v>
-      </c>
-      <c r="E78" s="15">
+        <v>49</v>
+      </c>
+      <c r="F78" s="15">
         <f t="shared" si="8"/>
-        <v>49</v>
-      </c>
-      <c r="F78" s="15">
-        <f t="shared" si="9"/>
         <v>5.0146198830409361</v>
       </c>
       <c r="G78">
@@ -11031,11 +13105,11 @@
         <v>1.1437908496732025</v>
       </c>
       <c r="I78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.42006269592476492</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
         <v>17</v>
       </c>
@@ -11046,15 +13120,15 @@
         <v>294</v>
       </c>
       <c r="D79" s="14">
+        <f t="shared" si="6"/>
+        <v>0.89331619537275064</v>
+      </c>
+      <c r="E79" s="15">
         <f t="shared" si="7"/>
-        <v>0.89331619537275064</v>
-      </c>
-      <c r="E79" s="15">
+        <v>46</v>
+      </c>
+      <c r="F79" s="15">
         <f t="shared" si="8"/>
-        <v>46</v>
-      </c>
-      <c r="F79" s="15">
-        <f t="shared" si="9"/>
         <v>4.7076023391812862</v>
       </c>
       <c r="G79">
@@ -11064,11 +13138,11 @@
         <v>0.85784313725490191</v>
       </c>
       <c r="I79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.43573667711598746</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
         <v>18</v>
       </c>
@@ -11079,15 +13153,15 @@
         <v>294</v>
       </c>
       <c r="D80" s="14">
+        <f t="shared" si="6"/>
+        <v>0.93830334190231357</v>
+      </c>
+      <c r="E80" s="15">
         <f t="shared" si="7"/>
-        <v>0.93830334190231357</v>
-      </c>
-      <c r="E80" s="15">
+        <v>46</v>
+      </c>
+      <c r="F80" s="15">
         <f t="shared" si="8"/>
-        <v>46</v>
-      </c>
-      <c r="F80" s="15">
-        <f t="shared" si="9"/>
         <v>4.7076023391812862</v>
       </c>
       <c r="G80">
@@ -11097,7 +13171,7 @@
         <v>1.3725490196078431</v>
       </c>
       <c r="I80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.45768025078369906</v>
       </c>
     </row>
@@ -11112,15 +13186,15 @@
         <v>297</v>
       </c>
       <c r="D81" s="14">
+        <f t="shared" si="6"/>
+        <v>0.96401028277634959</v>
+      </c>
+      <c r="E81" s="15">
         <f t="shared" si="7"/>
-        <v>0.96401028277634959</v>
-      </c>
-      <c r="E81" s="15">
+        <v>43</v>
+      </c>
+      <c r="F81" s="15">
         <f t="shared" si="8"/>
-        <v>43</v>
-      </c>
-      <c r="F81" s="15">
-        <f t="shared" si="9"/>
         <v>4.4005847953216373</v>
       </c>
       <c r="G81">
@@ -11130,7 +13204,7 @@
         <v>2.4019607843137254</v>
       </c>
       <c r="I81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.47021943573667713</v>
       </c>
     </row>
@@ -11145,15 +13219,15 @@
         <v>292</v>
       </c>
       <c r="D82" s="14">
+        <f t="shared" si="6"/>
+        <v>0.95758354755784059</v>
+      </c>
+      <c r="E82" s="15">
         <f t="shared" si="7"/>
-        <v>0.95758354755784059</v>
-      </c>
-      <c r="E82" s="15">
+        <v>48</v>
+      </c>
+      <c r="F82" s="15">
         <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-      <c r="F82" s="15">
-        <f t="shared" si="9"/>
         <v>4.9122807017543861</v>
       </c>
       <c r="G82">
@@ -11163,7 +13237,7 @@
         <v>1.2009803921568627</v>
       </c>
       <c r="I82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.4670846394984326</v>
       </c>
     </row>
@@ -11178,15 +13252,15 @@
         <v>293</v>
       </c>
       <c r="D83" s="14">
+        <f t="shared" si="6"/>
+        <v>1.0282776349614395</v>
+      </c>
+      <c r="E83" s="15">
         <f t="shared" si="7"/>
-        <v>1.0282776349614395</v>
-      </c>
-      <c r="E83" s="15">
+        <v>47</v>
+      </c>
+      <c r="F83" s="15">
         <f t="shared" si="8"/>
-        <v>47</v>
-      </c>
-      <c r="F83" s="15">
-        <f t="shared" si="9"/>
         <v>4.8099415204678362</v>
       </c>
       <c r="G83">
@@ -11196,7 +13270,7 @@
         <v>0.80065359477124187</v>
       </c>
       <c r="I83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.50156739811912221</v>
       </c>
     </row>
@@ -11211,15 +13285,15 @@
         <v>288</v>
       </c>
       <c r="D84" s="14">
+        <f t="shared" si="6"/>
+        <v>1.0154241645244215</v>
+      </c>
+      <c r="E84" s="15">
         <f t="shared" si="7"/>
-        <v>1.0154241645244215</v>
-      </c>
-      <c r="E84" s="15">
+        <v>52</v>
+      </c>
+      <c r="F84" s="15">
         <f t="shared" si="8"/>
-        <v>52</v>
-      </c>
-      <c r="F84" s="15">
-        <f t="shared" si="9"/>
         <v>5.3216374269005851</v>
       </c>
       <c r="G84">
@@ -11229,7 +13303,7 @@
         <v>1.1437908496732025</v>
       </c>
       <c r="I84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.4952978056426332</v>
       </c>
     </row>
@@ -11244,15 +13318,15 @@
         <v>282</v>
       </c>
       <c r="D85" s="14">
+        <f t="shared" si="6"/>
+        <v>1.0411311053984575</v>
+      </c>
+      <c r="E85" s="15">
         <f t="shared" si="7"/>
-        <v>1.0411311053984575</v>
-      </c>
-      <c r="E85" s="15">
+        <v>58</v>
+      </c>
+      <c r="F85" s="15">
         <f t="shared" si="8"/>
-        <v>58</v>
-      </c>
-      <c r="F85" s="15">
-        <f t="shared" si="9"/>
         <v>5.935672514619883</v>
       </c>
       <c r="G85">
@@ -11262,7 +13336,7 @@
         <v>1.7156862745098038</v>
       </c>
       <c r="I85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.50783699059561127</v>
       </c>
     </row>
@@ -11277,15 +13351,15 @@
         <v>290</v>
       </c>
       <c r="D86" s="14">
+        <f t="shared" si="6"/>
+        <v>1.0989717223650386</v>
+      </c>
+      <c r="E86" s="15">
         <f t="shared" si="7"/>
-        <v>1.0989717223650386</v>
-      </c>
-      <c r="E86" s="15">
+        <v>50</v>
+      </c>
+      <c r="F86" s="15">
         <f t="shared" si="8"/>
-        <v>50</v>
-      </c>
-      <c r="F86" s="15">
-        <f t="shared" si="9"/>
         <v>5.1169590643274852</v>
       </c>
       <c r="G86">
@@ -11295,7 +13369,7 @@
         <v>0.68627450980392157</v>
       </c>
       <c r="I86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.53605015673981193</v>
       </c>
     </row>
@@ -11310,15 +13384,15 @@
         <v>293</v>
       </c>
       <c r="D87" s="14">
+        <f t="shared" si="6"/>
+        <v>1.1118251928020566</v>
+      </c>
+      <c r="E87" s="15">
         <f t="shared" si="7"/>
-        <v>1.1118251928020566</v>
-      </c>
-      <c r="E87" s="15">
+        <v>47</v>
+      </c>
+      <c r="F87" s="15">
         <f t="shared" si="8"/>
-        <v>47</v>
-      </c>
-      <c r="F87" s="15">
-        <f t="shared" si="9"/>
         <v>4.8099415204678362</v>
       </c>
       <c r="G87">
@@ -11328,7 +13402,7 @@
         <v>1.5441176470588236</v>
       </c>
       <c r="I87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.54231974921630099</v>
       </c>
     </row>
@@ -11343,15 +13417,15 @@
         <v>288</v>
       </c>
       <c r="D88" s="14">
+        <f t="shared" si="6"/>
+        <v>1.1568123393316196</v>
+      </c>
+      <c r="E88" s="15">
         <f t="shared" si="7"/>
-        <v>1.1568123393316196</v>
-      </c>
-      <c r="E88" s="15">
+        <v>52</v>
+      </c>
+      <c r="F88" s="15">
         <f t="shared" si="8"/>
-        <v>52</v>
-      </c>
-      <c r="F88" s="15">
-        <f t="shared" si="9"/>
         <v>5.3216374269005851</v>
       </c>
       <c r="G88">
@@ -11361,7 +13435,7 @@
         <v>2.2875816993464051</v>
       </c>
       <c r="I88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.5642633228840126</v>
       </c>
     </row>
@@ -11376,15 +13450,15 @@
         <v>294</v>
       </c>
       <c r="D89" s="14">
+        <f t="shared" si="6"/>
+        <v>1.1760925449871464</v>
+      </c>
+      <c r="E89" s="15">
         <f t="shared" si="7"/>
-        <v>1.1760925449871464</v>
-      </c>
-      <c r="E89" s="15">
+        <v>46</v>
+      </c>
+      <c r="F89" s="15">
         <f t="shared" si="8"/>
-        <v>46</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="9"/>
         <v>4.7076023391812862</v>
       </c>
       <c r="G89">
@@ -11394,7 +13468,7 @@
         <v>1.7156862745098038</v>
       </c>
       <c r="I89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.57366771159874608</v>
       </c>
     </row>
@@ -11409,15 +13483,15 @@
         <v>289</v>
       </c>
       <c r="D90" s="14">
+        <f t="shared" si="6"/>
+        <v>1.1953727506426735</v>
+      </c>
+      <c r="E90" s="15">
         <f t="shared" si="7"/>
-        <v>1.1953727506426735</v>
-      </c>
-      <c r="E90" s="15">
+        <v>51</v>
+      </c>
+      <c r="F90" s="15">
         <f t="shared" si="8"/>
-        <v>51</v>
-      </c>
-      <c r="F90" s="15">
-        <f t="shared" si="9"/>
         <v>5.2192982456140351</v>
       </c>
       <c r="G90">
@@ -11427,7 +13501,7 @@
         <v>0.85784313725490191</v>
       </c>
       <c r="I90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.58307210031347967</v>
       </c>
     </row>
@@ -11442,15 +13516,15 @@
         <v>293</v>
       </c>
       <c r="D91" s="14">
+        <f t="shared" si="6"/>
+        <v>1.2403598971722365</v>
+      </c>
+      <c r="E91" s="15">
         <f t="shared" si="7"/>
-        <v>1.2403598971722365</v>
-      </c>
-      <c r="E91" s="15">
+        <v>47</v>
+      </c>
+      <c r="F91" s="15">
         <f t="shared" si="8"/>
-        <v>47</v>
-      </c>
-      <c r="F91" s="15">
-        <f t="shared" si="9"/>
         <v>4.8099415204678362</v>
       </c>
       <c r="G91">
@@ -11460,7 +13534,7 @@
         <v>1.7156862745098038</v>
       </c>
       <c r="I91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.60501567398119127</v>
       </c>
     </row>
@@ -11475,15 +13549,15 @@
         <v>282</v>
       </c>
       <c r="D92" s="14">
+        <f t="shared" si="6"/>
+        <v>1.2339331619537275</v>
+      </c>
+      <c r="E92" s="15">
         <f t="shared" si="7"/>
-        <v>1.2339331619537275</v>
-      </c>
-      <c r="E92" s="15">
+        <v>58</v>
+      </c>
+      <c r="F92" s="15">
         <f t="shared" si="8"/>
-        <v>58</v>
-      </c>
-      <c r="F92" s="15">
-        <f t="shared" si="9"/>
         <v>5.935672514619883</v>
       </c>
       <c r="G92">
@@ -11493,7 +13567,7 @@
         <v>2.630718954248366</v>
       </c>
       <c r="I92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.60188087774294674</v>
       </c>
     </row>
@@ -11508,15 +13582,15 @@
         <v>278</v>
       </c>
       <c r="D93" s="14">
+        <f t="shared" si="6"/>
+        <v>1.2724935732647815</v>
+      </c>
+      <c r="E93" s="15">
         <f t="shared" si="7"/>
-        <v>1.2724935732647815</v>
-      </c>
-      <c r="E93" s="15">
+        <v>62</v>
+      </c>
+      <c r="F93" s="15">
         <f t="shared" si="8"/>
-        <v>62</v>
-      </c>
-      <c r="F93" s="15">
-        <f t="shared" si="9"/>
         <v>6.3450292397660819</v>
       </c>
       <c r="G93">
@@ -11526,7 +13600,7 @@
         <v>3.5457516339869279</v>
       </c>
       <c r="I93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.62068965517241381</v>
       </c>
     </row>
@@ -11541,15 +13615,15 @@
         <v>270</v>
       </c>
       <c r="D94" s="14">
+        <f t="shared" si="6"/>
+        <v>1.2724935732647815</v>
+      </c>
+      <c r="E94" s="15">
         <f t="shared" si="7"/>
-        <v>1.2724935732647815</v>
-      </c>
-      <c r="E94" s="15">
+        <v>70</v>
+      </c>
+      <c r="F94" s="15">
         <f t="shared" si="8"/>
-        <v>70</v>
-      </c>
-      <c r="F94" s="15">
-        <f t="shared" si="9"/>
         <v>7.1637426900584797</v>
       </c>
       <c r="G94">
@@ -11559,7 +13633,7 @@
         <v>3.8888888888888888</v>
       </c>
       <c r="I94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.62068965517241381</v>
       </c>
     </row>
@@ -11574,15 +13648,15 @@
         <v>275</v>
       </c>
       <c r="D95" s="14">
+        <f t="shared" si="6"/>
+        <v>1.3560411311053984</v>
+      </c>
+      <c r="E95" s="15">
         <f t="shared" si="7"/>
-        <v>1.3560411311053984</v>
-      </c>
-      <c r="E95" s="15">
+        <v>65</v>
+      </c>
+      <c r="F95" s="15">
         <f t="shared" si="8"/>
-        <v>65</v>
-      </c>
-      <c r="F95" s="15">
-        <f t="shared" si="9"/>
         <v>6.6520467836257309</v>
       </c>
       <c r="G95">
@@ -11592,7 +13666,7 @@
         <v>1.0294117647058822</v>
       </c>
       <c r="I95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.66144200626959249</v>
       </c>
     </row>
@@ -11607,15 +13681,15 @@
         <v>282</v>
       </c>
       <c r="D96" s="14">
+        <f t="shared" si="6"/>
+        <v>1.3624678663239074</v>
+      </c>
+      <c r="E96" s="15">
         <f t="shared" si="7"/>
-        <v>1.3624678663239074</v>
-      </c>
-      <c r="E96" s="15">
+        <v>58</v>
+      </c>
+      <c r="F96" s="15">
         <f t="shared" si="8"/>
-        <v>58</v>
-      </c>
-      <c r="F96" s="15">
-        <f t="shared" si="9"/>
         <v>5.935672514619883</v>
       </c>
       <c r="G96">
@@ -11625,7 +13699,7 @@
         <v>1.9444444444444444</v>
       </c>
       <c r="I96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.66457680250783702</v>
       </c>
     </row>
@@ -11640,15 +13714,15 @@
         <v>288</v>
       </c>
       <c r="D97" s="14">
+        <f t="shared" si="6"/>
+        <v>1.3881748071979434</v>
+      </c>
+      <c r="E97" s="15">
         <f t="shared" si="7"/>
-        <v>1.3881748071979434</v>
-      </c>
-      <c r="E97" s="15">
+        <v>52</v>
+      </c>
+      <c r="F97" s="15">
         <f t="shared" si="8"/>
-        <v>52</v>
-      </c>
-      <c r="F97" s="15">
-        <f t="shared" si="9"/>
         <v>5.3216374269005851</v>
       </c>
       <c r="G97">
@@ -11658,7 +13732,7 @@
         <v>2.2303921568627452</v>
       </c>
       <c r="I97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.67711598746081503</v>
       </c>
     </row>
@@ -11673,15 +13747,15 @@
         <v>280</v>
       </c>
       <c r="D98" s="14">
+        <f t="shared" si="6"/>
+        <v>1.3881748071979434</v>
+      </c>
+      <c r="E98" s="15">
         <f t="shared" si="7"/>
-        <v>1.3881748071979434</v>
-      </c>
-      <c r="E98" s="15">
+        <v>60</v>
+      </c>
+      <c r="F98" s="15">
         <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-      <c r="F98" s="15">
-        <f t="shared" si="9"/>
         <v>6.1403508771929829</v>
       </c>
       <c r="G98">
@@ -11691,7 +13765,7 @@
         <v>3.3169934640522878</v>
       </c>
       <c r="I98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.67711598746081503</v>
       </c>
     </row>
@@ -11706,15 +13780,15 @@
         <v>270</v>
       </c>
       <c r="D99" s="14">
+        <f t="shared" si="6"/>
+        <v>1.4010282776349614</v>
+      </c>
+      <c r="E99" s="15">
         <f t="shared" si="7"/>
-        <v>1.4010282776349614</v>
-      </c>
-      <c r="E99" s="15">
+        <v>70</v>
+      </c>
+      <c r="F99" s="15">
         <f t="shared" si="8"/>
-        <v>70</v>
-      </c>
-      <c r="F99" s="15">
-        <f t="shared" si="9"/>
         <v>7.1637426900584797</v>
       </c>
       <c r="G99">
@@ -11724,7 +13798,7 @@
         <v>4.2320261437908497</v>
       </c>
       <c r="I99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.68338557993730409</v>
       </c>
     </row>
@@ -11739,15 +13813,15 @@
         <v>269</v>
       </c>
       <c r="D100" s="14">
+        <f t="shared" si="6"/>
+        <v>1.4652956298200515</v>
+      </c>
+      <c r="E100" s="15">
         <f t="shared" si="7"/>
-        <v>1.4652956298200515</v>
-      </c>
-      <c r="E100" s="15">
+        <v>71</v>
+      </c>
+      <c r="F100" s="15">
         <f t="shared" si="8"/>
-        <v>71</v>
-      </c>
-      <c r="F100" s="15">
-        <f t="shared" si="9"/>
         <v>7.2660818713450288</v>
       </c>
       <c r="G100">
@@ -11757,7 +13831,7 @@
         <v>3.6601307189542482</v>
       </c>
       <c r="I100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.71473354231974928</v>
       </c>
     </row>
@@ -11772,15 +13846,15 @@
         <v>274</v>
       </c>
       <c r="D101" s="14">
+        <f t="shared" si="6"/>
+        <v>1.5167095115681235</v>
+      </c>
+      <c r="E101" s="15">
         <f t="shared" si="7"/>
-        <v>1.5167095115681235</v>
-      </c>
-      <c r="E101" s="15">
+        <v>66</v>
+      </c>
+      <c r="F101" s="15">
         <f t="shared" si="8"/>
-        <v>66</v>
-      </c>
-      <c r="F101" s="15">
-        <f t="shared" si="9"/>
         <v>6.7543859649122808</v>
       </c>
       <c r="G101">
@@ -11790,7 +13864,7 @@
         <v>3.5457516339869279</v>
       </c>
       <c r="I101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.73981191222570541</v>
       </c>
     </row>
@@ -11805,15 +13879,15 @@
         <v>280</v>
       </c>
       <c r="D102" s="14">
+        <f t="shared" si="6"/>
+        <v>1.4910025706940875</v>
+      </c>
+      <c r="E102" s="15">
         <f t="shared" si="7"/>
-        <v>1.4910025706940875</v>
-      </c>
-      <c r="E102" s="15">
+        <v>60</v>
+      </c>
+      <c r="F102" s="15">
         <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-      <c r="F102" s="15">
-        <f t="shared" si="9"/>
         <v>6.1403508771929829</v>
       </c>
       <c r="G102">
@@ -11823,7 +13897,7 @@
         <v>1.8300653594771241</v>
       </c>
       <c r="I102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.7272727272727274</v>
       </c>
     </row>
@@ -11838,15 +13912,15 @@
         <v>285</v>
       </c>
       <c r="D103" s="14">
+        <f t="shared" si="6"/>
+        <v>1.5102827763496145</v>
+      </c>
+      <c r="E103" s="15">
         <f t="shared" si="7"/>
-        <v>1.5102827763496145</v>
-      </c>
-      <c r="E103" s="15">
+        <v>55</v>
+      </c>
+      <c r="F103" s="15">
         <f t="shared" si="8"/>
-        <v>55</v>
-      </c>
-      <c r="F103" s="15">
-        <f t="shared" si="9"/>
         <v>5.628654970760234</v>
       </c>
       <c r="G103">
@@ -11856,7 +13930,7 @@
         <v>3.0882352941176472</v>
       </c>
       <c r="I103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.73667711598746088</v>
       </c>
     </row>
@@ -11871,15 +13945,15 @@
         <v>286</v>
       </c>
       <c r="D104" s="14">
+        <f t="shared" si="6"/>
+        <v>1.5488431876606683</v>
+      </c>
+      <c r="E104" s="15">
         <f t="shared" si="7"/>
-        <v>1.5488431876606683</v>
-      </c>
-      <c r="E104" s="15">
+        <v>54</v>
+      </c>
+      <c r="F104" s="15">
         <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-      <c r="F104" s="15">
-        <f t="shared" si="9"/>
         <v>5.5263157894736841</v>
       </c>
       <c r="G104">
@@ -11889,7 +13963,7 @@
         <v>3.7745098039215685</v>
       </c>
       <c r="I104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.75548589341692796</v>
       </c>
     </row>
@@ -11904,15 +13978,15 @@
         <v>274</v>
       </c>
       <c r="D105" s="14">
+        <f t="shared" si="6"/>
+        <v>1.5552699228791773</v>
+      </c>
+      <c r="E105" s="15">
         <f t="shared" si="7"/>
-        <v>1.5552699228791773</v>
-      </c>
-      <c r="E105" s="15">
+        <v>66</v>
+      </c>
+      <c r="F105" s="15">
         <f t="shared" si="8"/>
-        <v>66</v>
-      </c>
-      <c r="F105" s="15">
-        <f t="shared" si="9"/>
         <v>6.7543859649122808</v>
       </c>
       <c r="G105">
@@ -11922,7 +13996,7 @@
         <v>4.632352941176471</v>
       </c>
       <c r="I105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.75862068965517238</v>
       </c>
     </row>
@@ -11937,15 +14011,15 @@
         <v>264</v>
       </c>
       <c r="D106" s="14">
+        <f t="shared" si="6"/>
+        <v>1.6902313624678664</v>
+      </c>
+      <c r="E106" s="15">
         <f t="shared" si="7"/>
-        <v>1.6902313624678664</v>
-      </c>
-      <c r="E106" s="15">
+        <v>76</v>
+      </c>
+      <c r="F106" s="15">
         <f t="shared" si="8"/>
-        <v>76</v>
-      </c>
-      <c r="F106" s="15">
-        <f t="shared" si="9"/>
         <v>7.7777777777777777</v>
       </c>
       <c r="G106">
@@ -11955,7 +14029,7 @@
         <v>10.179738562091503</v>
       </c>
       <c r="I106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.82445141065830729</v>
       </c>
     </row>
@@ -11970,15 +14044,15 @@
         <v>263</v>
       </c>
       <c r="D107" s="14">
+        <f t="shared" si="6"/>
+        <v>1.6709511568123394</v>
+      </c>
+      <c r="E107" s="15">
         <f t="shared" si="7"/>
-        <v>1.6709511568123394</v>
-      </c>
-      <c r="E107" s="15">
+        <v>77</v>
+      </c>
+      <c r="F107" s="15">
         <f t="shared" si="8"/>
-        <v>77</v>
-      </c>
-      <c r="F107" s="15">
-        <f t="shared" si="9"/>
         <v>7.8801169590643276</v>
       </c>
       <c r="G107">
@@ -11988,7 +14062,7 @@
         <v>12.524509803921569</v>
       </c>
       <c r="I107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.8150470219435737</v>
       </c>
     </row>
@@ -12003,15 +14077,15 @@
         <v>266</v>
       </c>
       <c r="D108" s="14">
+        <f t="shared" si="6"/>
+        <v>1.7287917737789202</v>
+      </c>
+      <c r="E108" s="15">
         <f t="shared" si="7"/>
-        <v>1.7287917737789202</v>
-      </c>
-      <c r="E108" s="15">
+        <v>74</v>
+      </c>
+      <c r="F108" s="15">
         <f t="shared" si="8"/>
-        <v>74</v>
-      </c>
-      <c r="F108" s="15">
-        <f t="shared" si="9"/>
         <v>7.5730994152046787</v>
       </c>
       <c r="G108">
@@ -12021,7 +14095,7 @@
         <v>12.81045751633987</v>
       </c>
       <c r="I108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.84326018808777425</v>
       </c>
     </row>
@@ -12036,15 +14110,15 @@
         <v>277</v>
       </c>
       <c r="D109" s="14">
+        <f t="shared" si="6"/>
+        <v>1.8508997429305913</v>
+      </c>
+      <c r="E109" s="15">
         <f t="shared" si="7"/>
-        <v>1.8508997429305913</v>
-      </c>
-      <c r="E109" s="15">
+        <v>63</v>
+      </c>
+      <c r="F109" s="15">
         <f t="shared" si="8"/>
-        <v>63</v>
-      </c>
-      <c r="F109" s="15">
-        <f t="shared" si="9"/>
         <v>6.4473684210526319</v>
       </c>
       <c r="G109">
@@ -12054,7 +14128,7 @@
         <v>14.411764705882353</v>
       </c>
       <c r="I109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.90282131661442011</v>
       </c>
     </row>
@@ -12069,15 +14143,15 @@
         <v>217</v>
       </c>
       <c r="D110" s="14">
+        <f t="shared" si="6"/>
+        <v>1.9344473007712082</v>
+      </c>
+      <c r="E110" s="15">
         <f t="shared" si="7"/>
-        <v>1.9344473007712082</v>
-      </c>
-      <c r="E110" s="15">
+        <v>123</v>
+      </c>
+      <c r="F110" s="15">
         <f t="shared" si="8"/>
-        <v>123</v>
-      </c>
-      <c r="F110" s="15">
-        <f t="shared" si="9"/>
         <v>12.587719298245615</v>
       </c>
       <c r="G110">
@@ -12087,7 +14161,7 @@
         <v>15.326797385620916</v>
       </c>
       <c r="I110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.94357366771159878</v>
       </c>
     </row>
@@ -12102,15 +14176,15 @@
         <v>195</v>
       </c>
       <c r="D111" s="14">
+        <f t="shared" si="6"/>
+        <v>1.8894601542416452</v>
+      </c>
+      <c r="E111" s="15">
         <f t="shared" si="7"/>
-        <v>1.8894601542416452</v>
-      </c>
-      <c r="E111" s="15">
+        <v>145</v>
+      </c>
+      <c r="F111" s="15">
         <f t="shared" si="8"/>
-        <v>145</v>
-      </c>
-      <c r="F111" s="15">
-        <f t="shared" si="9"/>
         <v>14.839181286549708</v>
       </c>
       <c r="G111">
@@ -12120,7 +14194,7 @@
         <v>16.928104575163399</v>
       </c>
       <c r="I111">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.92163009404388718</v>
       </c>
     </row>
@@ -12135,15 +14209,15 @@
         <v>193</v>
       </c>
       <c r="D112" s="14">
+        <f t="shared" si="6"/>
+        <v>1.9858611825192802</v>
+      </c>
+      <c r="E112" s="15">
         <f t="shared" si="7"/>
-        <v>1.9858611825192802</v>
-      </c>
-      <c r="E112" s="15">
+        <v>147</v>
+      </c>
+      <c r="F112" s="15">
         <f t="shared" si="8"/>
-        <v>147</v>
-      </c>
-      <c r="F112" s="15">
-        <f t="shared" si="9"/>
         <v>15.043859649122806</v>
       </c>
       <c r="G112">
@@ -12153,7 +14227,7 @@
         <v>17.385620915032678</v>
       </c>
       <c r="I112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.96865203761755492</v>
       </c>
     </row>
@@ -12168,15 +14242,15 @@
         <v>179</v>
       </c>
       <c r="D113" s="14">
+        <f t="shared" si="6"/>
+        <v>2.024421593830334</v>
+      </c>
+      <c r="E113" s="15">
         <f t="shared" si="7"/>
-        <v>2.024421593830334</v>
-      </c>
-      <c r="E113" s="15">
+        <v>161</v>
+      </c>
+      <c r="F113" s="15">
         <f t="shared" si="8"/>
-        <v>161</v>
-      </c>
-      <c r="F113" s="15">
-        <f t="shared" si="9"/>
         <v>16.476608187134502</v>
       </c>
       <c r="G113">
@@ -12186,7 +14260,7 @@
         <v>18.758169934640524</v>
       </c>
       <c r="I113">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.98746081504702188</v>
       </c>
     </row>
@@ -12201,15 +14275,15 @@
         <v>168</v>
       </c>
       <c r="D114" s="14">
+        <f t="shared" si="6"/>
+        <v>1.8894601542416452</v>
+      </c>
+      <c r="E114" s="15">
         <f t="shared" si="7"/>
-        <v>1.8894601542416452</v>
-      </c>
-      <c r="E114" s="15">
+        <v>172</v>
+      </c>
+      <c r="F114" s="15">
         <f t="shared" si="8"/>
-        <v>172</v>
-      </c>
-      <c r="F114" s="15">
-        <f t="shared" si="9"/>
         <v>17.602339181286549</v>
       </c>
       <c r="G114">
@@ -12219,7 +14293,7 @@
         <v>19.101307189542485</v>
       </c>
       <c r="I114">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.92163009404388718</v>
       </c>
     </row>
@@ -12234,15 +14308,15 @@
         <v>159</v>
       </c>
       <c r="D115" s="14">
+        <f t="shared" si="6"/>
+        <v>1.8958868894601542</v>
+      </c>
+      <c r="E115" s="15">
         <f t="shared" si="7"/>
-        <v>1.8958868894601542</v>
-      </c>
-      <c r="E115" s="15">
+        <v>181</v>
+      </c>
+      <c r="F115" s="15">
         <f t="shared" si="8"/>
-        <v>181</v>
-      </c>
-      <c r="F115" s="15">
-        <f t="shared" si="9"/>
         <v>18.523391812865498</v>
       </c>
       <c r="G115">
@@ -12252,7 +14326,7 @@
         <v>19.387254901960784</v>
       </c>
       <c r="I115">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.92476489028213171</v>
       </c>
     </row>
@@ -12267,15 +14341,15 @@
         <v>173</v>
       </c>
       <c r="D116" s="14">
+        <f t="shared" si="6"/>
+        <v>1.8958868894601542</v>
+      </c>
+      <c r="E116" s="15">
         <f t="shared" si="7"/>
-        <v>1.8958868894601542</v>
-      </c>
-      <c r="E116" s="15">
+        <v>167</v>
+      </c>
+      <c r="F116" s="15">
         <f t="shared" si="8"/>
-        <v>167</v>
-      </c>
-      <c r="F116" s="15">
-        <f t="shared" si="9"/>
         <v>17.0906432748538</v>
       </c>
       <c r="G116">
@@ -12285,7 +14359,7 @@
         <v>20.245098039215687</v>
       </c>
       <c r="I116">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.92476489028213171</v>
       </c>
     </row>
@@ -12300,15 +14374,15 @@
         <v>159</v>
       </c>
       <c r="D117" s="14">
+        <f t="shared" si="6"/>
+        <v>2.024421593830334</v>
+      </c>
+      <c r="E117" s="15">
         <f t="shared" si="7"/>
-        <v>2.024421593830334</v>
-      </c>
-      <c r="E117" s="15">
+        <v>181</v>
+      </c>
+      <c r="F117" s="15">
         <f t="shared" si="8"/>
-        <v>181</v>
-      </c>
-      <c r="F117" s="15">
-        <f t="shared" si="9"/>
         <v>18.523391812865498</v>
       </c>
       <c r="G117">
@@ -12318,7 +14392,7 @@
         <v>20.702614379084967</v>
       </c>
       <c r="I117">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.98746081504702188</v>
       </c>
     </row>
@@ -12333,15 +14407,15 @@
         <v>149</v>
       </c>
       <c r="D118" s="14">
+        <f t="shared" si="6"/>
+        <v>2.0501285347043701</v>
+      </c>
+      <c r="E118" s="15">
         <f t="shared" si="7"/>
-        <v>2.0501285347043701</v>
-      </c>
-      <c r="E118" s="15">
+        <v>191</v>
+      </c>
+      <c r="F118" s="15">
         <f t="shared" si="8"/>
-        <v>191</v>
-      </c>
-      <c r="F118" s="15">
-        <f t="shared" si="9"/>
         <v>19.546783625730995</v>
       </c>
       <c r="G118">
@@ -12351,7 +14425,7 @@
         <v>21.78921568627451</v>
       </c>
       <c r="I118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -12366,15 +14440,15 @@
         <v>144</v>
       </c>
       <c r="D119" s="14">
+        <f t="shared" si="6"/>
+        <v>1.9023136246786632</v>
+      </c>
+      <c r="E119" s="15">
         <f t="shared" si="7"/>
-        <v>1.9023136246786632</v>
-      </c>
-      <c r="E119" s="15">
+        <v>196</v>
+      </c>
+      <c r="F119" s="15">
         <f t="shared" si="8"/>
-        <v>196</v>
-      </c>
-      <c r="F119" s="15">
-        <f t="shared" si="9"/>
         <v>20.058479532163744</v>
       </c>
       <c r="G119">
@@ -12384,7 +14458,7 @@
         <v>24.820261437908496</v>
       </c>
       <c r="I119">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.92789968652037624</v>
       </c>
     </row>
@@ -12399,15 +14473,15 @@
         <v>142</v>
       </c>
       <c r="D120" s="14">
+        <f t="shared" si="6"/>
+        <v>1.9473007712082262</v>
+      </c>
+      <c r="E120" s="15">
         <f t="shared" si="7"/>
-        <v>1.9473007712082262</v>
-      </c>
-      <c r="E120" s="15">
+        <v>198</v>
+      </c>
+      <c r="F120" s="15">
         <f t="shared" si="8"/>
-        <v>198</v>
-      </c>
-      <c r="F120" s="15">
-        <f t="shared" si="9"/>
         <v>20.263157894736842</v>
       </c>
       <c r="G120">
@@ -12417,7 +14491,7 @@
         <v>29.852941176470587</v>
       </c>
       <c r="I120">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.94984326018808785</v>
       </c>
     </row>
@@ -12432,15 +14506,15 @@
         <v>130</v>
       </c>
       <c r="D121" s="14">
+        <f t="shared" si="6"/>
+        <v>1.9537275064267352</v>
+      </c>
+      <c r="E121" s="15">
         <f t="shared" si="7"/>
-        <v>1.9537275064267352</v>
-      </c>
-      <c r="E121" s="15">
+        <v>210</v>
+      </c>
+      <c r="F121" s="15">
         <f t="shared" si="8"/>
-        <v>210</v>
-      </c>
-      <c r="F121" s="15">
-        <f t="shared" si="9"/>
         <v>21.491228070175438</v>
       </c>
     </row>
@@ -12455,15 +14529,15 @@
         <v>136</v>
       </c>
       <c r="D122" s="14">
+        <f t="shared" si="6"/>
+        <v>1.9023136246786632</v>
+      </c>
+      <c r="E122" s="15">
         <f t="shared" si="7"/>
-        <v>1.9023136246786632</v>
-      </c>
-      <c r="E122" s="15">
+        <v>204</v>
+      </c>
+      <c r="F122" s="15">
         <f t="shared" si="8"/>
-        <v>204</v>
-      </c>
-      <c r="F122" s="15">
-        <f t="shared" si="9"/>
         <v>20.87719298245614</v>
       </c>
     </row>
@@ -12478,15 +14552,15 @@
         <v>129</v>
       </c>
       <c r="D123" s="14">
+        <f t="shared" si="6"/>
+        <v>1.8830334190231361</v>
+      </c>
+      <c r="E123" s="15">
         <f t="shared" si="7"/>
-        <v>1.8830334190231361</v>
-      </c>
-      <c r="E123" s="15">
+        <v>211</v>
+      </c>
+      <c r="F123" s="15">
         <f t="shared" si="8"/>
-        <v>211</v>
-      </c>
-      <c r="F123" s="15">
-        <f t="shared" si="9"/>
         <v>21.593567251461987</v>
       </c>
     </row>
@@ -12501,15 +14575,15 @@
         <v>127</v>
       </c>
       <c r="D124" s="14">
+        <f t="shared" si="6"/>
+        <v>1.9730077120822622</v>
+      </c>
+      <c r="E124" s="15">
         <f t="shared" si="7"/>
-        <v>1.9730077120822622</v>
-      </c>
-      <c r="E124" s="15">
+        <v>213</v>
+      </c>
+      <c r="F124" s="15">
         <f t="shared" si="8"/>
-        <v>213</v>
-      </c>
-      <c r="F124" s="15">
-        <f t="shared" si="9"/>
         <v>21.798245614035089</v>
       </c>
     </row>
@@ -12524,15 +14598,15 @@
         <v>127</v>
       </c>
       <c r="D125" s="14">
+        <f t="shared" si="6"/>
+        <v>1.9023136246786632</v>
+      </c>
+      <c r="E125" s="15">
         <f t="shared" si="7"/>
-        <v>1.9023136246786632</v>
-      </c>
-      <c r="E125" s="15">
+        <v>213</v>
+      </c>
+      <c r="F125" s="15">
         <f t="shared" si="8"/>
-        <v>213</v>
-      </c>
-      <c r="F125" s="15">
-        <f t="shared" si="9"/>
         <v>21.798245614035089</v>
       </c>
     </row>
@@ -12547,15 +14621,15 @@
         <v>116</v>
       </c>
       <c r="D126" s="14">
+        <f t="shared" si="6"/>
+        <v>2.030848329048843</v>
+      </c>
+      <c r="E126" s="15">
         <f t="shared" si="7"/>
-        <v>2.030848329048843</v>
-      </c>
-      <c r="E126" s="15">
+        <v>224</v>
+      </c>
+      <c r="F126" s="15">
         <f t="shared" si="8"/>
-        <v>224</v>
-      </c>
-      <c r="F126" s="15">
-        <f t="shared" si="9"/>
         <v>22.923976608187136</v>
       </c>
     </row>
@@ -12570,15 +14644,15 @@
         <v>90</v>
       </c>
       <c r="D127" s="14">
+        <f t="shared" si="6"/>
+        <v>2.024421593830334</v>
+      </c>
+      <c r="E127" s="15">
         <f t="shared" si="7"/>
-        <v>2.024421593830334</v>
-      </c>
-      <c r="E127" s="15">
+        <v>250</v>
+      </c>
+      <c r="F127" s="15">
         <f t="shared" si="8"/>
-        <v>250</v>
-      </c>
-      <c r="F127" s="15">
-        <f t="shared" si="9"/>
         <v>25.584795321637426</v>
       </c>
     </row>
@@ -12593,15 +14667,15 @@
         <v>47</v>
       </c>
       <c r="D128" s="14">
-        <f t="shared" ref="D128:D191" si="11">B128*$J$6/$I$6</f>
+        <f t="shared" ref="D128:D191" si="10">B128*$J$6/$I$6</f>
         <v>2.0437017994858611</v>
       </c>
       <c r="E128" s="15">
-        <f t="shared" ref="E128:E191" si="12">340-C128</f>
+        <f t="shared" ref="E128:E191" si="11">340-C128</f>
         <v>293</v>
       </c>
       <c r="F128" s="15">
-        <f t="shared" ref="F128:F191" si="13">E128*$J$5/$I$5</f>
+        <f t="shared" ref="F128:F191" si="12">E128*$J$5/$I$5</f>
         <v>29.985380116959064</v>
       </c>
     </row>
@@ -12610,15 +14684,15 @@
         <v>67</v>
       </c>
       <c r="D129" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E129">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E129">
+        <v>340</v>
+      </c>
+      <c r="F129">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F129">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -12627,15 +14701,15 @@
         <v>68</v>
       </c>
       <c r="D130" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E130">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E130">
+        <v>340</v>
+      </c>
+      <c r="F130">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F130">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -12644,15 +14718,15 @@
         <v>69</v>
       </c>
       <c r="D131" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E131">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E131">
+        <v>340</v>
+      </c>
+      <c r="F131">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F131">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -12661,15 +14735,15 @@
         <v>70</v>
       </c>
       <c r="D132" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E132">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E132">
+        <v>340</v>
+      </c>
+      <c r="F132">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F132">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -12678,15 +14752,15 @@
         <v>71</v>
       </c>
       <c r="D133" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E133">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E133">
+        <v>340</v>
+      </c>
+      <c r="F133">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F133">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -12695,15 +14769,15 @@
         <v>72</v>
       </c>
       <c r="D134" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E134">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E134">
+        <v>340</v>
+      </c>
+      <c r="F134">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F134">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -12712,15 +14786,15 @@
         <v>73</v>
       </c>
       <c r="D135" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E135">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E135">
+        <v>340</v>
+      </c>
+      <c r="F135">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F135">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -12729,15 +14803,15 @@
         <v>74</v>
       </c>
       <c r="D136" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E136">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E136">
+        <v>340</v>
+      </c>
+      <c r="F136">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F136">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -12746,15 +14820,15 @@
         <v>75</v>
       </c>
       <c r="D137" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E137">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E137">
+        <v>340</v>
+      </c>
+      <c r="F137">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F137">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -12763,15 +14837,15 @@
         <v>76</v>
       </c>
       <c r="D138" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E138">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E138">
+        <v>340</v>
+      </c>
+      <c r="F138">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F138">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -12780,15 +14854,15 @@
         <v>77</v>
       </c>
       <c r="D139" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E139">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E139">
+        <v>340</v>
+      </c>
+      <c r="F139">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F139">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -12797,15 +14871,15 @@
         <v>78</v>
       </c>
       <c r="D140" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E140">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E140">
+        <v>340</v>
+      </c>
+      <c r="F140">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F140">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -12814,15 +14888,15 @@
         <v>79</v>
       </c>
       <c r="D141" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E141">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E141">
+        <v>340</v>
+      </c>
+      <c r="F141">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F141">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -12831,15 +14905,15 @@
         <v>80</v>
       </c>
       <c r="D142" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E142">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E142">
+        <v>340</v>
+      </c>
+      <c r="F142">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F142">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -12848,15 +14922,15 @@
         <v>81</v>
       </c>
       <c r="D143" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E143">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E143">
+        <v>340</v>
+      </c>
+      <c r="F143">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F143">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -12865,15 +14939,15 @@
         <v>82</v>
       </c>
       <c r="D144" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E144">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E144">
+        <v>340</v>
+      </c>
+      <c r="F144">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F144">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -12882,15 +14956,15 @@
         <v>83</v>
       </c>
       <c r="D145" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E145">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E145">
+        <v>340</v>
+      </c>
+      <c r="F145">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F145">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -12899,15 +14973,15 @@
         <v>84</v>
       </c>
       <c r="D146" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E146">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E146">
+        <v>340</v>
+      </c>
+      <c r="F146">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F146">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -12916,15 +14990,15 @@
         <v>85</v>
       </c>
       <c r="D147" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E147">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E147">
+        <v>340</v>
+      </c>
+      <c r="F147">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F147">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -12933,15 +15007,15 @@
         <v>86</v>
       </c>
       <c r="D148" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E148">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E148">
+        <v>340</v>
+      </c>
+      <c r="F148">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F148">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -12950,15 +15024,15 @@
         <v>87</v>
       </c>
       <c r="D149" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E149">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E149">
+        <v>340</v>
+      </c>
+      <c r="F149">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F149">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -12967,15 +15041,15 @@
         <v>88</v>
       </c>
       <c r="D150" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E150">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E150">
+        <v>340</v>
+      </c>
+      <c r="F150">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F150">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -12984,15 +15058,15 @@
         <v>89</v>
       </c>
       <c r="D151" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E151">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E151">
+        <v>340</v>
+      </c>
+      <c r="F151">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F151">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13001,15 +15075,15 @@
         <v>90</v>
       </c>
       <c r="D152" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E152">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E152">
+        <v>340</v>
+      </c>
+      <c r="F152">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F152">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13018,15 +15092,15 @@
         <v>91</v>
       </c>
       <c r="D153" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E153">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E153">
+        <v>340</v>
+      </c>
+      <c r="F153">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F153">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13035,15 +15109,15 @@
         <v>92</v>
       </c>
       <c r="D154" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E154">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E154">
+        <v>340</v>
+      </c>
+      <c r="F154">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F154">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13052,15 +15126,15 @@
         <v>93</v>
       </c>
       <c r="D155" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E155">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E155">
+        <v>340</v>
+      </c>
+      <c r="F155">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F155">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13069,15 +15143,15 @@
         <v>94</v>
       </c>
       <c r="D156" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E156">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E156">
+        <v>340</v>
+      </c>
+      <c r="F156">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F156">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13086,15 +15160,15 @@
         <v>95</v>
       </c>
       <c r="D157" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E157">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E157">
+        <v>340</v>
+      </c>
+      <c r="F157">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F157">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13103,15 +15177,15 @@
         <v>96</v>
       </c>
       <c r="D158" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E158">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E158">
+        <v>340</v>
+      </c>
+      <c r="F158">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F158">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13120,15 +15194,15 @@
         <v>97</v>
       </c>
       <c r="D159" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E159">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E159">
+        <v>340</v>
+      </c>
+      <c r="F159">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F159">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13137,15 +15211,15 @@
         <v>98</v>
       </c>
       <c r="D160" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E160">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E160">
+        <v>340</v>
+      </c>
+      <c r="F160">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F160">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13154,15 +15228,15 @@
         <v>99</v>
       </c>
       <c r="D161" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E161">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E161">
+        <v>340</v>
+      </c>
+      <c r="F161">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F161">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13171,15 +15245,15 @@
         <v>100</v>
       </c>
       <c r="D162" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E162">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E162">
+        <v>340</v>
+      </c>
+      <c r="F162">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F162">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13188,15 +15262,15 @@
         <v>101</v>
       </c>
       <c r="D163" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E163">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E163">
+        <v>340</v>
+      </c>
+      <c r="F163">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F163">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13205,15 +15279,15 @@
         <v>102</v>
       </c>
       <c r="D164" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E164">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E164">
+        <v>340</v>
+      </c>
+      <c r="F164">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F164">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13222,15 +15296,15 @@
         <v>103</v>
       </c>
       <c r="D165" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E165">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E165">
+        <v>340</v>
+      </c>
+      <c r="F165">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F165">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13239,15 +15313,15 @@
         <v>104</v>
       </c>
       <c r="D166" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E166">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E166">
+        <v>340</v>
+      </c>
+      <c r="F166">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F166">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13256,15 +15330,15 @@
         <v>105</v>
       </c>
       <c r="D167" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E167">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E167">
+        <v>340</v>
+      </c>
+      <c r="F167">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F167">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13273,15 +15347,15 @@
         <v>106</v>
       </c>
       <c r="D168" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E168">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E168">
+        <v>340</v>
+      </c>
+      <c r="F168">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F168">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13290,15 +15364,15 @@
         <v>107</v>
       </c>
       <c r="D169" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E169">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E169">
+        <v>340</v>
+      </c>
+      <c r="F169">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F169">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13307,15 +15381,15 @@
         <v>108</v>
       </c>
       <c r="D170" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E170">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E170">
+        <v>340</v>
+      </c>
+      <c r="F170">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F170">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13324,15 +15398,15 @@
         <v>109</v>
       </c>
       <c r="D171" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E171">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E171">
+        <v>340</v>
+      </c>
+      <c r="F171">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F171">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13341,15 +15415,15 @@
         <v>110</v>
       </c>
       <c r="D172" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E172">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E172">
+        <v>340</v>
+      </c>
+      <c r="F172">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F172">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13358,15 +15432,15 @@
         <v>111</v>
       </c>
       <c r="D173" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E173">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E173">
+        <v>340</v>
+      </c>
+      <c r="F173">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F173">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13375,15 +15449,15 @@
         <v>112</v>
       </c>
       <c r="D174" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E174">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E174">
+        <v>340</v>
+      </c>
+      <c r="F174">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F174">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13392,15 +15466,15 @@
         <v>113</v>
       </c>
       <c r="D175" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E175">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E175">
+        <v>340</v>
+      </c>
+      <c r="F175">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F175">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13409,15 +15483,15 @@
         <v>114</v>
       </c>
       <c r="D176" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E176">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E176">
+        <v>340</v>
+      </c>
+      <c r="F176">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F176">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13426,15 +15500,15 @@
         <v>115</v>
       </c>
       <c r="D177" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E177">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E177">
+        <v>340</v>
+      </c>
+      <c r="F177">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F177">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13443,15 +15517,15 @@
         <v>116</v>
       </c>
       <c r="D178" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E178">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E178">
+        <v>340</v>
+      </c>
+      <c r="F178">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F178">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13460,15 +15534,15 @@
         <v>117</v>
       </c>
       <c r="D179" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E179">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E179">
+        <v>340</v>
+      </c>
+      <c r="F179">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F179">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13477,15 +15551,15 @@
         <v>118</v>
       </c>
       <c r="D180" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E180">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E180">
+        <v>340</v>
+      </c>
+      <c r="F180">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F180">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13494,15 +15568,15 @@
         <v>119</v>
       </c>
       <c r="D181" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E181">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E181">
+        <v>340</v>
+      </c>
+      <c r="F181">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F181">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13511,15 +15585,15 @@
         <v>120</v>
       </c>
       <c r="D182" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E182">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E182">
+        <v>340</v>
+      </c>
+      <c r="F182">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F182">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13528,15 +15602,15 @@
         <v>121</v>
       </c>
       <c r="D183" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E183">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E183">
+        <v>340</v>
+      </c>
+      <c r="F183">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F183">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13545,15 +15619,15 @@
         <v>122</v>
       </c>
       <c r="D184" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E184">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E184">
+        <v>340</v>
+      </c>
+      <c r="F184">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F184">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13562,15 +15636,15 @@
         <v>123</v>
       </c>
       <c r="D185" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E185">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E185">
+        <v>340</v>
+      </c>
+      <c r="F185">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F185">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13579,15 +15653,15 @@
         <v>124</v>
       </c>
       <c r="D186" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E186">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E186">
+        <v>340</v>
+      </c>
+      <c r="F186">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F186">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13596,15 +15670,15 @@
         <v>125</v>
       </c>
       <c r="D187" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E187">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E187">
+        <v>340</v>
+      </c>
+      <c r="F187">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F187">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13613,15 +15687,15 @@
         <v>126</v>
       </c>
       <c r="D188" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E188">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E188">
+        <v>340</v>
+      </c>
+      <c r="F188">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F188">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13630,15 +15704,15 @@
         <v>127</v>
       </c>
       <c r="D189" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E189">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E189">
+        <v>340</v>
+      </c>
+      <c r="F189">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F189">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13647,15 +15721,15 @@
         <v>128</v>
       </c>
       <c r="D190" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E190">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E190">
+        <v>340</v>
+      </c>
+      <c r="F190">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F190">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13664,15 +15738,15 @@
         <v>129</v>
       </c>
       <c r="D191" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E191">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E191">
+        <v>340</v>
+      </c>
+      <c r="F191">
         <f t="shared" si="12"/>
-        <v>340</v>
-      </c>
-      <c r="F191">
-        <f t="shared" si="13"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13681,15 +15755,15 @@
         <v>130</v>
       </c>
       <c r="D192" s="2">
-        <f t="shared" ref="D192:D196" si="14">B192*$J$6/$I$6</f>
+        <f t="shared" ref="D192:D196" si="13">B192*$J$6/$I$6</f>
         <v>0</v>
       </c>
       <c r="E192">
-        <f t="shared" ref="E192:E196" si="15">340-C192</f>
+        <f t="shared" ref="E192:E196" si="14">340-C192</f>
         <v>340</v>
       </c>
       <c r="F192">
-        <f t="shared" ref="F192:F196" si="16">E192*$J$5/$I$5</f>
+        <f t="shared" ref="F192:F196" si="15">E192*$J$5/$I$5</f>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13698,15 +15772,15 @@
         <v>131</v>
       </c>
       <c r="D193" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E193">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E193">
+        <v>340</v>
+      </c>
+      <c r="F193">
         <f t="shared" si="15"/>
-        <v>340</v>
-      </c>
-      <c r="F193">
-        <f t="shared" si="16"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13715,15 +15789,15 @@
         <v>132</v>
       </c>
       <c r="D194" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E194">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E194">
+        <v>340</v>
+      </c>
+      <c r="F194">
         <f t="shared" si="15"/>
-        <v>340</v>
-      </c>
-      <c r="F194">
-        <f t="shared" si="16"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13732,15 +15806,15 @@
         <v>133</v>
       </c>
       <c r="D195" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E195">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E195">
+        <v>340</v>
+      </c>
+      <c r="F195">
         <f t="shared" si="15"/>
-        <v>340</v>
-      </c>
-      <c r="F195">
-        <f t="shared" si="16"/>
         <v>34.795321637426902</v>
       </c>
     </row>
@@ -13749,19 +15823,20 @@
         <v>134</v>
       </c>
       <c r="D196" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E196">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E196">
+        <v>340</v>
+      </c>
+      <c r="F196">
         <f t="shared" si="15"/>
-        <v>340</v>
-      </c>
-      <c r="F196">
-        <f t="shared" si="16"/>
         <v>34.795321637426902</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="AA1:AH36"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -13777,7 +15852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -13787,244 +15862,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="20" t="s">
         <v>53</v>
       </c>
       <c r="G1" s="20"/>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17" t="s">
+    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16">
         <v>0.18</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>4730</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>1.56</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>0.73</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>79</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>127</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="17">
         <f>C4*B4^D4</f>
         <v>325.90141695731114</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="19">
+      <c r="E5" s="16"/>
+      <c r="F5" s="18">
         <f>F4/H4</f>
         <v>0.24240459197005571</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <f>G4/H4</f>
         <v>0.38968839468603894</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>0.23</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>15520</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>1.93</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>0.84</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>328</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>540</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <f>C6*B6^D6</f>
         <v>909.96867107072569</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="19">
+      <c r="E7" s="16"/>
+      <c r="F7" s="18">
         <f>F6/H6</f>
         <v>0.36045196986183581</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <f>G6/H6</f>
         <v>0.59342702355302235</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>0.22</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>15010</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>0.82</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>164</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>165</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <f>C8*B8^D8</f>
         <v>553.17448020249708</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="19">
+      <c r="E9" s="16"/>
+      <c r="F9" s="18">
         <f>F8/H8</f>
         <v>0.29647065414146645</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <f>G8/H8</f>
         <v>0.29827840203257294</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>6850</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>1.49</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>0.85</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>443</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>616</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <f>C10*B10^D10</f>
         <v>2887.2921608972147</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="19">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="18">
         <f>F10/H10</f>
         <v>0.15343095721298239</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="18">
         <f>G10/H10</f>
         <v>0.21334868993949696</v>
       </c>
-      <c r="H11" s="17"/>
+      <c r="H11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/bvtv.xlsx
+++ b/bvtv.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="26715" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="26715" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
   <si>
     <t>BV/TV</t>
   </si>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>Gestosc</t>
+  </si>
+  <si>
+    <t>Kretarz</t>
+  </si>
+  <si>
+    <t>Głowka</t>
+  </si>
+  <si>
+    <t>modul</t>
+  </si>
+  <si>
+    <t>gestosc</t>
   </si>
 </sst>
 </file>
@@ -504,13 +516,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -630,7 +642,7 @@
               <c:f>Sheet1!$E$2:$E$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0.15151515151515152</c:v>
                 </c:pt>
@@ -650,159 +662,123 @@
                   <c:v>0.37575757575757573</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35757575757575755</c:v>
+                  <c:v>0.44545454545454549</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35454545454545455</c:v>
+                  <c:v>0.45909090909090905</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41363636363636358</c:v>
+                  <c:v>0.47575757575757577</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.44545454545454549</c:v>
+                  <c:v>0.47878787878787876</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45909090909090905</c:v>
+                  <c:v>0.46969696969696972</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.47575757575757577</c:v>
+                  <c:v>0.6045454545454545</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.47878787878787876</c:v>
+                  <c:v>0.60606060606060608</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.46969696969696972</c:v>
+                  <c:v>0.62272727272727268</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5060606060606061</c:v>
+                  <c:v>0.65454545454545454</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.53181818181818186</c:v>
+                  <c:v>0.66969696969696968</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.56818181818181823</c:v>
+                  <c:v>0.67878787878787883</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.6045454545454545</c:v>
+                  <c:v>0.76363636363636356</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.60606060606060608</c:v>
+                  <c:v>0.7787878787878787</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.62272727272727268</c:v>
+                  <c:v>0.78787878787878785</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.65454545454545454</c:v>
+                  <c:v>0.76818181818181819</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.66969696969696968</c:v>
+                  <c:v>0.76969696969696977</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.67878787878787883</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.69696969696969702</c:v>
+                  <c:v>0.82272727272727275</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.71515151515151509</c:v>
+                  <c:v>0.82424242424242422</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.73181818181818181</c:v>
+                  <c:v>0.84999999999999987</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.76363636363636356</c:v>
+                  <c:v>0.88181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7787878787878787</c:v>
+                  <c:v>0.90303030303030296</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.78787878787878785</c:v>
+                  <c:v>0.97878787878787865</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.76818181818181819</c:v>
+                  <c:v>0.91363636363636369</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.76969696969696977</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.75</c:v>
+                  <c:v>0.99545454545454548</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.82424242424242422</c:v>
+                  <c:v>0.99090909090909085</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.80303030303030298</c:v>
+                  <c:v>1.009090909090909</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.85757575757575744</c:v>
+                  <c:v>1.009090909090909</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.82272727272727275</c:v>
+                  <c:v>0.9939393939393939</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.82424242424242422</c:v>
+                  <c:v>0.95909090909090911</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.84999999999999987</c:v>
+                  <c:v>1.0060606060606061</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.88181818181818183</c:v>
+                  <c:v>0.96363636363636351</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.90303030303030296</c:v>
+                  <c:v>1.0060606060606061</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.97878787878787865</c:v>
+                  <c:v>0.97575757575757571</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.91363636363636369</c:v>
+                  <c:v>1.0030303030303029</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.95</c:v>
+                  <c:v>0.97727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.99545454545454548</c:v>
+                  <c:v>1.0121212121212122</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.99090909090909085</c:v>
+                  <c:v>1.0030303030303029</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.009090909090909</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.009090909090909</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.9939393939393939</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.95909090909090911</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.0060606060606061</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.96363636363636351</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.0060606060606061</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.97575757575757571</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.0030303030303029</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.97727272727272729</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.0121212121212122</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.0030303030303029</c:v>
-                </c:pt>
-                <c:pt idx="57">
                   <c:v>1.0181818181818181</c:v>
                 </c:pt>
               </c:numCache>
@@ -813,7 +789,7 @@
               <c:f>Sheet1!$F$2:$F$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0.17156862745098039</c:v>
                 </c:pt>
@@ -833,159 +809,123 @@
                   <c:v>0.91503267973856206</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.34313725490196079</c:v>
+                  <c:v>0.85784313725490191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45751633986928103</c:v>
+                  <c:v>0.57189542483660127</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57189542483660127</c:v>
+                  <c:v>1.5441176470588236</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.85784313725490191</c:v>
+                  <c:v>1.0294117647058822</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.57189542483660127</c:v>
+                  <c:v>1.6013071895424837</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5441176470588236</c:v>
+                  <c:v>1.3725490196078431</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0294117647058822</c:v>
+                  <c:v>2.4019607843137254</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6013071895424837</c:v>
+                  <c:v>1.2009803921568627</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.57189542483660127</c:v>
+                  <c:v>0.80065359477124187</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.1437908496732025</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>1.7156862745098038</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7156862745098038</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.85784313725490191</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.3725490196078431</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.4019607843137254</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2009803921568627</c:v>
+                  <c:v>1.7156862745098038</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.80065359477124187</c:v>
+                  <c:v>2.630718954248366</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1437908496732025</c:v>
+                  <c:v>3.5457516339869279</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.7156862745098038</c:v>
+                  <c:v>3.8888888888888888</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.68627450980392157</c:v>
+                  <c:v>3.3169934640522878</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.5441176470588236</c:v>
+                  <c:v>4.2320261437908497</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.2875816993464051</c:v>
+                  <c:v>3.6601307189542482</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7156862745098038</c:v>
+                  <c:v>3.5457516339869279</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.85784313725490191</c:v>
+                  <c:v>1.8300653594771241</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7156862745098038</c:v>
+                  <c:v>3.0882352941176472</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.630718954248366</c:v>
+                  <c:v>3.7745098039215685</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.5457516339869279</c:v>
+                  <c:v>4.632352941176471</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.8888888888888888</c:v>
+                  <c:v>10.179738562091503</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0294117647058822</c:v>
+                  <c:v>12.524509803921569</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.9444444444444444</c:v>
+                  <c:v>12.81045751633987</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.2303921568627452</c:v>
+                  <c:v>14.411764705882353</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.3169934640522878</c:v>
+                  <c:v>15.326797385620916</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.2320261437908497</c:v>
+                  <c:v>16.928104575163399</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.6601307189542482</c:v>
+                  <c:v>17.385620915032678</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.5457516339869279</c:v>
+                  <c:v>18.758169934640524</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.8300653594771241</c:v>
+                  <c:v>19.101307189542485</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.0882352941176472</c:v>
+                  <c:v>19.387254901960784</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.7745098039215685</c:v>
+                  <c:v>20.245098039215687</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.632352941176471</c:v>
+                  <c:v>20.702614379084967</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>10.179738562091503</c:v>
+                  <c:v>21.78921568627451</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>12.524509803921569</c:v>
+                  <c:v>24.820261437908496</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12.81045751633987</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>14.411764705882353</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>15.326797385620916</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>16.928104575163399</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>17.385620915032678</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>18.758169934640524</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>19.101307189542485</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>19.387254901960784</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>20.245098039215687</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>20.702614379084967</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>21.78921568627451</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>24.820261437908496</c:v>
-                </c:pt>
-                <c:pt idx="57">
                   <c:v>29.852941176470587</c:v>
                 </c:pt>
               </c:numCache>
@@ -1015,7 +955,7 @@
               <c:f>Sheet1!$AB$2:$AB$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0.20499999999999999</c:v>
                 </c:pt>
@@ -1035,91 +975,55 @@
                   <c:v>0.33800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11700000000000001</c:v>
+                  <c:v>0.30199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.123</c:v>
+                  <c:v>0.30099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.112</c:v>
+                  <c:v>0.35499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30199999999999999</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.30099999999999999</c:v>
+                  <c:v>0.35399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.35499999999999998</c:v>
+                  <c:v>0.26500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.35</c:v>
+                  <c:v>0.26800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.35399999999999998</c:v>
+                  <c:v>0.26600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.16200000000000001</c:v>
+                  <c:v>0.374</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.16600000000000001</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.16300000000000001</c:v>
+                  <c:v>0.372</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.26500000000000001</c:v>
+                  <c:v>0.33300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.26800000000000002</c:v>
+                  <c:v>0.33500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.26600000000000001</c:v>
+                  <c:v>0.33400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.374</c:v>
+                  <c:v>0.30299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.375</c:v>
+                  <c:v>0.307</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.372</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.155</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.156</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.152</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.33300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.33500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.33400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.30299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.307</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>0.30599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.157</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.16500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1129,7 +1033,7 @@
               <c:f>Sheet1!$AA$2:$AA$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0.1199144</c:v>
                 </c:pt>
@@ -1149,91 +1053,55 @@
                   <c:v>0.10575230000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.003100000000001E-2</c:v>
+                  <c:v>0.14163999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10425</c:v>
+                  <c:v>0.15177750000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4967200000000012E-2</c:v>
+                  <c:v>0.15415600000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14163999999999999</c:v>
+                  <c:v>0.14673750000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15177750000000001</c:v>
+                  <c:v>0.14405999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15415600000000002</c:v>
+                  <c:v>0.104699</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.14673750000000002</c:v>
+                  <c:v>0.12052700000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.14405999999999999</c:v>
+                  <c:v>0.12848330000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.11959500000000001</c:v>
+                  <c:v>0.1554625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.2852999999999996E-2</c:v>
+                  <c:v>0.13077000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2002299999999996E-2</c:v>
+                  <c:v>0.14972749999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.104699</c:v>
+                  <c:v>0.1385033</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.12052700000000001</c:v>
+                  <c:v>0.12721670000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12848330000000002</c:v>
+                  <c:v>0.15728999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1554625</c:v>
+                  <c:v>0.1336167</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.13077000000000003</c:v>
+                  <c:v>0.134655</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.14972749999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.58136E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.0492000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.3965999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.1385033</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.12721670000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.15728999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.1336167</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.134655</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>0.12835199999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.110773</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.6975600000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.4342600000000013E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1248,11 +1116,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2064728384"/>
-        <c:axId val="2064728928"/>
+        <c:axId val="1383918720"/>
+        <c:axId val="1383919808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2064728384"/>
+        <c:axId val="1383918720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1281,12 +1149,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064728928"/>
+        <c:crossAx val="1383919808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2064728928"/>
+        <c:axId val="1383919808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,7 +1184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064728384"/>
+        <c:crossAx val="1383918720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1405,7 +1273,7 @@
               <c:f>Sheet1!$AA$2:$AA$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0.1199144</c:v>
                 </c:pt>
@@ -1425,91 +1293,55 @@
                   <c:v>0.10575230000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.003100000000001E-2</c:v>
+                  <c:v>0.14163999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10425</c:v>
+                  <c:v>0.15177750000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4967200000000012E-2</c:v>
+                  <c:v>0.15415600000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14163999999999999</c:v>
+                  <c:v>0.14673750000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15177750000000001</c:v>
+                  <c:v>0.14405999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15415600000000002</c:v>
+                  <c:v>0.104699</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.14673750000000002</c:v>
+                  <c:v>0.12052700000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.14405999999999999</c:v>
+                  <c:v>0.12848330000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.11959500000000001</c:v>
+                  <c:v>0.1554625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.2852999999999996E-2</c:v>
+                  <c:v>0.13077000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2002299999999996E-2</c:v>
+                  <c:v>0.14972749999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.104699</c:v>
+                  <c:v>0.1385033</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.12052700000000001</c:v>
+                  <c:v>0.12721670000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12848330000000002</c:v>
+                  <c:v>0.15728999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1554625</c:v>
+                  <c:v>0.1336167</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.13077000000000003</c:v>
+                  <c:v>0.134655</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.14972749999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.58136E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.0492000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.3965999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.1385033</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.12721670000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.15728999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.1336167</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.134655</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>0.12835199999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.110773</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.6975600000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.4342600000000013E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1519,7 +1351,7 @@
               <c:f>Sheet1!$AB$2:$AB$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0.20499999999999999</c:v>
                 </c:pt>
@@ -1539,91 +1371,55 @@
                   <c:v>0.33800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11700000000000001</c:v>
+                  <c:v>0.30199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.123</c:v>
+                  <c:v>0.30099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.112</c:v>
+                  <c:v>0.35499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30199999999999999</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.30099999999999999</c:v>
+                  <c:v>0.35399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.35499999999999998</c:v>
+                  <c:v>0.26500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.35</c:v>
+                  <c:v>0.26800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.35399999999999998</c:v>
+                  <c:v>0.26600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.16200000000000001</c:v>
+                  <c:v>0.374</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.16600000000000001</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.16300000000000001</c:v>
+                  <c:v>0.372</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.26500000000000001</c:v>
+                  <c:v>0.33300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.26800000000000002</c:v>
+                  <c:v>0.33500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.26600000000000001</c:v>
+                  <c:v>0.33400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.374</c:v>
+                  <c:v>0.30299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.375</c:v>
+                  <c:v>0.307</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.372</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.155</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.156</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.152</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.33300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.33500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.33400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.30299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.307</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>0.30599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.157</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.16500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1638,11 +1434,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126379552"/>
-        <c:axId val="126382272"/>
+        <c:axId val="1383918176"/>
+        <c:axId val="1204671472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126379552"/>
+        <c:axId val="1383918176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1678,12 +1474,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126382272"/>
+        <c:crossAx val="1204671472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126382272"/>
+        <c:axId val="1204671472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -1714,7 +1510,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126379552"/>
+        <c:crossAx val="1383918176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2605,11 +2401,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126374656"/>
-        <c:axId val="126384992"/>
+        <c:axId val="1204669840"/>
+        <c:axId val="1204672560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126374656"/>
+        <c:axId val="1204669840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2666,12 +2462,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126384992"/>
+        <c:crossAx val="1204672560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126384992"/>
+        <c:axId val="1204672560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2728,7 +2524,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126374656"/>
+        <c:crossAx val="1204669840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3310,11 +3106,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126385536"/>
-        <c:axId val="126384448"/>
+        <c:axId val="1389119056"/>
+        <c:axId val="1389120144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126385536"/>
+        <c:axId val="1389119056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3427,12 +3223,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126384448"/>
+        <c:crossAx val="1389120144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126384448"/>
+        <c:axId val="1389120144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3551,7 +3347,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126385536"/>
+        <c:crossAx val="1389119056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3713,7 +3509,7 @@
               <c:f>Sheet1!$AB$2:$AB$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0.20499999999999999</c:v>
                 </c:pt>
@@ -3733,91 +3529,55 @@
                   <c:v>0.33800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11700000000000001</c:v>
+                  <c:v>0.30199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.123</c:v>
+                  <c:v>0.30099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.112</c:v>
+                  <c:v>0.35499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30199999999999999</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.30099999999999999</c:v>
+                  <c:v>0.35399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.35499999999999998</c:v>
+                  <c:v>0.26500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.35</c:v>
+                  <c:v>0.26800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.35399999999999998</c:v>
+                  <c:v>0.26600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.16200000000000001</c:v>
+                  <c:v>0.374</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.16600000000000001</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.16300000000000001</c:v>
+                  <c:v>0.372</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.26500000000000001</c:v>
+                  <c:v>0.33300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.26800000000000002</c:v>
+                  <c:v>0.33500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.26600000000000001</c:v>
+                  <c:v>0.33400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.374</c:v>
+                  <c:v>0.30299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.375</c:v>
+                  <c:v>0.307</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.372</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.155</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.156</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.152</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.33300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.33500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.33400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.30299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.307</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>0.30599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.157</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.16500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3827,7 +3587,7 @@
               <c:f>Sheet1!$AA$2:$AA$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0.1199144</c:v>
                 </c:pt>
@@ -3847,91 +3607,55 @@
                   <c:v>0.10575230000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.003100000000001E-2</c:v>
+                  <c:v>0.14163999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10425</c:v>
+                  <c:v>0.15177750000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4967200000000012E-2</c:v>
+                  <c:v>0.15415600000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14163999999999999</c:v>
+                  <c:v>0.14673750000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15177750000000001</c:v>
+                  <c:v>0.14405999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15415600000000002</c:v>
+                  <c:v>0.104699</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.14673750000000002</c:v>
+                  <c:v>0.12052700000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.14405999999999999</c:v>
+                  <c:v>0.12848330000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.11959500000000001</c:v>
+                  <c:v>0.1554625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.2852999999999996E-2</c:v>
+                  <c:v>0.13077000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2002299999999996E-2</c:v>
+                  <c:v>0.14972749999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.104699</c:v>
+                  <c:v>0.1385033</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.12052700000000001</c:v>
+                  <c:v>0.12721670000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12848330000000002</c:v>
+                  <c:v>0.15728999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1554625</c:v>
+                  <c:v>0.1336167</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.13077000000000003</c:v>
+                  <c:v>0.134655</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.14972749999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.58136E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.0492000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.3965999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.1385033</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.12721670000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.15728999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.1336167</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.134655</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>0.12835199999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.110773</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.6975600000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.4342600000000013E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3968,7 +3692,7 @@
               <c:f>Sheet1!$E$2:$E$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0.15151515151515152</c:v>
                 </c:pt>
@@ -3988,159 +3712,123 @@
                   <c:v>0.37575757575757573</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35757575757575755</c:v>
+                  <c:v>0.44545454545454549</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35454545454545455</c:v>
+                  <c:v>0.45909090909090905</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41363636363636358</c:v>
+                  <c:v>0.47575757575757577</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.44545454545454549</c:v>
+                  <c:v>0.47878787878787876</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45909090909090905</c:v>
+                  <c:v>0.46969696969696972</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.47575757575757577</c:v>
+                  <c:v>0.6045454545454545</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.47878787878787876</c:v>
+                  <c:v>0.60606060606060608</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.46969696969696972</c:v>
+                  <c:v>0.62272727272727268</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5060606060606061</c:v>
+                  <c:v>0.65454545454545454</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.53181818181818186</c:v>
+                  <c:v>0.66969696969696968</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.56818181818181823</c:v>
+                  <c:v>0.67878787878787883</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.6045454545454545</c:v>
+                  <c:v>0.76363636363636356</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.60606060606060608</c:v>
+                  <c:v>0.7787878787878787</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.62272727272727268</c:v>
+                  <c:v>0.78787878787878785</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.65454545454545454</c:v>
+                  <c:v>0.76818181818181819</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.66969696969696968</c:v>
+                  <c:v>0.76969696969696977</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.67878787878787883</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.69696969696969702</c:v>
+                  <c:v>0.82272727272727275</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.71515151515151509</c:v>
+                  <c:v>0.82424242424242422</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.73181818181818181</c:v>
+                  <c:v>0.84999999999999987</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.76363636363636356</c:v>
+                  <c:v>0.88181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7787878787878787</c:v>
+                  <c:v>0.90303030303030296</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.78787878787878785</c:v>
+                  <c:v>0.97878787878787865</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.76818181818181819</c:v>
+                  <c:v>0.91363636363636369</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.76969696969696977</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.75</c:v>
+                  <c:v>0.99545454545454548</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.82424242424242422</c:v>
+                  <c:v>0.99090909090909085</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.80303030303030298</c:v>
+                  <c:v>1.009090909090909</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.85757575757575744</c:v>
+                  <c:v>1.009090909090909</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.82272727272727275</c:v>
+                  <c:v>0.9939393939393939</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.82424242424242422</c:v>
+                  <c:v>0.95909090909090911</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.84999999999999987</c:v>
+                  <c:v>1.0060606060606061</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.88181818181818183</c:v>
+                  <c:v>0.96363636363636351</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.90303030303030296</c:v>
+                  <c:v>1.0060606060606061</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.97878787878787865</c:v>
+                  <c:v>0.97575757575757571</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.91363636363636369</c:v>
+                  <c:v>1.0030303030303029</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.95</c:v>
+                  <c:v>0.97727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.99545454545454548</c:v>
+                  <c:v>1.0121212121212122</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.99090909090909085</c:v>
+                  <c:v>1.0030303030303029</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.009090909090909</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.009090909090909</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.9939393939393939</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.95909090909090911</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.0060606060606061</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.96363636363636351</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.0060606060606061</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.97575757575757571</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.0030303030303029</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.97727272727272729</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.0121212121212122</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.0030303030303029</c:v>
-                </c:pt>
-                <c:pt idx="57">
                   <c:v>1.0181818181818181</c:v>
                 </c:pt>
               </c:numCache>
@@ -4151,7 +3839,7 @@
               <c:f>Sheet1!$F$2:$F$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0.17156862745098039</c:v>
                 </c:pt>
@@ -4171,159 +3859,123 @@
                   <c:v>0.91503267973856206</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.34313725490196079</c:v>
+                  <c:v>0.85784313725490191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45751633986928103</c:v>
+                  <c:v>0.57189542483660127</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57189542483660127</c:v>
+                  <c:v>1.5441176470588236</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.85784313725490191</c:v>
+                  <c:v>1.0294117647058822</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.57189542483660127</c:v>
+                  <c:v>1.6013071895424837</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5441176470588236</c:v>
+                  <c:v>1.3725490196078431</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0294117647058822</c:v>
+                  <c:v>2.4019607843137254</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6013071895424837</c:v>
+                  <c:v>1.2009803921568627</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.57189542483660127</c:v>
+                  <c:v>0.80065359477124187</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.1437908496732025</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>1.7156862745098038</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7156862745098038</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.85784313725490191</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.3725490196078431</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.4019607843137254</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2009803921568627</c:v>
+                  <c:v>1.7156862745098038</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.80065359477124187</c:v>
+                  <c:v>2.630718954248366</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1437908496732025</c:v>
+                  <c:v>3.5457516339869279</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.7156862745098038</c:v>
+                  <c:v>3.8888888888888888</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.68627450980392157</c:v>
+                  <c:v>3.3169934640522878</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.5441176470588236</c:v>
+                  <c:v>4.2320261437908497</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.2875816993464051</c:v>
+                  <c:v>3.6601307189542482</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7156862745098038</c:v>
+                  <c:v>3.5457516339869279</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.85784313725490191</c:v>
+                  <c:v>1.8300653594771241</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7156862745098038</c:v>
+                  <c:v>3.0882352941176472</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.630718954248366</c:v>
+                  <c:v>3.7745098039215685</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.5457516339869279</c:v>
+                  <c:v>4.632352941176471</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.8888888888888888</c:v>
+                  <c:v>10.179738562091503</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0294117647058822</c:v>
+                  <c:v>12.524509803921569</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.9444444444444444</c:v>
+                  <c:v>12.81045751633987</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.2303921568627452</c:v>
+                  <c:v>14.411764705882353</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.3169934640522878</c:v>
+                  <c:v>15.326797385620916</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.2320261437908497</c:v>
+                  <c:v>16.928104575163399</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.6601307189542482</c:v>
+                  <c:v>17.385620915032678</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.5457516339869279</c:v>
+                  <c:v>18.758169934640524</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.8300653594771241</c:v>
+                  <c:v>19.101307189542485</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.0882352941176472</c:v>
+                  <c:v>19.387254901960784</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.7745098039215685</c:v>
+                  <c:v>20.245098039215687</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.632352941176471</c:v>
+                  <c:v>20.702614379084967</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>10.179738562091503</c:v>
+                  <c:v>21.78921568627451</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>12.524509803921569</c:v>
+                  <c:v>24.820261437908496</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12.81045751633987</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>14.411764705882353</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>15.326797385620916</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>16.928104575163399</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>17.385620915032678</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>18.758169934640524</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>19.101307189542485</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>19.387254901960784</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>20.245098039215687</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>20.702614379084967</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>21.78921568627451</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>24.820261437908496</c:v>
-                </c:pt>
-                <c:pt idx="57">
                   <c:v>29.852941176470587</c:v>
                 </c:pt>
               </c:numCache>
@@ -4732,11 +4384,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126378464"/>
-        <c:axId val="126387168"/>
+        <c:axId val="1389122320"/>
+        <c:axId val="1389120688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126378464"/>
+        <c:axId val="1389122320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.70000000000000007"/>
@@ -4795,12 +4447,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126387168"/>
+        <c:crossAx val="1389120688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126387168"/>
+        <c:axId val="1389120688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4857,7 +4509,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126378464"/>
+        <c:crossAx val="1389122320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5017,7 +4669,7 @@
               <c:f>Sheet1!$AH$2:$AH$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0.32801758567172645</c:v>
                 </c:pt>
@@ -5037,91 +4689,55 @@
                   <c:v>0.54511494845360831</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36098453608247427</c:v>
+                  <c:v>0.35481974410337602</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2348483231785847</c:v>
+                  <c:v>0.27968070232029624</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26282743083945775</c:v>
+                  <c:v>0.28171076911954684</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35481974410337602</c:v>
+                  <c:v>0.36078692984064947</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27968070232029624</c:v>
+                  <c:v>0.74257731958762885</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.28171076911954684</c:v>
+                  <c:v>0.53968556701030923</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.36078692984064947</c:v>
+                  <c:v>0.32880695816183025</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.74257731958762885</c:v>
+                  <c:v>0.25882507957372497</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.25033731181583374</c:v>
+                  <c:v>0.28281875118030997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.27552424193827235</c:v>
+                  <c:v>0.67407216494845379</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.31959948453608245</c:v>
+                  <c:v>0.36423618402582669</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.53968556701030923</c:v>
+                  <c:v>0.35109135692510041</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.32880695816183025</c:v>
+                  <c:v>0.65575618556701043</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.25882507957372497</c:v>
+                  <c:v>0.28436024628542367</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.28281875118030997</c:v>
+                  <c:v>0.34519296826246898</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.67407216494845379</c:v>
+                  <c:v>0.26453520258524882</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.36423618402582669</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.33924536082474221</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.27179245794618795</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.22377328806925029</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.35109135692510041</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.65575618556701043</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.28436024628542367</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.34519296826246898</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.26453520258524882</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>0.66160824742268043</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.2415721867470203</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.39678144329896908</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.29292969694373294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5131,7 +4747,7 @@
               <c:f>Sheet1!$AA$2:$AA$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0.1199144</c:v>
                 </c:pt>
@@ -5151,91 +4767,55 @@
                   <c:v>0.10575230000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.003100000000001E-2</c:v>
+                  <c:v>0.14163999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10425</c:v>
+                  <c:v>0.15177750000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4967200000000012E-2</c:v>
+                  <c:v>0.15415600000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14163999999999999</c:v>
+                  <c:v>0.14673750000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15177750000000001</c:v>
+                  <c:v>0.14405999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15415600000000002</c:v>
+                  <c:v>0.104699</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.14673750000000002</c:v>
+                  <c:v>0.12052700000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.14405999999999999</c:v>
+                  <c:v>0.12848330000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.11959500000000001</c:v>
+                  <c:v>0.1554625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.2852999999999996E-2</c:v>
+                  <c:v>0.13077000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2002299999999996E-2</c:v>
+                  <c:v>0.14972749999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.104699</c:v>
+                  <c:v>0.1385033</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.12052700000000001</c:v>
+                  <c:v>0.12721670000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12848330000000002</c:v>
+                  <c:v>0.15728999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1554625</c:v>
+                  <c:v>0.1336167</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.13077000000000003</c:v>
+                  <c:v>0.134655</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.14972749999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.58136E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.0492000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.3965999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.1385033</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.12721670000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.15728999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.1336167</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.134655</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>0.12835199999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.110773</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.6975600000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.4342600000000013E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5250,11 +4830,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126388256"/>
-        <c:axId val="126380096"/>
+        <c:axId val="1389125584"/>
+        <c:axId val="1389121776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126388256"/>
+        <c:axId val="1389125584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5367,12 +4947,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126380096"/>
+        <c:crossAx val="1389121776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126380096"/>
+        <c:axId val="1389121776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -5486,7 +5066,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126388256"/>
+        <c:crossAx val="1389125584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6113,7 +5693,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -6121,11 +5700,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="129966352"/>
-        <c:axId val="129965808"/>
+        <c:axId val="1389369872"/>
+        <c:axId val="1389370960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129966352"/>
+        <c:axId val="1389369872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.6"/>
@@ -6239,12 +5818,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129965808"/>
+        <c:crossAx val="1389370960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129965808"/>
+        <c:axId val="1389370960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -6358,7 +5937,728 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129966352"/>
+        <c:crossAx val="1389369872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Zależność Modułu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> Young'a od gęstości w zależności od kierunku i miejsca pobrania próbki</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9372703412073493E-2"/>
+          <c:y val="0.17973099059946884"/>
+          <c:w val="0.86817585301837275"/>
+          <c:h val="0.68737213486296411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Krętarz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AL$82:$AL$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.36098453608247427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2348483231785847</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26282743083945775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25033731181583374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27552424193827235</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31959948453608245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33924536082474221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27179245794618795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22377328806925029</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2415721867470203</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39678144329896908</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.29292969694373294</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AK$82:$AK$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.003100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10425</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4967200000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11959500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2852999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2002299999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.58136E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0492000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3965999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.110773</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.6975600000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.4342600000000013E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Główka</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$82:$AQ$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.32801758567172645</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26493598517709815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55199381443298967</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3228415225460291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27326015300557721</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54511494845360831</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35481974410337602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27968070232029624</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28171076911954684</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36078692984064947</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.74257731958762885</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53968556701030923</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32880695816183025</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25882507957372497</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28281875118030997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.67407216494845379</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.36423618402582669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.35109135692510041</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.65575618556701043</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.28436024628542367</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.34519296826246898</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.26453520258524882</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66160824742268043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AP$82:$AP$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.1199144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13509399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1070868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11593829999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14438499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10575230000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14163999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15177750000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15415600000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14673750000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14405999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.104699</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12052700000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12848330000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1554625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13077000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14972749999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1385033</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.12721670000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15728999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1336167</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.134655</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.12835199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1392890544"/>
+        <c:axId val="1392887824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1392890544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Gęstość [g/cm3]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1392887824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1392887824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Moduł Young'a [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1392890544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6639,6 +6939,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8704,6 +9044,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9261,7 +10117,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9472,6 +10328,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9802,10 +10688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AS196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA45" sqref="AA45"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH89" sqref="AH89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9862,10 +10749,10 @@
       <c r="AF1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AG1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="AH1" s="22" t="s">
+      <c r="AH1" s="21" t="s">
         <v>56</v>
       </c>
       <c r="AK1" t="s">
@@ -10259,7 +11146,7 @@
       <c r="AP7" s="11"/>
       <c r="AQ7" s="2"/>
     </row>
-    <row r="8" spans="1:43" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -10312,7 +11199,7 @@
       <c r="AP8" s="11"/>
       <c r="AQ8" s="2"/>
     </row>
-    <row r="9" spans="1:43" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -10373,7 +11260,7 @@
         <v>0.36423618402582669</v>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -10721,7 +11608,7 @@
         <v>0.74257731958762885</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -10770,7 +11657,7 @@
         <v>0.25033731181583374</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -10819,7 +11706,7 @@
         <v>0.27552424193827235</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -11171,7 +12058,7 @@
         <v>0.36423618402582669</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -11220,7 +12107,7 @@
         <v>0.33924536082474221</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -11269,7 +12156,7 @@
         <v>0.27179245794618795</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -11618,7 +12505,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -11667,7 +12554,7 @@
         <v>0.2415721867470203</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -11719,7 +12606,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -13108,6 +13995,12 @@
         <f t="shared" si="9"/>
         <v>0.42006269592476492</v>
       </c>
+      <c r="AK78" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP78" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="79" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
@@ -13175,7 +14068,7 @@
         <v>0.45768025078369906</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
         <v>19</v>
       </c>
@@ -13207,8 +14100,20 @@
         <f t="shared" si="9"/>
         <v>0.47021943573667713</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AK81" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP81" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <v>20</v>
       </c>
@@ -13240,8 +14145,20 @@
         <f t="shared" si="9"/>
         <v>0.4670846394984326</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AK82">
+        <v>7.003100000000001E-2</v>
+      </c>
+      <c r="AL82" s="2">
+        <v>0.36098453608247427</v>
+      </c>
+      <c r="AP82" s="11">
+        <v>0.1199144</v>
+      </c>
+      <c r="AQ82" s="2">
+        <v>0.32801758567172645</v>
+      </c>
+    </row>
+    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>21</v>
       </c>
@@ -13273,8 +14190,20 @@
         <f t="shared" si="9"/>
         <v>0.50156739811912221</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AK83">
+        <v>0.10425</v>
+      </c>
+      <c r="AL83" s="2">
+        <v>0.2348483231785847</v>
+      </c>
+      <c r="AP83" s="11">
+        <v>0.13509399999999999</v>
+      </c>
+      <c r="AQ83" s="2">
+        <v>0.26493598517709815</v>
+      </c>
+    </row>
+    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>22</v>
       </c>
@@ -13306,8 +14235,20 @@
         <f t="shared" si="9"/>
         <v>0.4952978056426332</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AK84">
+        <v>7.4967200000000012E-2</v>
+      </c>
+      <c r="AL84" s="2">
+        <v>0.26282743083945775</v>
+      </c>
+      <c r="AP84" s="11">
+        <v>0.1070868</v>
+      </c>
+      <c r="AQ84" s="2">
+        <v>0.55199381443298967</v>
+      </c>
+    </row>
+    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <v>23</v>
       </c>
@@ -13339,8 +14280,20 @@
         <f t="shared" si="9"/>
         <v>0.50783699059561127</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AK85">
+        <v>0.11959500000000001</v>
+      </c>
+      <c r="AL85" s="2">
+        <v>0.25033731181583374</v>
+      </c>
+      <c r="AP85" s="11">
+        <v>0.11593829999999999</v>
+      </c>
+      <c r="AQ85" s="2">
+        <v>0.3228415225460291</v>
+      </c>
+    </row>
+    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
         <v>24</v>
       </c>
@@ -13372,8 +14325,20 @@
         <f t="shared" si="9"/>
         <v>0.53605015673981193</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AK86">
+        <v>8.2852999999999996E-2</v>
+      </c>
+      <c r="AL86" s="2">
+        <v>0.27552424193827235</v>
+      </c>
+      <c r="AP86" s="11">
+        <v>0.14438499999999999</v>
+      </c>
+      <c r="AQ86" s="2">
+        <v>0.27326015300557721</v>
+      </c>
+    </row>
+    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
         <v>25</v>
       </c>
@@ -13405,8 +14370,20 @@
         <f t="shared" si="9"/>
         <v>0.54231974921630099</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AK87">
+        <v>6.2002299999999996E-2</v>
+      </c>
+      <c r="AL87" s="2">
+        <v>0.31959948453608245</v>
+      </c>
+      <c r="AP87" s="11">
+        <v>0.10575230000000001</v>
+      </c>
+      <c r="AQ87" s="2">
+        <v>0.54511494845360831</v>
+      </c>
+    </row>
+    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
         <v>26</v>
       </c>
@@ -13438,8 +14415,20 @@
         <f t="shared" si="9"/>
         <v>0.5642633228840126</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AK88">
+        <v>6.58136E-2</v>
+      </c>
+      <c r="AL88" s="2">
+        <v>0.33924536082474221</v>
+      </c>
+      <c r="AP88" s="11">
+        <v>0.14163999999999999</v>
+      </c>
+      <c r="AQ88" s="2">
+        <v>0.35481974410337602</v>
+      </c>
+    </row>
+    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>27</v>
       </c>
@@ -13471,8 +14460,20 @@
         <f t="shared" si="9"/>
         <v>0.57366771159874608</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AK89">
+        <v>8.0492000000000008E-2</v>
+      </c>
+      <c r="AL89" s="2">
+        <v>0.27179245794618795</v>
+      </c>
+      <c r="AP89" s="11">
+        <v>0.15177750000000001</v>
+      </c>
+      <c r="AQ89" s="2">
+        <v>0.27968070232029624</v>
+      </c>
+    </row>
+    <row r="90" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
         <v>28</v>
       </c>
@@ -13504,8 +14505,20 @@
         <f t="shared" si="9"/>
         <v>0.58307210031347967</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AK90">
+        <v>9.3965999999999994E-2</v>
+      </c>
+      <c r="AL90" s="2">
+        <v>0.22377328806925029</v>
+      </c>
+      <c r="AP90" s="11">
+        <v>0.15415600000000002</v>
+      </c>
+      <c r="AQ90" s="2">
+        <v>0.28171076911954684</v>
+      </c>
+    </row>
+    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>29</v>
       </c>
@@ -13537,8 +14550,20 @@
         <f t="shared" si="9"/>
         <v>0.60501567398119127</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AK91">
+        <v>0.110773</v>
+      </c>
+      <c r="AL91" s="2">
+        <v>0.2415721867470203</v>
+      </c>
+      <c r="AP91" s="11">
+        <v>0.14673750000000002</v>
+      </c>
+      <c r="AQ91" s="2">
+        <v>0.36078692984064947</v>
+      </c>
+    </row>
+    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
         <v>30</v>
       </c>
@@ -13570,8 +14595,20 @@
         <f t="shared" si="9"/>
         <v>0.60188087774294674</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AK92">
+        <v>7.6975600000000005E-2</v>
+      </c>
+      <c r="AL92" s="2">
+        <v>0.39678144329896908</v>
+      </c>
+      <c r="AP92" s="11">
+        <v>0.14405999999999999</v>
+      </c>
+      <c r="AQ92" s="2">
+        <v>0.74257731958762885</v>
+      </c>
+    </row>
+    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
         <v>31</v>
       </c>
@@ -13603,8 +14640,20 @@
         <f t="shared" si="9"/>
         <v>0.62068965517241381</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AK93">
+        <v>9.4342600000000013E-2</v>
+      </c>
+      <c r="AL93" s="2">
+        <v>0.29292969694373294</v>
+      </c>
+      <c r="AP93" s="11">
+        <v>0.104699</v>
+      </c>
+      <c r="AQ93" s="2">
+        <v>0.53968556701030923</v>
+      </c>
+    </row>
+    <row r="94" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
         <v>32</v>
       </c>
@@ -13636,8 +14685,14 @@
         <f t="shared" si="9"/>
         <v>0.62068965517241381</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AP94" s="11">
+        <v>0.12052700000000001</v>
+      </c>
+      <c r="AQ94" s="2">
+        <v>0.32880695816183025</v>
+      </c>
+    </row>
+    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
         <v>33</v>
       </c>
@@ -13669,8 +14724,14 @@
         <f t="shared" si="9"/>
         <v>0.66144200626959249</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AP95" s="11">
+        <v>0.12848330000000002</v>
+      </c>
+      <c r="AQ95" s="2">
+        <v>0.25882507957372497</v>
+      </c>
+    </row>
+    <row r="96" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
         <v>34</v>
       </c>
@@ -13702,8 +14763,14 @@
         <f t="shared" si="9"/>
         <v>0.66457680250783702</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AP96" s="11">
+        <v>0.1554625</v>
+      </c>
+      <c r="AQ96" s="2">
+        <v>0.28281875118030997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
         <v>35</v>
       </c>
@@ -13735,8 +14802,14 @@
         <f t="shared" si="9"/>
         <v>0.67711598746081503</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AP97" s="11">
+        <v>0.13077000000000003</v>
+      </c>
+      <c r="AQ97" s="2">
+        <v>0.67407216494845379</v>
+      </c>
+    </row>
+    <row r="98" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
         <v>36</v>
       </c>
@@ -13768,8 +14841,14 @@
         <f t="shared" si="9"/>
         <v>0.67711598746081503</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AP98" s="11">
+        <v>0.14972749999999999</v>
+      </c>
+      <c r="AQ98" s="2">
+        <v>0.36423618402582669</v>
+      </c>
+    </row>
+    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
         <v>37</v>
       </c>
@@ -13801,8 +14880,14 @@
         <f t="shared" si="9"/>
         <v>0.68338557993730409</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AP99" s="11">
+        <v>0.1385033</v>
+      </c>
+      <c r="AQ99" s="2">
+        <v>0.35109135692510041</v>
+      </c>
+    </row>
+    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
         <v>38</v>
       </c>
@@ -13834,8 +14919,14 @@
         <f t="shared" si="9"/>
         <v>0.71473354231974928</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AP100" s="11">
+        <v>0.12721670000000002</v>
+      </c>
+      <c r="AQ100" s="2">
+        <v>0.65575618556701043</v>
+      </c>
+    </row>
+    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
         <v>39</v>
       </c>
@@ -13867,8 +14958,14 @@
         <f t="shared" si="9"/>
         <v>0.73981191222570541</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AP101" s="11">
+        <v>0.15728999999999999</v>
+      </c>
+      <c r="AQ101" s="2">
+        <v>0.28436024628542367</v>
+      </c>
+    </row>
+    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
         <v>40</v>
       </c>
@@ -13900,8 +14997,14 @@
         <f t="shared" si="9"/>
         <v>0.7272727272727274</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AP102" s="11">
+        <v>0.1336167</v>
+      </c>
+      <c r="AQ102" s="2">
+        <v>0.34519296826246898</v>
+      </c>
+    </row>
+    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
         <v>41</v>
       </c>
@@ -13933,8 +15036,14 @@
         <f t="shared" si="9"/>
         <v>0.73667711598746088</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AP103" s="11">
+        <v>0.134655</v>
+      </c>
+      <c r="AQ103" s="2">
+        <v>0.26453520258524882</v>
+      </c>
+    </row>
+    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A104" s="14">
         <v>42</v>
       </c>
@@ -13966,8 +15075,14 @@
         <f t="shared" si="9"/>
         <v>0.75548589341692796</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AP104" s="11">
+        <v>0.12835199999999999</v>
+      </c>
+      <c r="AQ104" s="2">
+        <v>0.66160824742268043</v>
+      </c>
+    </row>
+    <row r="105" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
         <v>43</v>
       </c>
@@ -14000,7 +15115,7 @@
         <v>0.75862068965517238</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
         <v>44</v>
       </c>
@@ -14033,7 +15148,7 @@
         <v>0.82445141065830729</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
         <v>45</v>
       </c>
@@ -14066,7 +15181,7 @@
         <v>0.8150470219435737</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
         <v>46</v>
       </c>
@@ -14099,7 +15214,7 @@
         <v>0.84326018808777425</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
         <v>47</v>
       </c>
@@ -14132,7 +15247,7 @@
         <v>0.90282131661442011</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
         <v>48</v>
       </c>
@@ -14165,7 +15280,7 @@
         <v>0.94357366771159878</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
         <v>49</v>
       </c>
@@ -14198,7 +15313,7 @@
         <v>0.92163009404388718</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A112" s="14">
         <v>50</v>
       </c>
@@ -15836,7 +16951,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="AA1:AH36"/>
+  <autoFilter ref="AA1:AH36">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="K05RA1"/>
+        <filter val="K05RA2"/>
+        <filter val="K06RA2"/>
+        <filter val="K06RA3"/>
+        <filter val="KOSC 1RA1"/>
+        <filter val="KOSC 1RC"/>
+        <filter val="KOSC K03RA1"/>
+        <filter val="KOSC K03RB1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -15873,10 +17001,10 @@
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="16" t="s">
         <v>54</v>
       </c>

--- a/bvtv.xlsx
+++ b/bvtv.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="26715" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="4800" windowWidth="26715" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1116,11 +1116,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1383918720"/>
-        <c:axId val="1383919808"/>
+        <c:axId val="310382320"/>
+        <c:axId val="310379600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1383918720"/>
+        <c:axId val="310382320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1149,12 +1149,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1383919808"/>
+        <c:crossAx val="310379600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1383919808"/>
+        <c:axId val="310379600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1184,7 +1184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1383918720"/>
+        <c:crossAx val="310382320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1434,11 +1434,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1383918176"/>
-        <c:axId val="1204671472"/>
+        <c:axId val="310377968"/>
+        <c:axId val="310378512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1383918176"/>
+        <c:axId val="310377968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1474,12 +1474,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1204671472"/>
+        <c:crossAx val="310378512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1204671472"/>
+        <c:axId val="310378512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -1510,7 +1510,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1383918176"/>
+        <c:crossAx val="310377968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2401,11 +2401,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1204669840"/>
-        <c:axId val="1204672560"/>
+        <c:axId val="310375248"/>
+        <c:axId val="310380144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1204669840"/>
+        <c:axId val="310375248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2462,12 +2462,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1204672560"/>
+        <c:crossAx val="310380144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1204672560"/>
+        <c:axId val="310380144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,7 +2524,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1204669840"/>
+        <c:crossAx val="310375248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3106,11 +3106,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1389119056"/>
-        <c:axId val="1389120144"/>
+        <c:axId val="310383408"/>
+        <c:axId val="310381232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1389119056"/>
+        <c:axId val="310383408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3223,12 +3223,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1389120144"/>
+        <c:crossAx val="310381232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1389120144"/>
+        <c:axId val="310381232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3347,7 +3347,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1389119056"/>
+        <c:crossAx val="310383408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4384,11 +4384,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1389122320"/>
-        <c:axId val="1389120688"/>
+        <c:axId val="310370896"/>
+        <c:axId val="310380688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1389122320"/>
+        <c:axId val="310370896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.70000000000000007"/>
@@ -4447,12 +4447,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1389120688"/>
+        <c:crossAx val="310380688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1389120688"/>
+        <c:axId val="310380688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4509,7 +4509,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1389122320"/>
+        <c:crossAx val="310370896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4671,73 +4671,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.32801758567172645</c:v>
+                  <c:v>0.18125322602709948</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26493598517709815</c:v>
+                  <c:v>0.19736064081531171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55199381443298967</c:v>
+                  <c:v>0.16718181369294199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3228415225460291</c:v>
+                  <c:v>0.17693976726717295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27326015300557721</c:v>
+                  <c:v>0.20696333567475883</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54511494845360831</c:v>
+                  <c:v>0.16569101069610084</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35481974410337602</c:v>
+                  <c:v>0.20414512623236009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27968070232029624</c:v>
+                  <c:v>0.21447808738508831</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28171076911954684</c:v>
+                  <c:v>0.21687351907407543</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.36078692984064947</c:v>
+                  <c:v>0.20936641385287841</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.74257731958762885</c:v>
+                  <c:v>0.2066304719811384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.53968556701030923</c:v>
+                  <c:v>0.16451054511988039</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.32880695816183025</c:v>
+                  <c:v>0.18191414312768497</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.25882507957372497</c:v>
+                  <c:v>0.19041304799870865</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.28281875118030997</c:v>
+                  <c:v>0.21818482262955685</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.67407216494845379</c:v>
+                  <c:v>0.19282758535296851</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.36423618402582669</c:v>
+                  <c:v>0.21240487684409259</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.35109135692510041</c:v>
+                  <c:v>0.200905588812792</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.65575618556701043</c:v>
+                  <c:v>0.18907035955375248</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28436024628542367</c:v>
+                  <c:v>0.22001377317582541</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.34519296826246898</c:v>
+                  <c:v>0.19581664448159494</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.26453520258524882</c:v>
+                  <c:v>0.19690232714017566</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.66160824742268043</c:v>
+                  <c:v>0.19027403668803555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4830,11 +4830,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1389125584"/>
-        <c:axId val="1389121776"/>
+        <c:axId val="325658528"/>
+        <c:axId val="325659072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1389125584"/>
+        <c:axId val="325658528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4947,12 +4947,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1389121776"/>
+        <c:crossAx val="325659072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1389121776"/>
+        <c:axId val="325659072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -5066,7 +5066,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1389125584"/>
+        <c:crossAx val="325658528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5700,11 +5700,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1389369872"/>
-        <c:axId val="1389370960"/>
+        <c:axId val="325650912"/>
+        <c:axId val="325651456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1389369872"/>
+        <c:axId val="325650912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.6"/>
@@ -5818,12 +5818,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1389370960"/>
+        <c:crossAx val="325651456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1389370960"/>
+        <c:axId val="325651456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -5937,7 +5937,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1389369872"/>
+        <c:crossAx val="325650912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6144,40 +6144,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.36098453608247427</c:v>
+                  <c:v>0.12343609267998991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2348483231785847</c:v>
+                  <c:v>0.16400630663639501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26282743083945775</c:v>
+                  <c:v>0.12958998058912319</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25033731181583374</c:v>
+                  <c:v>0.18090825176604464</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27552424193827235</c:v>
+                  <c:v>0.13918672498530776</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31959948453608245</c:v>
+                  <c:v>0.11315374489050607</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33924536082474221</c:v>
+                  <c:v>0.11807950854289714</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27179245794618795</c:v>
+                  <c:v>0.13634197720488445</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22377328806925029</c:v>
+                  <c:v>0.15227985696260726</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2415721867470203</c:v>
+                  <c:v>0.17127248032381742</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39678144329896908</c:v>
+                  <c:v>0.13206042940562973</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.29292969694373294</c:v>
+                  <c:v>0.15271554506564874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6264,73 +6264,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.32801758567172645</c:v>
+                  <c:v>0.18125322602709948</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26493598517709815</c:v>
+                  <c:v>0.19736064081531171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55199381443298967</c:v>
+                  <c:v>0.16718181369294199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3228415225460291</c:v>
+                  <c:v>0.17693976726717295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27326015300557721</c:v>
+                  <c:v>0.20696333567475883</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54511494845360831</c:v>
+                  <c:v>0.16569101069610084</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35481974410337602</c:v>
+                  <c:v>0.20414512623236009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27968070232029624</c:v>
+                  <c:v>0.21447808738508831</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28171076911954684</c:v>
+                  <c:v>0.21687351907407543</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.36078692984064947</c:v>
+                  <c:v>0.20936641385287841</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.74257731958762885</c:v>
+                  <c:v>0.2066304719811384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.53968556701030923</c:v>
+                  <c:v>0.16451054511988039</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.32880695816183025</c:v>
+                  <c:v>0.18191414312768497</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.25882507957372497</c:v>
+                  <c:v>0.19041304799870865</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.28281875118030997</c:v>
+                  <c:v>0.21818482262955685</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.67407216494845379</c:v>
+                  <c:v>0.19282758535296851</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.36423618402582669</c:v>
+                  <c:v>0.21240487684409259</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.35109135692510041</c:v>
+                  <c:v>0.200905588812792</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.65575618556701043</c:v>
+                  <c:v>0.18907035955375248</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28436024628542367</c:v>
+                  <c:v>0.22001377317582541</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.34519296826246898</c:v>
+                  <c:v>0.19581664448159494</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.26453520258524882</c:v>
+                  <c:v>0.19690232714017566</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.66160824742268043</c:v>
+                  <c:v>0.19027403668803555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6423,11 +6423,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1392890544"/>
-        <c:axId val="1392887824"/>
+        <c:axId val="325656896"/>
+        <c:axId val="325663424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1392890544"/>
+        <c:axId val="325656896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6540,12 +6540,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1392887824"/>
+        <c:crossAx val="325663424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1392887824"/>
+        <c:axId val="325663424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6658,7 +6658,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1392890544"/>
+        <c:crossAx val="325656896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10335,16 +10335,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10691,8 +10691,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AS196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH89" sqref="AH89"/>
+    <sheetView tabSelected="1" topLeftCell="AF79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ82" sqref="AQ82:AQ104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10814,8 +10814,7 @@
         <v>2</v>
       </c>
       <c r="AH2" s="2">
-        <f>(AA2*1000/1274)^(1/2.12)</f>
-        <v>0.32801758567172645</v>
+        <v>0.18125322602709948</v>
       </c>
       <c r="AP2" s="11">
         <v>0.1199144</v>
@@ -10878,8 +10877,7 @@
         <v>1</v>
       </c>
       <c r="AH3" s="2">
-        <f>(AA3*1000/2349)^(1/2.15)</f>
-        <v>0.26493598517709815</v>
+        <v>0.19736064081531171</v>
       </c>
       <c r="AL3" s="11">
         <v>0.13509399999999999</v>
@@ -10939,8 +10937,7 @@
         <v>3</v>
       </c>
       <c r="AH4" s="2">
-        <f>AA4*1000/194</f>
-        <v>0.55199381443298967</v>
+        <v>0.16718181369294199</v>
       </c>
       <c r="AK4" t="s">
         <v>62</v>
@@ -11004,8 +11001,7 @@
         <v>2</v>
       </c>
       <c r="AH5" s="2">
-        <f>(AA5*1000/1274)^(1/2.12)</f>
-        <v>0.3228415225460291</v>
+        <v>0.17693976726717295</v>
       </c>
       <c r="AL5" s="11">
         <v>0.10425</v>
@@ -11074,8 +11070,7 @@
         <v>1</v>
       </c>
       <c r="AH6" s="2">
-        <f>(AA6*1000/2349)^(1/2.15)</f>
-        <v>0.27326015300557721</v>
+        <v>0.20696333567475883</v>
       </c>
       <c r="AL6" s="11">
         <v>0.15177750000000001</v>
@@ -11135,8 +11130,7 @@
         <v>3</v>
       </c>
       <c r="AH7" s="2">
-        <f>AA7*1000/194</f>
-        <v>0.54511494845360831</v>
+        <v>0.16569101069610084</v>
       </c>
       <c r="AK7" t="s">
         <v>63</v>
@@ -11191,8 +11185,7 @@
         <v>3</v>
       </c>
       <c r="AH8" s="2">
-        <f>AA8*1000/194</f>
-        <v>0.36098453608247427</v>
+        <v>0.12343609267998991</v>
       </c>
       <c r="AL8" s="11"/>
       <c r="AM8" s="2"/>
@@ -11244,8 +11237,7 @@
         <v>1</v>
       </c>
       <c r="AH9" s="2">
-        <f>(AA9*1000/2349)^(1/2.15)</f>
-        <v>0.2348483231785847</v>
+        <v>0.16400630663639501</v>
       </c>
       <c r="AL9" s="11">
         <v>0.12848330000000002</v>
@@ -11305,8 +11297,7 @@
         <v>2</v>
       </c>
       <c r="AH10" s="2">
-        <f>(AA10*1000/1274)^(1/2.12)</f>
-        <v>0.26282743083945775</v>
+        <v>0.12958998058912319</v>
       </c>
       <c r="AL10" s="11">
         <v>0.1554625</v>
@@ -11366,8 +11357,7 @@
         <v>2</v>
       </c>
       <c r="AH11" s="2">
-        <f>(AA11*1000/1274)^(1/2.12)</f>
-        <v>0.35481974410337602</v>
+        <v>0.20414512623236009</v>
       </c>
       <c r="AL11" s="11">
         <v>9.3965999999999994E-2</v>
@@ -11427,8 +11417,7 @@
         <v>1</v>
       </c>
       <c r="AH12" s="2">
-        <f>(AA12*1000/2349)^(1/2.15)</f>
-        <v>0.27968070232029624</v>
+        <v>0.21447808738508831</v>
       </c>
       <c r="AL12" s="11">
         <v>0.15728999999999999</v>
@@ -11488,8 +11477,7 @@
         <v>1</v>
       </c>
       <c r="AH13" s="2">
-        <f>(AA13*1000/2349)^(1/2.15)</f>
-        <v>0.28171076911954684</v>
+        <v>0.21687351907407543</v>
       </c>
       <c r="AL13" s="11">
         <v>0.134655</v>
@@ -11549,8 +11537,7 @@
         <v>2</v>
       </c>
       <c r="AH14" s="2">
-        <f>(AA14*1000/1274)^(1/2.12)</f>
-        <v>0.36078692984064947</v>
+        <v>0.20936641385287841</v>
       </c>
       <c r="AL14" s="11">
         <v>0.110773</v>
@@ -11604,8 +11591,7 @@
         <v>3</v>
       </c>
       <c r="AH15" s="2">
-        <f>AA15*1000/194</f>
-        <v>0.74257731958762885</v>
+        <v>0.2066304719811384</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11653,8 +11639,7 @@
         <v>1</v>
       </c>
       <c r="AH16" s="2">
-        <f>(AA16*1000/2349)^(1/2.15)</f>
-        <v>0.25033731181583374</v>
+        <v>0.18090825176604464</v>
       </c>
     </row>
     <row r="17" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
@@ -11702,8 +11687,7 @@
         <v>2</v>
       </c>
       <c r="AH17" s="2">
-        <f>(AA17*1000/1274)^(1/2.12)</f>
-        <v>0.27552424193827235</v>
+        <v>0.13918672498530776</v>
       </c>
     </row>
     <row r="18" spans="1:37" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11751,8 +11735,7 @@
         <v>3</v>
       </c>
       <c r="AH18" s="2">
-        <f>AA18*1000/194</f>
-        <v>0.31959948453608245</v>
+        <v>0.11315374489050607</v>
       </c>
       <c r="AK18" t="s">
         <v>59</v>
@@ -11803,8 +11786,7 @@
         <v>3</v>
       </c>
       <c r="AH19" s="2">
-        <f>AA19*1000/194</f>
-        <v>0.53968556701030923</v>
+        <v>0.16451054511988039</v>
       </c>
       <c r="AK19" t="s">
         <v>58</v>
@@ -11855,8 +11837,7 @@
         <v>2</v>
       </c>
       <c r="AH20" s="2">
-        <f>(AA20*1000/1274)^(1/2.12)</f>
-        <v>0.32880695816183025</v>
+        <v>0.18191414312768497</v>
       </c>
     </row>
     <row r="21" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11904,8 +11885,7 @@
         <v>1</v>
       </c>
       <c r="AH21" s="2">
-        <f>(AA21*1000/2349)^(1/2.15)</f>
-        <v>0.25882507957372497</v>
+        <v>0.19041304799870865</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11953,8 +11933,7 @@
         <v>1</v>
       </c>
       <c r="AH22" s="2">
-        <f>(AA22*1000/2349)^(1/2.15)</f>
-        <v>0.28281875118030997</v>
+        <v>0.21818482262955685</v>
       </c>
     </row>
     <row r="23" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12002,8 +11981,7 @@
         <v>3</v>
       </c>
       <c r="AH23" s="2">
-        <f>AA23*1000/194</f>
-        <v>0.67407216494845379</v>
+        <v>0.19282758535296851</v>
       </c>
       <c r="AK23" t="s">
         <v>64</v>
@@ -12054,8 +12032,7 @@
         <v>2</v>
       </c>
       <c r="AH24" s="2">
-        <f>(AA24*1000/1274)^(1/2.12)</f>
-        <v>0.36423618402582669</v>
+        <v>0.21240487684409259</v>
       </c>
     </row>
     <row r="25" spans="1:37" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12103,8 +12080,7 @@
         <v>3</v>
       </c>
       <c r="AH25" s="2">
-        <f>AA25*1000/194</f>
-        <v>0.33924536082474221</v>
+        <v>0.11807950854289714</v>
       </c>
     </row>
     <row r="26" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
@@ -12152,8 +12128,7 @@
         <v>2</v>
       </c>
       <c r="AH26" s="2">
-        <f>(AA26*1000/1274)^(1/2.12)</f>
-        <v>0.27179245794618795</v>
+        <v>0.13634197720488445</v>
       </c>
     </row>
     <row r="27" spans="1:37" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12201,8 +12176,7 @@
         <v>1</v>
       </c>
       <c r="AH27" s="2">
-        <f>(AA27*1000/2349)^(1/2.15)</f>
-        <v>0.22377328806925029</v>
+        <v>0.15227985696260726</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
@@ -12250,8 +12224,7 @@
         <v>2</v>
       </c>
       <c r="AH28" s="2">
-        <f>(AA28*1000/1274)^(1/2.12)</f>
-        <v>0.35109135692510041</v>
+        <v>0.200905588812792</v>
       </c>
     </row>
     <row r="29" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12299,8 +12272,7 @@
         <v>3</v>
       </c>
       <c r="AH29" s="2">
-        <f>AA29*1000/194</f>
-        <v>0.65575618556701043</v>
+        <v>0.18907035955375248</v>
       </c>
       <c r="AK29" t="s">
         <v>61</v>
@@ -12351,8 +12323,7 @@
         <v>1</v>
       </c>
       <c r="AH30" s="2">
-        <f>(AA30*1000/2349)^(1/2.15)</f>
-        <v>0.28436024628542367</v>
+        <v>0.22001377317582541</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
@@ -12400,8 +12371,7 @@
         <v>2</v>
       </c>
       <c r="AH31" s="2">
-        <f>(AA31*1000/1274)^(1/2.12)</f>
-        <v>0.34519296826246898</v>
+        <v>0.19581664448159494</v>
       </c>
     </row>
     <row r="32" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12449,8 +12419,7 @@
         <v>1</v>
       </c>
       <c r="AH32" s="2">
-        <f>(AA32*1000/2349)^(1/2.15)</f>
-        <v>0.26453520258524882</v>
+        <v>0.19690232714017566</v>
       </c>
     </row>
     <row r="33" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12498,8 +12467,7 @@
         <v>3</v>
       </c>
       <c r="AH33" s="2">
-        <f>AA33*1000/194</f>
-        <v>0.66160824742268043</v>
+        <v>0.19027403668803555</v>
       </c>
       <c r="AK33" t="s">
         <v>60</v>
@@ -12550,8 +12518,7 @@
         <v>1</v>
       </c>
       <c r="AH34" s="2">
-        <f>(AA34*1000/2349)^(1/2.15)</f>
-        <v>0.2415721867470203</v>
+        <v>0.17127248032381742</v>
       </c>
     </row>
     <row r="35" spans="1:37" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12599,8 +12566,7 @@
         <v>3</v>
       </c>
       <c r="AH35" s="2">
-        <f>AA35*1000/194</f>
-        <v>0.39678144329896908</v>
+        <v>0.13206042940562973</v>
       </c>
       <c r="AK35" t="s">
         <v>64</v>
@@ -12651,8 +12617,7 @@
         <v>2</v>
       </c>
       <c r="AH36" s="2">
-        <f>(AA36*1000/1274)^(1/2.12)</f>
-        <v>0.29292969694373294</v>
+        <v>0.15271554506564874</v>
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
@@ -14149,13 +14114,13 @@
         <v>7.003100000000001E-2</v>
       </c>
       <c r="AL82" s="2">
-        <v>0.36098453608247427</v>
+        <v>0.12343609267998991</v>
       </c>
       <c r="AP82" s="11">
         <v>0.1199144</v>
       </c>
       <c r="AQ82" s="2">
-        <v>0.32801758567172645</v>
+        <v>0.18125322602709948</v>
       </c>
     </row>
     <row r="83" spans="1:43" x14ac:dyDescent="0.25">
@@ -14194,13 +14159,13 @@
         <v>0.10425</v>
       </c>
       <c r="AL83" s="2">
-        <v>0.2348483231785847</v>
+        <v>0.16400630663639501</v>
       </c>
       <c r="AP83" s="11">
         <v>0.13509399999999999</v>
       </c>
       <c r="AQ83" s="2">
-        <v>0.26493598517709815</v>
+        <v>0.19736064081531171</v>
       </c>
     </row>
     <row r="84" spans="1:43" x14ac:dyDescent="0.25">
@@ -14239,13 +14204,13 @@
         <v>7.4967200000000012E-2</v>
       </c>
       <c r="AL84" s="2">
-        <v>0.26282743083945775</v>
+        <v>0.12958998058912319</v>
       </c>
       <c r="AP84" s="11">
         <v>0.1070868</v>
       </c>
       <c r="AQ84" s="2">
-        <v>0.55199381443298967</v>
+        <v>0.16718181369294199</v>
       </c>
     </row>
     <row r="85" spans="1:43" x14ac:dyDescent="0.25">
@@ -14284,13 +14249,13 @@
         <v>0.11959500000000001</v>
       </c>
       <c r="AL85" s="2">
-        <v>0.25033731181583374</v>
+        <v>0.18090825176604464</v>
       </c>
       <c r="AP85" s="11">
         <v>0.11593829999999999</v>
       </c>
       <c r="AQ85" s="2">
-        <v>0.3228415225460291</v>
+        <v>0.17693976726717295</v>
       </c>
     </row>
     <row r="86" spans="1:43" x14ac:dyDescent="0.25">
@@ -14329,13 +14294,13 @@
         <v>8.2852999999999996E-2</v>
       </c>
       <c r="AL86" s="2">
-        <v>0.27552424193827235</v>
+        <v>0.13918672498530776</v>
       </c>
       <c r="AP86" s="11">
         <v>0.14438499999999999</v>
       </c>
       <c r="AQ86" s="2">
-        <v>0.27326015300557721</v>
+        <v>0.20696333567475883</v>
       </c>
     </row>
     <row r="87" spans="1:43" x14ac:dyDescent="0.25">
@@ -14374,13 +14339,13 @@
         <v>6.2002299999999996E-2</v>
       </c>
       <c r="AL87" s="2">
-        <v>0.31959948453608245</v>
+        <v>0.11315374489050607</v>
       </c>
       <c r="AP87" s="11">
         <v>0.10575230000000001</v>
       </c>
       <c r="AQ87" s="2">
-        <v>0.54511494845360831</v>
+        <v>0.16569101069610084</v>
       </c>
     </row>
     <row r="88" spans="1:43" x14ac:dyDescent="0.25">
@@ -14419,13 +14384,13 @@
         <v>6.58136E-2</v>
       </c>
       <c r="AL88" s="2">
-        <v>0.33924536082474221</v>
+        <v>0.11807950854289714</v>
       </c>
       <c r="AP88" s="11">
         <v>0.14163999999999999</v>
       </c>
       <c r="AQ88" s="2">
-        <v>0.35481974410337602</v>
+        <v>0.20414512623236009</v>
       </c>
     </row>
     <row r="89" spans="1:43" x14ac:dyDescent="0.25">
@@ -14464,13 +14429,13 @@
         <v>8.0492000000000008E-2</v>
       </c>
       <c r="AL89" s="2">
-        <v>0.27179245794618795</v>
+        <v>0.13634197720488445</v>
       </c>
       <c r="AP89" s="11">
         <v>0.15177750000000001</v>
       </c>
       <c r="AQ89" s="2">
-        <v>0.27968070232029624</v>
+        <v>0.21447808738508831</v>
       </c>
     </row>
     <row r="90" spans="1:43" x14ac:dyDescent="0.25">
@@ -14509,13 +14474,13 @@
         <v>9.3965999999999994E-2</v>
       </c>
       <c r="AL90" s="2">
-        <v>0.22377328806925029</v>
+        <v>0.15227985696260726</v>
       </c>
       <c r="AP90" s="11">
         <v>0.15415600000000002</v>
       </c>
       <c r="AQ90" s="2">
-        <v>0.28171076911954684</v>
+        <v>0.21687351907407543</v>
       </c>
     </row>
     <row r="91" spans="1:43" x14ac:dyDescent="0.25">
@@ -14554,13 +14519,13 @@
         <v>0.110773</v>
       </c>
       <c r="AL91" s="2">
-        <v>0.2415721867470203</v>
+        <v>0.17127248032381742</v>
       </c>
       <c r="AP91" s="11">
         <v>0.14673750000000002</v>
       </c>
       <c r="AQ91" s="2">
-        <v>0.36078692984064947</v>
+        <v>0.20936641385287841</v>
       </c>
     </row>
     <row r="92" spans="1:43" x14ac:dyDescent="0.25">
@@ -14599,13 +14564,13 @@
         <v>7.6975600000000005E-2</v>
       </c>
       <c r="AL92" s="2">
-        <v>0.39678144329896908</v>
+        <v>0.13206042940562973</v>
       </c>
       <c r="AP92" s="11">
         <v>0.14405999999999999</v>
       </c>
       <c r="AQ92" s="2">
-        <v>0.74257731958762885</v>
+        <v>0.2066304719811384</v>
       </c>
     </row>
     <row r="93" spans="1:43" x14ac:dyDescent="0.25">
@@ -14644,13 +14609,13 @@
         <v>9.4342600000000013E-2</v>
       </c>
       <c r="AL93" s="2">
-        <v>0.29292969694373294</v>
+        <v>0.15271554506564874</v>
       </c>
       <c r="AP93" s="11">
         <v>0.104699</v>
       </c>
       <c r="AQ93" s="2">
-        <v>0.53968556701030923</v>
+        <v>0.16451054511988039</v>
       </c>
     </row>
     <row r="94" spans="1:43" x14ac:dyDescent="0.25">
@@ -14689,7 +14654,7 @@
         <v>0.12052700000000001</v>
       </c>
       <c r="AQ94" s="2">
-        <v>0.32880695816183025</v>
+        <v>0.18191414312768497</v>
       </c>
     </row>
     <row r="95" spans="1:43" x14ac:dyDescent="0.25">
@@ -14728,7 +14693,7 @@
         <v>0.12848330000000002</v>
       </c>
       <c r="AQ95" s="2">
-        <v>0.25882507957372497</v>
+        <v>0.19041304799870865</v>
       </c>
     </row>
     <row r="96" spans="1:43" x14ac:dyDescent="0.25">
@@ -14767,7 +14732,7 @@
         <v>0.1554625</v>
       </c>
       <c r="AQ96" s="2">
-        <v>0.28281875118030997</v>
+        <v>0.21818482262955685</v>
       </c>
     </row>
     <row r="97" spans="1:43" x14ac:dyDescent="0.25">
@@ -14806,7 +14771,7 @@
         <v>0.13077000000000003</v>
       </c>
       <c r="AQ97" s="2">
-        <v>0.67407216494845379</v>
+        <v>0.19282758535296851</v>
       </c>
     </row>
     <row r="98" spans="1:43" x14ac:dyDescent="0.25">
@@ -14845,7 +14810,7 @@
         <v>0.14972749999999999</v>
       </c>
       <c r="AQ98" s="2">
-        <v>0.36423618402582669</v>
+        <v>0.21240487684409259</v>
       </c>
     </row>
     <row r="99" spans="1:43" x14ac:dyDescent="0.25">
@@ -14884,7 +14849,7 @@
         <v>0.1385033</v>
       </c>
       <c r="AQ99" s="2">
-        <v>0.35109135692510041</v>
+        <v>0.200905588812792</v>
       </c>
     </row>
     <row r="100" spans="1:43" x14ac:dyDescent="0.25">
@@ -14923,7 +14888,7 @@
         <v>0.12721670000000002</v>
       </c>
       <c r="AQ100" s="2">
-        <v>0.65575618556701043</v>
+        <v>0.18907035955375248</v>
       </c>
     </row>
     <row r="101" spans="1:43" x14ac:dyDescent="0.25">
@@ -14962,7 +14927,7 @@
         <v>0.15728999999999999</v>
       </c>
       <c r="AQ101" s="2">
-        <v>0.28436024628542367</v>
+        <v>0.22001377317582541</v>
       </c>
     </row>
     <row r="102" spans="1:43" x14ac:dyDescent="0.25">
@@ -15001,7 +14966,7 @@
         <v>0.1336167</v>
       </c>
       <c r="AQ102" s="2">
-        <v>0.34519296826246898</v>
+        <v>0.19581664448159494</v>
       </c>
     </row>
     <row r="103" spans="1:43" x14ac:dyDescent="0.25">
@@ -15040,7 +15005,7 @@
         <v>0.134655</v>
       </c>
       <c r="AQ103" s="2">
-        <v>0.26453520258524882</v>
+        <v>0.19690232714017566</v>
       </c>
     </row>
     <row r="104" spans="1:43" x14ac:dyDescent="0.25">
@@ -15079,7 +15044,7 @@
         <v>0.12835199999999999</v>
       </c>
       <c r="AQ104" s="2">
-        <v>0.66160824742268043</v>
+        <v>0.19027403668803555</v>
       </c>
     </row>
     <row r="105" spans="1:43" x14ac:dyDescent="0.25">
